--- a/Phòng kỹ thuật/COA/mã hóa/mã hóa NL, NCC - Final 25.11.2022.xlsx
+++ b/Phòng kỹ thuật/COA/mã hóa/mã hóa NL, NCC - Final 25.11.2022.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\kimhuong\Phòng kỹ thuật\COA\mã hóa\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF09F04A-FA00-4E42-AD93-F359F360BAA2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="79935" windowWidth="15600" windowHeight="1200" tabRatio="601" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="79935" windowWidth="15600" windowHeight="1200" tabRatio="601" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MH NCC" sheetId="42" r:id="rId1"/>
@@ -16,12 +22,12 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">MH!$A$1:$N$930</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'MH NCC'!$A$1:$B$152</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="179021"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5989" uniqueCount="2933">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5990" uniqueCount="2934">
   <si>
     <t>H-249</t>
   </si>
@@ -12569,23 +12575,26 @@
   <si>
     <t>JINLU - ZIBO YUNCHUAN</t>
   </si>
+  <si>
+    <t>Acrylic ester copolymer</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _₫_-;\-* #,##0.00\ _₫_-;_-* &quot;-&quot;??\ _₫_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
   </numFmts>
   <fonts count="102">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -12600,98 +12609,98 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -12918,7 +12927,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="163"/>
       <scheme val="minor"/>
@@ -12926,7 +12935,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -12946,7 +12955,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -12968,7 +12977,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -13020,7 +13029,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -13232,7 +13241,7 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -13774,20 +13783,20 @@
     <xf numFmtId="166" fontId="30" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="52" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="52" fillId="0" borderId="0"/>
@@ -13874,7 +13883,7 @@
     <xf numFmtId="166" fontId="52" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="38" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -13962,8 +13971,8 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="3" fillId="0" borderId="0"/>
@@ -14090,8 +14099,8 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
@@ -14193,7 +14202,7 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
@@ -14461,8 +14470,8 @@
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="45" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="42" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="46" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -14500,17 +14509,17 @@
     <xf numFmtId="166" fontId="76" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="84" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="78" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="74" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="86" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="87" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="83" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -14533,7 +14542,7 @@
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="46" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="17" fillId="21" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="35" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
@@ -14541,11 +14550,11 @@
     <xf numFmtId="166" fontId="45" fillId="22" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="51" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="51" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="51" fillId="0" borderId="0"/>
@@ -14596,19 +14605,19 @@
     <xf numFmtId="166" fontId="84" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="78" fillId="22" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="86" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="93" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="93" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="87" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="83" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="88" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -15075,8 +15084,8 @@
     <xf numFmtId="166" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="93" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="94" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="94" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="94" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="94" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="94" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="94" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="94" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="94" fillId="0" borderId="0"/>
@@ -15087,6 +15096,23 @@
     <xf numFmtId="166" fontId="94" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="94" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="95" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="95" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="95" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="95" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="95" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="95" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="95" fillId="0" borderId="0"/>
+    <xf numFmtId="166" fontId="96" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="96" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -15094,25 +15120,8 @@
     <xf numFmtId="165" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="96" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="95" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="95" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="95" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="95" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="95" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="95" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="95" fillId="0" borderId="0"/>
-    <xf numFmtId="166" fontId="96" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="96" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="19" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="31" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="96" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="17" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="96" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="96" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="96" fillId="0" borderId="0"/>
@@ -15120,8 +15129,8 @@
     <xf numFmtId="166" fontId="96" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="97" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="97" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="97" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="97" fillId="0" borderId="0"/>
@@ -15135,8 +15144,8 @@
     <xf numFmtId="166" fontId="97" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="97" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="98" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="98" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="98" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="98" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="98" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="98" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="98" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="98" fillId="0" borderId="0"/>
@@ -15145,14 +15154,14 @@
     <xf numFmtId="166" fontId="98" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="98" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="99" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="99" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="99" fillId="0" borderId="0"/>
     <xf numFmtId="166" fontId="100" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="100" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="101" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
@@ -15287,70 +15296,70 @@
     <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="59" fillId="24" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="59" fillId="24" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="64" fillId="24" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="64" fillId="24" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="27" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="61" fillId="27" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="29" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="61" fillId="29" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="27" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="27" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="29" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="29" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="67" fillId="24" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="67" fillId="24" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="27" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="27" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="29" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="29" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="28" fillId="0" borderId="0" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="67" fillId="24" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="67" fillId="24" borderId="0" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="63" fillId="24" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="63" fillId="24" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="0" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="61" fillId="0" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="0" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="61" fillId="0" borderId="10" xfId="28" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="27" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="61" fillId="27" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="29" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="61" fillId="29" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="64" fillId="24" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="64" fillId="24" borderId="0" xfId="28" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="61" fillId="0" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="61" fillId="0" borderId="0" xfId="28" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="61" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -15359,13 +15368,13 @@
     <xf numFmtId="166" fontId="59" fillId="24" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="28" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="28" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="28" borderId="13" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="28" borderId="13" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="62" fillId="28" borderId="13" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="62" fillId="28" borderId="13" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15488,37 +15497,7 @@
     <xf numFmtId="166" fontId="28" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="65" fillId="0" borderId="15" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="65" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="59" fillId="24" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="29" borderId="13" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="29" borderId="11" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="27" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="27" borderId="13" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="27" borderId="11" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="29" fillId="29" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="101" fillId="30" borderId="10" xfId="1242" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -15527,13 +15506,19 @@
     <xf numFmtId="166" fontId="50" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="65" fillId="0" borderId="15" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="65" fillId="0" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="166" fontId="28" fillId="28" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="28" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="50" fillId="28" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="50" fillId="28" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="29" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -15548,1260 +15533,1284 @@
     <xf numFmtId="166" fontId="28" fillId="25" borderId="11" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="29" fillId="28" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="59" fillId="24" borderId="10" xfId="28" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="28" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="28" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="101" fillId="30" borderId="10" xfId="1242" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="29" fillId="27" borderId="13" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="27" borderId="11" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="29" borderId="13" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="29" borderId="11" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="56" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="27" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="29" fillId="29" borderId="10" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1243">
-    <cellStyle name="-" xfId="1"/>
-    <cellStyle name="- 2" xfId="642"/>
-    <cellStyle name="20% - Accent1 2" xfId="566"/>
-    <cellStyle name="20% - Accent1 2 2" xfId="643"/>
-    <cellStyle name="20% - Accent2 2" xfId="567"/>
-    <cellStyle name="20% - Accent2 2 2" xfId="644"/>
-    <cellStyle name="20% - Accent3 2" xfId="568"/>
-    <cellStyle name="20% - Accent3 2 2" xfId="645"/>
-    <cellStyle name="20% - Accent4 2" xfId="569"/>
-    <cellStyle name="20% - Accent4 2 2" xfId="646"/>
-    <cellStyle name="20% - Accent5 2" xfId="570"/>
-    <cellStyle name="20% - Accent5 2 2" xfId="647"/>
-    <cellStyle name="20% - Accent6 2" xfId="571"/>
-    <cellStyle name="20% - Accent6 2 2" xfId="648"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="2"/>
-    <cellStyle name="20% - 强调文字颜色 1 2" xfId="649"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="3"/>
-    <cellStyle name="20% - 强调文字颜色 2 2" xfId="650"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="4"/>
-    <cellStyle name="20% - 强调文字颜色 3 2" xfId="651"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="5"/>
-    <cellStyle name="20% - 强调文字颜色 4 2" xfId="652"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="6"/>
-    <cellStyle name="20% - 强调文字颜色 5 2" xfId="653"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="7"/>
-    <cellStyle name="20% - 强调文字颜色 6 2" xfId="654"/>
-    <cellStyle name="40% - Accent1 2" xfId="572"/>
-    <cellStyle name="40% - Accent1 2 2" xfId="655"/>
-    <cellStyle name="40% - Accent2 2" xfId="573"/>
-    <cellStyle name="40% - Accent2 2 2" xfId="656"/>
-    <cellStyle name="40% - Accent3 2" xfId="574"/>
-    <cellStyle name="40% - Accent3 2 2" xfId="657"/>
-    <cellStyle name="40% - Accent4 2" xfId="575"/>
-    <cellStyle name="40% - Accent4 2 2" xfId="658"/>
-    <cellStyle name="40% - Accent5 2" xfId="576"/>
-    <cellStyle name="40% - Accent5 2 2" xfId="659"/>
-    <cellStyle name="40% - Accent6 2" xfId="577"/>
-    <cellStyle name="40% - Accent6 2 2" xfId="660"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="8"/>
-    <cellStyle name="40% - 强调文字颜色 1 2" xfId="661"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="9"/>
-    <cellStyle name="40% - 强调文字颜色 2 2" xfId="662"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="10"/>
-    <cellStyle name="40% - 强调文字颜色 3 2" xfId="663"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="11"/>
-    <cellStyle name="40% - 强调文字颜色 4 2" xfId="664"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="12"/>
-    <cellStyle name="40% - 强调文字颜色 5 2" xfId="665"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="13"/>
-    <cellStyle name="40% - 强调文字颜色 6 2" xfId="666"/>
-    <cellStyle name="60% - Accent1 2" xfId="578"/>
-    <cellStyle name="60% - Accent1 2 2" xfId="667"/>
-    <cellStyle name="60% - Accent2 2" xfId="579"/>
-    <cellStyle name="60% - Accent2 2 2" xfId="668"/>
-    <cellStyle name="60% - Accent3 2" xfId="580"/>
-    <cellStyle name="60% - Accent3 2 2" xfId="669"/>
-    <cellStyle name="60% - Accent4 2" xfId="581"/>
-    <cellStyle name="60% - Accent4 2 2" xfId="670"/>
-    <cellStyle name="60% - Accent5 2" xfId="582"/>
-    <cellStyle name="60% - Accent5 2 2" xfId="671"/>
-    <cellStyle name="60% - Accent6 2" xfId="583"/>
-    <cellStyle name="60% - Accent6 2 2" xfId="672"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14"/>
-    <cellStyle name="60% - 强调文字颜色 1 2" xfId="673"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="15"/>
-    <cellStyle name="60% - 强调文字颜色 2 2" xfId="674"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="16"/>
-    <cellStyle name="60% - 强调文字颜色 3 2" xfId="675"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 4 2" xfId="676"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="18"/>
-    <cellStyle name="60% - 强调文字颜色 5 2" xfId="677"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 6 2" xfId="678"/>
-    <cellStyle name="Accent1 2" xfId="584"/>
-    <cellStyle name="Accent1 2 2" xfId="679"/>
-    <cellStyle name="Accent2 2" xfId="585"/>
-    <cellStyle name="Accent2 2 2" xfId="680"/>
-    <cellStyle name="Accent3 2" xfId="586"/>
-    <cellStyle name="Accent3 2 2" xfId="681"/>
-    <cellStyle name="Accent4 2" xfId="587"/>
-    <cellStyle name="Accent4 2 2" xfId="682"/>
-    <cellStyle name="Accent5 2" xfId="588"/>
-    <cellStyle name="Accent5 2 2" xfId="683"/>
-    <cellStyle name="Accent6 2" xfId="589"/>
-    <cellStyle name="Accent6 2 2" xfId="684"/>
+    <cellStyle name="-" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="- 2" xfId="642" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent1 2" xfId="566" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent1 2 2" xfId="643" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="567" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent2 2 2" xfId="644" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="568" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="20% - Accent3 2 2" xfId="645" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="569" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="20% - Accent4 2 2" xfId="646" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="570" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="20% - Accent5 2 2" xfId="647" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="571" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="20% - Accent6 2 2" xfId="648" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="2" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="20% - 强调文字颜色 1 2" xfId="649" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="20% - 强调文字颜色 2 2" xfId="650" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="20% - 强调文字颜色 3 2" xfId="651" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="5" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="20% - 强调文字颜色 4 2" xfId="652" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="20% - 强调文字颜色 5 2" xfId="653" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="7" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="20% - 强调文字颜色 6 2" xfId="654" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="572" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="40% - Accent1 2 2" xfId="655" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="573" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="40% - Accent2 2 2" xfId="656" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="574" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="40% - Accent3 2 2" xfId="657" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="575" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="40% - Accent4 2 2" xfId="658" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="576" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="40% - Accent5 2 2" xfId="659" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="577" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="40% - Accent6 2 2" xfId="660" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="8" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="40% - 强调文字颜色 1 2" xfId="661" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="40% - 强调文字颜色 2 2" xfId="662" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="10" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="40% - 强调文字颜色 3 2" xfId="663" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="11" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="40% - 强调文字颜色 4 2" xfId="664" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="12" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="40% - 强调文字颜色 5 2" xfId="665" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="13" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="40% - 强调文字颜色 6 2" xfId="666" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="578" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="60% - Accent1 2 2" xfId="667" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="579" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="60% - Accent2 2 2" xfId="668" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="580" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="60% - Accent3 2 2" xfId="669" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="581" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="60% - Accent4 2 2" xfId="670" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="582" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="60% - Accent5 2 2" xfId="671" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="583" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="60% - Accent6 2 2" xfId="672" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="14" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="60% - 强调文字颜色 1 2" xfId="673" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="15" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="60% - 强调文字颜色 2 2" xfId="674" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="16" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="60% - 强调文字颜色 3 2" xfId="675" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="17" xr:uid="{00000000-0005-0000-0000-000044000000}"/>
+    <cellStyle name="60% - 强调文字颜色 4 2" xfId="676" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="18" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="60% - 强调文字颜色 5 2" xfId="677" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="19" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
+    <cellStyle name="60% - 强调文字颜色 6 2" xfId="678" xr:uid="{00000000-0005-0000-0000-000049000000}"/>
+    <cellStyle name="Accent1 2" xfId="584" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Accent1 2 2" xfId="679" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Accent2 2" xfId="585" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Accent2 2 2" xfId="680" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Accent3 2" xfId="586" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Accent3 2 2" xfId="681" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Accent4 2" xfId="587" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Accent4 2 2" xfId="682" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Accent5 2" xfId="588" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Accent5 2 2" xfId="683" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Accent6 2" xfId="589" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Accent6 2 2" xfId="684" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
     <cellStyle name="Bad" xfId="1242" builtinId="27"/>
-    <cellStyle name="Bad 2" xfId="590"/>
-    <cellStyle name="Bad 2 2" xfId="685"/>
-    <cellStyle name="Bình thường 2" xfId="20"/>
-    <cellStyle name="Bình thường 2 2" xfId="21"/>
-    <cellStyle name="Bình thường 2 3" xfId="22"/>
-    <cellStyle name="Bình thường 2 4" xfId="173"/>
-    <cellStyle name="Bình thường 2 4 2" xfId="356"/>
-    <cellStyle name="Bình thường 2 4_CS" xfId="487"/>
-    <cellStyle name="Bình thường 2 5" xfId="270"/>
-    <cellStyle name="Bình thường 2_CS" xfId="488"/>
-    <cellStyle name="Bình thường 3" xfId="23"/>
-    <cellStyle name="Bình thường 4" xfId="24"/>
-    <cellStyle name="Bình thường 4 2" xfId="624"/>
-    <cellStyle name="Bình thường 5" xfId="25"/>
-    <cellStyle name="Bình thường 5 2" xfId="26"/>
-    <cellStyle name="Bình thường 5_CS" xfId="486"/>
-    <cellStyle name="Bình thường 6" xfId="27"/>
-    <cellStyle name="Calculation 2" xfId="591"/>
-    <cellStyle name="Calculation 2 2" xfId="686"/>
-    <cellStyle name="Check Cell 2" xfId="603"/>
-    <cellStyle name="Check Cell 2 2" xfId="687"/>
+    <cellStyle name="Bad 2" xfId="590" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Bad 2 2" xfId="685" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Bình thường 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Bình thường 2 2" xfId="21" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Bình thường 2 3" xfId="22" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Bình thường 2 4" xfId="173" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Bình thường 2 4 2" xfId="356" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Bình thường 2 4_CS" xfId="487" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Bình thường 2 5" xfId="270" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Bình thường 2_CS" xfId="488" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Bình thường 3" xfId="23" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Bình thường 4" xfId="24" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Bình thường 4 2" xfId="624" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Bình thường 5" xfId="25" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Bình thường 5 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Bình thường 5_CS" xfId="486" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Bình thường 6" xfId="27" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Calculation 2" xfId="591" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Calculation 2 2" xfId="686" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
     <cellStyle name="Comma" xfId="28" builtinId="3"/>
-    <cellStyle name="Comma 10" xfId="554"/>
-    <cellStyle name="Comma 11" xfId="637"/>
-    <cellStyle name="Comma 12" xfId="688"/>
-    <cellStyle name="Comma 13" xfId="1163"/>
-    <cellStyle name="Comma 14" xfId="1184"/>
-    <cellStyle name="Comma 15" xfId="1191"/>
-    <cellStyle name="Comma 16" xfId="1209"/>
-    <cellStyle name="Comma 17" xfId="1223"/>
-    <cellStyle name="Comma 18" xfId="1233"/>
-    <cellStyle name="Comma 19" xfId="1239"/>
-    <cellStyle name="Comma 2" xfId="29"/>
-    <cellStyle name="Comma 2 10" xfId="1192"/>
-    <cellStyle name="Comma 2 2" xfId="30"/>
-    <cellStyle name="Comma 2 2 2" xfId="31"/>
-    <cellStyle name="Comma 2 2 3" xfId="594"/>
-    <cellStyle name="Comma 2 2 4" xfId="690"/>
-    <cellStyle name="Comma 2 2 5" xfId="1176"/>
-    <cellStyle name="Comma 2 2 6" xfId="1193"/>
-    <cellStyle name="Comma 2 3" xfId="32"/>
-    <cellStyle name="Comma 2 3 2" xfId="595"/>
-    <cellStyle name="Comma 2 3 3" xfId="691"/>
-    <cellStyle name="Comma 2 3 4" xfId="1177"/>
-    <cellStyle name="Comma 2 3 5" xfId="1194"/>
-    <cellStyle name="Comma 2 4" xfId="33"/>
-    <cellStyle name="Comma 2 4 2" xfId="596"/>
-    <cellStyle name="Comma 2 4 3" xfId="692"/>
-    <cellStyle name="Comma 2 4 4" xfId="1178"/>
-    <cellStyle name="Comma 2 4 5" xfId="1195"/>
-    <cellStyle name="Comma 2 5" xfId="175"/>
-    <cellStyle name="Comma 2 5 2" xfId="357"/>
-    <cellStyle name="Comma 2 5 3" xfId="597"/>
-    <cellStyle name="Comma 2 6" xfId="279"/>
-    <cellStyle name="Comma 2 7" xfId="593"/>
-    <cellStyle name="Comma 2 8" xfId="689"/>
-    <cellStyle name="Comma 2 9" xfId="1175"/>
-    <cellStyle name="Comma 3" xfId="34"/>
-    <cellStyle name="Comma 3 2" xfId="599"/>
-    <cellStyle name="Comma 3 2 2" xfId="695"/>
-    <cellStyle name="Comma 3 2 3" xfId="1180"/>
-    <cellStyle name="Comma 3 2 4" xfId="1197"/>
-    <cellStyle name="Comma 3 3" xfId="598"/>
-    <cellStyle name="Comma 3 4" xfId="694"/>
-    <cellStyle name="Comma 3 5" xfId="1179"/>
-    <cellStyle name="Comma 3 6" xfId="1196"/>
-    <cellStyle name="Comma 4" xfId="35"/>
-    <cellStyle name="Comma 4 2" xfId="36"/>
-    <cellStyle name="Comma 4 3" xfId="600"/>
-    <cellStyle name="Comma 4 4" xfId="696"/>
-    <cellStyle name="Comma 4 5" xfId="1181"/>
-    <cellStyle name="Comma 4 6" xfId="1198"/>
-    <cellStyle name="Comma 5" xfId="37"/>
-    <cellStyle name="Comma 5 2" xfId="553"/>
-    <cellStyle name="Comma 6" xfId="174"/>
-    <cellStyle name="Comma 7" xfId="278"/>
-    <cellStyle name="Comma 8" xfId="592"/>
-    <cellStyle name="Comma 8 2" xfId="633"/>
-    <cellStyle name="Comma 9" xfId="625"/>
-    <cellStyle name="Currency 10" xfId="1224"/>
-    <cellStyle name="Currency 11" xfId="1234"/>
-    <cellStyle name="Currency 12" xfId="1240"/>
-    <cellStyle name="Currency 2" xfId="38"/>
-    <cellStyle name="Currency 2 2" xfId="602"/>
-    <cellStyle name="Currency 2 3" xfId="700"/>
-    <cellStyle name="Currency 2 4" xfId="1182"/>
-    <cellStyle name="Currency 2 5" xfId="1200"/>
-    <cellStyle name="Currency 3" xfId="39"/>
-    <cellStyle name="Currency 4" xfId="601"/>
-    <cellStyle name="Currency 4 2" xfId="634"/>
-    <cellStyle name="Currency 5" xfId="699"/>
-    <cellStyle name="Currency 6" xfId="1164"/>
-    <cellStyle name="Currency 7" xfId="1185"/>
-    <cellStyle name="Currency 8" xfId="1199"/>
-    <cellStyle name="Currency 9" xfId="1208"/>
-    <cellStyle name="Explanatory Text 2" xfId="604"/>
-    <cellStyle name="Explanatory Text 2 2" xfId="701"/>
-    <cellStyle name="Good 2" xfId="605"/>
-    <cellStyle name="Good 2 2" xfId="702"/>
-    <cellStyle name="Heading 1 2" xfId="606"/>
-    <cellStyle name="Heading 1 2 2" xfId="703"/>
-    <cellStyle name="Heading 2 2" xfId="607"/>
-    <cellStyle name="Heading 2 2 2" xfId="704"/>
-    <cellStyle name="Heading 3 2" xfId="608"/>
-    <cellStyle name="Heading 3 2 2" xfId="705"/>
-    <cellStyle name="Heading 4 2" xfId="609"/>
-    <cellStyle name="Heading 4 2 2" xfId="706"/>
-    <cellStyle name="Input 2" xfId="610"/>
-    <cellStyle name="Input 2 2" xfId="707"/>
-    <cellStyle name="Linked Cell 2" xfId="611"/>
-    <cellStyle name="Linked Cell 2 2" xfId="708"/>
-    <cellStyle name="Neutral 2" xfId="612"/>
-    <cellStyle name="Neutral 2 2" xfId="709"/>
+    <cellStyle name="Comma 10" xfId="554" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Comma 11" xfId="637" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Comma 12" xfId="688" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Comma 13" xfId="1163" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Comma 14" xfId="1184" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Comma 15" xfId="1191" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Comma 16" xfId="1209" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Comma 17" xfId="1223" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Comma 18" xfId="1233" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Comma 19" xfId="1239" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Comma 2" xfId="29" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Comma 2 10" xfId="1192" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Comma 2 2" xfId="30" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Comma 2 2 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Comma 2 2 3" xfId="594" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Comma 2 2 4" xfId="690" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Comma 2 2 5" xfId="1176" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Comma 2 2 6" xfId="1193" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Comma 2 3" xfId="32" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Comma 2 3 2" xfId="595" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Comma 2 3 3" xfId="691" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Comma 2 3 4" xfId="1177" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Comma 2 3 5" xfId="1194" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Comma 2 4" xfId="33" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Comma 2 4 2" xfId="596" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="Comma 2 4 3" xfId="692" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Comma 2 4 4" xfId="1178" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Comma 2 4 5" xfId="1195" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Comma 2 5" xfId="175" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Comma 2 5 2" xfId="357" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Comma 2 5 3" xfId="597" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Comma 2 6" xfId="279" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Comma 2 7" xfId="593" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Comma 2 8" xfId="689" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Comma 2 9" xfId="1175" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Comma 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Comma 3 2" xfId="599" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Comma 3 2 2" xfId="695" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Comma 3 2 3" xfId="1180" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Comma 3 2 4" xfId="1197" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Comma 3 3" xfId="598" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Comma 3 4" xfId="694" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Comma 3 5" xfId="1179" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Comma 3 6" xfId="1196" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Comma 4" xfId="35" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
+    <cellStyle name="Comma 4 2" xfId="36" xr:uid="{00000000-0005-0000-0000-00009A000000}"/>
+    <cellStyle name="Comma 4 3" xfId="600" xr:uid="{00000000-0005-0000-0000-00009B000000}"/>
+    <cellStyle name="Comma 4 4" xfId="696" xr:uid="{00000000-0005-0000-0000-00009C000000}"/>
+    <cellStyle name="Comma 4 5" xfId="1181" xr:uid="{00000000-0005-0000-0000-00009D000000}"/>
+    <cellStyle name="Comma 4 6" xfId="1198" xr:uid="{00000000-0005-0000-0000-00009E000000}"/>
+    <cellStyle name="Comma 5" xfId="37" xr:uid="{00000000-0005-0000-0000-00009F000000}"/>
+    <cellStyle name="Comma 5 2" xfId="553" xr:uid="{00000000-0005-0000-0000-0000A0000000}"/>
+    <cellStyle name="Comma 6" xfId="174" xr:uid="{00000000-0005-0000-0000-0000A1000000}"/>
+    <cellStyle name="Comma 7" xfId="278" xr:uid="{00000000-0005-0000-0000-0000A2000000}"/>
+    <cellStyle name="Comma 8" xfId="592" xr:uid="{00000000-0005-0000-0000-0000A3000000}"/>
+    <cellStyle name="Comma 8 2" xfId="633" xr:uid="{00000000-0005-0000-0000-0000A4000000}"/>
+    <cellStyle name="Comma 9" xfId="625" xr:uid="{00000000-0005-0000-0000-0000A5000000}"/>
+    <cellStyle name="Currency 10" xfId="1224" xr:uid="{00000000-0005-0000-0000-0000A6000000}"/>
+    <cellStyle name="Currency 11" xfId="1234" xr:uid="{00000000-0005-0000-0000-0000A7000000}"/>
+    <cellStyle name="Currency 12" xfId="1240" xr:uid="{00000000-0005-0000-0000-0000A8000000}"/>
+    <cellStyle name="Currency 2" xfId="38" xr:uid="{00000000-0005-0000-0000-0000A9000000}"/>
+    <cellStyle name="Currency 2 2" xfId="602" xr:uid="{00000000-0005-0000-0000-0000AA000000}"/>
+    <cellStyle name="Currency 2 3" xfId="700" xr:uid="{00000000-0005-0000-0000-0000AB000000}"/>
+    <cellStyle name="Currency 2 4" xfId="1182" xr:uid="{00000000-0005-0000-0000-0000AC000000}"/>
+    <cellStyle name="Currency 2 5" xfId="1200" xr:uid="{00000000-0005-0000-0000-0000AD000000}"/>
+    <cellStyle name="Currency 3" xfId="39" xr:uid="{00000000-0005-0000-0000-0000AE000000}"/>
+    <cellStyle name="Currency 4" xfId="601" xr:uid="{00000000-0005-0000-0000-0000AF000000}"/>
+    <cellStyle name="Currency 4 2" xfId="634" xr:uid="{00000000-0005-0000-0000-0000B0000000}"/>
+    <cellStyle name="Currency 5" xfId="699" xr:uid="{00000000-0005-0000-0000-0000B1000000}"/>
+    <cellStyle name="Currency 6" xfId="1164" xr:uid="{00000000-0005-0000-0000-0000B2000000}"/>
+    <cellStyle name="Currency 7" xfId="1185" xr:uid="{00000000-0005-0000-0000-0000B3000000}"/>
+    <cellStyle name="Currency 8" xfId="1199" xr:uid="{00000000-0005-0000-0000-0000B4000000}"/>
+    <cellStyle name="Currency 9" xfId="1208" xr:uid="{00000000-0005-0000-0000-0000B5000000}"/>
+    <cellStyle name="Check Cell 2" xfId="603" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Check Cell 2 2" xfId="687" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="604" xr:uid="{00000000-0005-0000-0000-0000B6000000}"/>
+    <cellStyle name="Explanatory Text 2 2" xfId="701" xr:uid="{00000000-0005-0000-0000-0000B7000000}"/>
+    <cellStyle name="Good 2" xfId="605" xr:uid="{00000000-0005-0000-0000-0000B8000000}"/>
+    <cellStyle name="Good 2 2" xfId="702" xr:uid="{00000000-0005-0000-0000-0000B9000000}"/>
+    <cellStyle name="Heading 1 2" xfId="606" xr:uid="{00000000-0005-0000-0000-0000BA000000}"/>
+    <cellStyle name="Heading 1 2 2" xfId="703" xr:uid="{00000000-0005-0000-0000-0000BB000000}"/>
+    <cellStyle name="Heading 2 2" xfId="607" xr:uid="{00000000-0005-0000-0000-0000BC000000}"/>
+    <cellStyle name="Heading 2 2 2" xfId="704" xr:uid="{00000000-0005-0000-0000-0000BD000000}"/>
+    <cellStyle name="Heading 3 2" xfId="608" xr:uid="{00000000-0005-0000-0000-0000BE000000}"/>
+    <cellStyle name="Heading 3 2 2" xfId="705" xr:uid="{00000000-0005-0000-0000-0000BF000000}"/>
+    <cellStyle name="Heading 4 2" xfId="609" xr:uid="{00000000-0005-0000-0000-0000C0000000}"/>
+    <cellStyle name="Heading 4 2 2" xfId="706" xr:uid="{00000000-0005-0000-0000-0000C1000000}"/>
+    <cellStyle name="Input 2" xfId="610" xr:uid="{00000000-0005-0000-0000-0000C2000000}"/>
+    <cellStyle name="Input 2 2" xfId="707" xr:uid="{00000000-0005-0000-0000-0000C3000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="611" xr:uid="{00000000-0005-0000-0000-0000C4000000}"/>
+    <cellStyle name="Linked Cell 2 2" xfId="708" xr:uid="{00000000-0005-0000-0000-0000C5000000}"/>
+    <cellStyle name="Neutral 2" xfId="612" xr:uid="{00000000-0005-0000-0000-0000C6000000}"/>
+    <cellStyle name="Neutral 2 2" xfId="709" xr:uid="{00000000-0005-0000-0000-0000C7000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="40"/>
-    <cellStyle name="Normal 10 10" xfId="871"/>
-    <cellStyle name="Normal 10 2" xfId="41"/>
-    <cellStyle name="Normal 10 2 10" xfId="872"/>
-    <cellStyle name="Normal 10 2 2" xfId="176"/>
-    <cellStyle name="Normal 10 2 2 2" xfId="358"/>
-    <cellStyle name="Normal 10 2 2_CS" xfId="484"/>
-    <cellStyle name="Normal 10 2 3" xfId="281"/>
-    <cellStyle name="Normal 10 2 4" xfId="711"/>
-    <cellStyle name="Normal 10 2 5" xfId="880"/>
-    <cellStyle name="Normal 10 2 6" xfId="867"/>
-    <cellStyle name="Normal 10 2 7" xfId="897"/>
-    <cellStyle name="Normal 10 2 8" xfId="870"/>
-    <cellStyle name="Normal 10 2 9" xfId="873"/>
-    <cellStyle name="Normal 10 2_CS" xfId="485"/>
-    <cellStyle name="Normal 10 3" xfId="42"/>
-    <cellStyle name="Normal 10 3 10" xfId="1022"/>
-    <cellStyle name="Normal 10 3 2" xfId="177"/>
-    <cellStyle name="Normal 10 3 2 2" xfId="359"/>
-    <cellStyle name="Normal 10 3 2_CS" xfId="482"/>
-    <cellStyle name="Normal 10 3 3" xfId="282"/>
-    <cellStyle name="Normal 10 3 4" xfId="712"/>
-    <cellStyle name="Normal 10 3 5" xfId="881"/>
-    <cellStyle name="Normal 10 3 6" xfId="866"/>
-    <cellStyle name="Normal 10 3 7" xfId="898"/>
-    <cellStyle name="Normal 10 3 8" xfId="869"/>
-    <cellStyle name="Normal 10 3 9" xfId="874"/>
-    <cellStyle name="Normal 10 3_CS" xfId="483"/>
-    <cellStyle name="Normal 10 4" xfId="43"/>
-    <cellStyle name="Normal 10 4 10" xfId="836"/>
-    <cellStyle name="Normal 10 4 2" xfId="178"/>
-    <cellStyle name="Normal 10 4 2 2" xfId="360"/>
-    <cellStyle name="Normal 10 4 2_CS" xfId="480"/>
-    <cellStyle name="Normal 10 4 3" xfId="283"/>
-    <cellStyle name="Normal 10 4 4" xfId="713"/>
-    <cellStyle name="Normal 10 4 5" xfId="882"/>
-    <cellStyle name="Normal 10 4 6" xfId="865"/>
-    <cellStyle name="Normal 10 4 7" xfId="906"/>
-    <cellStyle name="Normal 10 4 8" xfId="854"/>
-    <cellStyle name="Normal 10 4 9" xfId="875"/>
-    <cellStyle name="Normal 10 4_CS" xfId="481"/>
-    <cellStyle name="Normal 10 5" xfId="44"/>
-    <cellStyle name="Normal 10 5 10" xfId="835"/>
-    <cellStyle name="Normal 10 5 2" xfId="179"/>
-    <cellStyle name="Normal 10 5 2 2" xfId="361"/>
-    <cellStyle name="Normal 10 5 2_CS" xfId="478"/>
-    <cellStyle name="Normal 10 5 3" xfId="284"/>
-    <cellStyle name="Normal 10 5 4" xfId="714"/>
-    <cellStyle name="Normal 10 5 5" xfId="883"/>
-    <cellStyle name="Normal 10 5 6" xfId="864"/>
-    <cellStyle name="Normal 10 5 7" xfId="907"/>
-    <cellStyle name="Normal 10 5 8" xfId="853"/>
-    <cellStyle name="Normal 10 5 9" xfId="876"/>
-    <cellStyle name="Normal 10 5_CS" xfId="479"/>
-    <cellStyle name="Normal 10 6" xfId="710"/>
-    <cellStyle name="Normal 10 7" xfId="879"/>
-    <cellStyle name="Normal 10 8" xfId="868"/>
-    <cellStyle name="Normal 10 9" xfId="896"/>
-    <cellStyle name="Normal 11" xfId="45"/>
-    <cellStyle name="Normal 11 10" xfId="852"/>
-    <cellStyle name="Normal 11 2" xfId="46"/>
-    <cellStyle name="Normal 11 2 10" xfId="830"/>
-    <cellStyle name="Normal 11 2 2" xfId="180"/>
-    <cellStyle name="Normal 11 2 2 2" xfId="362"/>
-    <cellStyle name="Normal 11 2 2_CS" xfId="476"/>
-    <cellStyle name="Normal 11 2 3" xfId="285"/>
-    <cellStyle name="Normal 11 2 4" xfId="716"/>
-    <cellStyle name="Normal 11 2 5" xfId="885"/>
-    <cellStyle name="Normal 11 2 6" xfId="862"/>
-    <cellStyle name="Normal 11 2 7" xfId="909"/>
-    <cellStyle name="Normal 11 2 8" xfId="851"/>
-    <cellStyle name="Normal 11 2 9" xfId="877"/>
-    <cellStyle name="Normal 11 2_CS" xfId="477"/>
-    <cellStyle name="Normal 11 3" xfId="47"/>
-    <cellStyle name="Normal 11 3 10" xfId="989"/>
-    <cellStyle name="Normal 11 3 2" xfId="181"/>
-    <cellStyle name="Normal 11 3 2 2" xfId="363"/>
-    <cellStyle name="Normal 11 3 2_CS" xfId="474"/>
-    <cellStyle name="Normal 11 3 3" xfId="286"/>
-    <cellStyle name="Normal 11 3 4" xfId="717"/>
-    <cellStyle name="Normal 11 3 5" xfId="886"/>
-    <cellStyle name="Normal 11 3 6" xfId="861"/>
-    <cellStyle name="Normal 11 3 7" xfId="910"/>
-    <cellStyle name="Normal 11 3 8" xfId="850"/>
-    <cellStyle name="Normal 11 3 9" xfId="878"/>
-    <cellStyle name="Normal 11 3_CS" xfId="475"/>
-    <cellStyle name="Normal 11 4" xfId="48"/>
-    <cellStyle name="Normal 11 4 10" xfId="1005"/>
-    <cellStyle name="Normal 11 4 2" xfId="182"/>
-    <cellStyle name="Normal 11 4 2 2" xfId="364"/>
-    <cellStyle name="Normal 11 4 2_CS" xfId="472"/>
-    <cellStyle name="Normal 11 4 3" xfId="287"/>
-    <cellStyle name="Normal 11 4 4" xfId="718"/>
-    <cellStyle name="Normal 11 4 5" xfId="887"/>
-    <cellStyle name="Normal 11 4 6" xfId="860"/>
-    <cellStyle name="Normal 11 4 7" xfId="911"/>
-    <cellStyle name="Normal 11 4 8" xfId="842"/>
-    <cellStyle name="Normal 11 4 9" xfId="893"/>
-    <cellStyle name="Normal 11 4_CS" xfId="473"/>
-    <cellStyle name="Normal 11 5" xfId="49"/>
-    <cellStyle name="Normal 11 5 10" xfId="1014"/>
-    <cellStyle name="Normal 11 5 2" xfId="183"/>
-    <cellStyle name="Normal 11 5 2 2" xfId="365"/>
-    <cellStyle name="Normal 11 5 2_CS" xfId="470"/>
-    <cellStyle name="Normal 11 5 3" xfId="288"/>
-    <cellStyle name="Normal 11 5 4" xfId="719"/>
-    <cellStyle name="Normal 11 5 5" xfId="888"/>
-    <cellStyle name="Normal 11 5 6" xfId="859"/>
-    <cellStyle name="Normal 11 5 7" xfId="912"/>
-    <cellStyle name="Normal 11 5 8" xfId="841"/>
-    <cellStyle name="Normal 11 5 9" xfId="894"/>
-    <cellStyle name="Normal 11 5_CS" xfId="471"/>
-    <cellStyle name="Normal 11 6" xfId="715"/>
-    <cellStyle name="Normal 11 7" xfId="884"/>
-    <cellStyle name="Normal 11 8" xfId="863"/>
-    <cellStyle name="Normal 11 9" xfId="908"/>
-    <cellStyle name="Normal 12" xfId="50"/>
-    <cellStyle name="Normal 12 10" xfId="1018"/>
-    <cellStyle name="Normal 12 2" xfId="184"/>
-    <cellStyle name="Normal 12 2 2" xfId="366"/>
-    <cellStyle name="Normal 12 2_CS" xfId="468"/>
-    <cellStyle name="Normal 12 3" xfId="289"/>
-    <cellStyle name="Normal 12 4" xfId="720"/>
-    <cellStyle name="Normal 12 5" xfId="889"/>
-    <cellStyle name="Normal 12 6" xfId="858"/>
-    <cellStyle name="Normal 12 7" xfId="913"/>
-    <cellStyle name="Normal 12 8" xfId="840"/>
-    <cellStyle name="Normal 12 9" xfId="951"/>
-    <cellStyle name="Normal 12_CS" xfId="469"/>
-    <cellStyle name="Normal 13" xfId="51"/>
-    <cellStyle name="Normal 13 10" xfId="970"/>
-    <cellStyle name="Normal 13 2" xfId="52"/>
-    <cellStyle name="Normal 13 2 2" xfId="185"/>
-    <cellStyle name="Normal 13 2 2 2" xfId="367"/>
-    <cellStyle name="Normal 13 2 2_CS" xfId="466"/>
-    <cellStyle name="Normal 13 2 3" xfId="290"/>
-    <cellStyle name="Normal 13 2_CS" xfId="467"/>
-    <cellStyle name="Normal 13 3" xfId="721"/>
-    <cellStyle name="Normal 13 4" xfId="890"/>
-    <cellStyle name="Normal 13 5" xfId="857"/>
-    <cellStyle name="Normal 13 6" xfId="918"/>
-    <cellStyle name="Normal 13 7" xfId="839"/>
-    <cellStyle name="Normal 13 8" xfId="952"/>
-    <cellStyle name="Normal 13 9" xfId="1019"/>
-    <cellStyle name="Normal 14" xfId="53"/>
-    <cellStyle name="Normal 14 10" xfId="1020"/>
-    <cellStyle name="Normal 14 2" xfId="186"/>
-    <cellStyle name="Normal 14 2 2" xfId="368"/>
-    <cellStyle name="Normal 14 2_CS" xfId="464"/>
-    <cellStyle name="Normal 14 3" xfId="291"/>
-    <cellStyle name="Normal 14 4" xfId="722"/>
-    <cellStyle name="Normal 14 5" xfId="891"/>
-    <cellStyle name="Normal 14 6" xfId="856"/>
-    <cellStyle name="Normal 14 7" xfId="934"/>
-    <cellStyle name="Normal 14 8" xfId="838"/>
-    <cellStyle name="Normal 14 9" xfId="958"/>
-    <cellStyle name="Normal 14_CS" xfId="465"/>
-    <cellStyle name="Normal 15" xfId="54"/>
-    <cellStyle name="Normal 15 10" xfId="1021"/>
-    <cellStyle name="Normal 15 2" xfId="187"/>
-    <cellStyle name="Normal 15 2 2" xfId="369"/>
-    <cellStyle name="Normal 15 2_CS" xfId="462"/>
-    <cellStyle name="Normal 15 3" xfId="292"/>
-    <cellStyle name="Normal 15 4" xfId="723"/>
-    <cellStyle name="Normal 15 5" xfId="892"/>
-    <cellStyle name="Normal 15 6" xfId="855"/>
-    <cellStyle name="Normal 15 7" xfId="950"/>
-    <cellStyle name="Normal 15 8" xfId="837"/>
-    <cellStyle name="Normal 15 9" xfId="959"/>
-    <cellStyle name="Normal 15_CS" xfId="463"/>
-    <cellStyle name="Normal 16" xfId="55"/>
-    <cellStyle name="Normal 16 2" xfId="724"/>
-    <cellStyle name="Normal 17" xfId="157"/>
-    <cellStyle name="Normal 17 2" xfId="236"/>
-    <cellStyle name="Normal 17 2 2" xfId="418"/>
-    <cellStyle name="Normal 17 2_CS" xfId="460"/>
-    <cellStyle name="Normal 17 3" xfId="342"/>
-    <cellStyle name="Normal 17_CS" xfId="461"/>
-    <cellStyle name="Normal 18" xfId="159"/>
-    <cellStyle name="Normal 18 2" xfId="237"/>
-    <cellStyle name="Normal 18 2 2" xfId="419"/>
-    <cellStyle name="Normal 18 2_CS" xfId="458"/>
-    <cellStyle name="Normal 18 3" xfId="343"/>
-    <cellStyle name="Normal 18_CS" xfId="459"/>
-    <cellStyle name="Normal 19" xfId="160"/>
-    <cellStyle name="Normal 19 2" xfId="238"/>
-    <cellStyle name="Normal 19 2 2" xfId="420"/>
-    <cellStyle name="Normal 19 2_CS" xfId="457"/>
-    <cellStyle name="Normal 19 3" xfId="344"/>
-    <cellStyle name="Normal 19_CS" xfId="542"/>
-    <cellStyle name="Normal 2" xfId="56"/>
-    <cellStyle name="Normal 2 2" xfId="57"/>
-    <cellStyle name="Normal 2 2 10" xfId="895"/>
-    <cellStyle name="Normal 2 2 2" xfId="58"/>
-    <cellStyle name="Normal 2 2 2 2" xfId="59"/>
-    <cellStyle name="Normal 2 2 2 2 2" xfId="728"/>
-    <cellStyle name="Normal 2 2 2 3" xfId="727"/>
-    <cellStyle name="Normal 2 2 3" xfId="60"/>
-    <cellStyle name="Normal 2 2 3 2" xfId="729"/>
-    <cellStyle name="Normal 2 2 4" xfId="61"/>
-    <cellStyle name="Normal 2 2 4 10" xfId="1026"/>
-    <cellStyle name="Normal 2 2 4 2" xfId="189"/>
-    <cellStyle name="Normal 2 2 4 2 2" xfId="371"/>
-    <cellStyle name="Normal 2 2 4 2_CS" xfId="540"/>
-    <cellStyle name="Normal 2 2 4 3" xfId="294"/>
-    <cellStyle name="Normal 2 2 4 4" xfId="730"/>
-    <cellStyle name="Normal 2 2 4 5" xfId="899"/>
-    <cellStyle name="Normal 2 2 4 6" xfId="849"/>
-    <cellStyle name="Normal 2 2 4 7" xfId="960"/>
-    <cellStyle name="Normal 2 2 4 8" xfId="1006"/>
-    <cellStyle name="Normal 2 2 4 9" xfId="967"/>
-    <cellStyle name="Normal 2 2 4_CS" xfId="456"/>
-    <cellStyle name="Normal 2 2 5" xfId="62"/>
-    <cellStyle name="Normal 2 2 5 10" xfId="1030"/>
-    <cellStyle name="Normal 2 2 5 2" xfId="190"/>
-    <cellStyle name="Normal 2 2 5 2 2" xfId="372"/>
-    <cellStyle name="Normal 2 2 5 2_CS" xfId="539"/>
-    <cellStyle name="Normal 2 2 5 3" xfId="295"/>
-    <cellStyle name="Normal 2 2 5 4" xfId="731"/>
-    <cellStyle name="Normal 2 2 5 5" xfId="900"/>
-    <cellStyle name="Normal 2 2 5 6" xfId="848"/>
-    <cellStyle name="Normal 2 2 5 7" xfId="961"/>
-    <cellStyle name="Normal 2 2 5 8" xfId="1007"/>
-    <cellStyle name="Normal 2 2 5 9" xfId="968"/>
-    <cellStyle name="Normal 2 2 5_CS" xfId="455"/>
-    <cellStyle name="Normal 2 2 6" xfId="63"/>
-    <cellStyle name="Normal 2 2 6 10" xfId="1034"/>
-    <cellStyle name="Normal 2 2 6 2" xfId="191"/>
-    <cellStyle name="Normal 2 2 6 2 2" xfId="373"/>
-    <cellStyle name="Normal 2 2 6 2_CS" xfId="453"/>
-    <cellStyle name="Normal 2 2 6 3" xfId="296"/>
-    <cellStyle name="Normal 2 2 6 4" xfId="732"/>
-    <cellStyle name="Normal 2 2 6 5" xfId="901"/>
-    <cellStyle name="Normal 2 2 6 6" xfId="847"/>
-    <cellStyle name="Normal 2 2 6 7" xfId="962"/>
-    <cellStyle name="Normal 2 2 6 8" xfId="1013"/>
-    <cellStyle name="Normal 2 2 6 9" xfId="969"/>
-    <cellStyle name="Normal 2 2 6_CS" xfId="454"/>
-    <cellStyle name="Normal 2 2 7" xfId="188"/>
-    <cellStyle name="Normal 2 2 7 2" xfId="370"/>
-    <cellStyle name="Normal 2 2 7_CS" xfId="452"/>
-    <cellStyle name="Normal 2 2 8" xfId="293"/>
-    <cellStyle name="Normal 2 2 9" xfId="726"/>
-    <cellStyle name="Normal 2 2_CS" xfId="541"/>
-    <cellStyle name="Normal 2 3" xfId="64"/>
-    <cellStyle name="Normal 2 3 10" xfId="963"/>
-    <cellStyle name="Normal 2 3 2" xfId="65"/>
-    <cellStyle name="Normal 2 3 2 10" xfId="1093"/>
-    <cellStyle name="Normal 2 3 2 2" xfId="193"/>
-    <cellStyle name="Normal 2 3 2 2 2" xfId="375"/>
-    <cellStyle name="Normal 2 3 2 2_CS" xfId="523"/>
-    <cellStyle name="Normal 2 3 2 3" xfId="298"/>
-    <cellStyle name="Normal 2 3 2 4" xfId="734"/>
-    <cellStyle name="Normal 2 3 2 5" xfId="903"/>
-    <cellStyle name="Normal 2 3 2 6" xfId="845"/>
-    <cellStyle name="Normal 2 3 2 7" xfId="964"/>
-    <cellStyle name="Normal 2 3 2 8" xfId="1015"/>
-    <cellStyle name="Normal 2 3 2 9" xfId="975"/>
-    <cellStyle name="Normal 2 3 2_CS" xfId="450"/>
-    <cellStyle name="Normal 2 3 3" xfId="66"/>
-    <cellStyle name="Normal 2 3 3 10" xfId="1097"/>
-    <cellStyle name="Normal 2 3 3 2" xfId="194"/>
-    <cellStyle name="Normal 2 3 3 2 2" xfId="376"/>
-    <cellStyle name="Normal 2 3 3 2_CS" xfId="449"/>
-    <cellStyle name="Normal 2 3 3 3" xfId="299"/>
-    <cellStyle name="Normal 2 3 3 4" xfId="735"/>
-    <cellStyle name="Normal 2 3 3 5" xfId="904"/>
-    <cellStyle name="Normal 2 3 3 6" xfId="844"/>
-    <cellStyle name="Normal 2 3 3 7" xfId="965"/>
-    <cellStyle name="Normal 2 3 3 8" xfId="1016"/>
-    <cellStyle name="Normal 2 3 3 9" xfId="1044"/>
-    <cellStyle name="Normal 2 3 3_CS" xfId="538"/>
-    <cellStyle name="Normal 2 3 4" xfId="67"/>
-    <cellStyle name="Normal 2 3 4 10" xfId="1104"/>
-    <cellStyle name="Normal 2 3 4 2" xfId="195"/>
-    <cellStyle name="Normal 2 3 4 2 2" xfId="377"/>
-    <cellStyle name="Normal 2 3 4 2_CS" xfId="448"/>
-    <cellStyle name="Normal 2 3 4 3" xfId="300"/>
-    <cellStyle name="Normal 2 3 4 4" xfId="736"/>
-    <cellStyle name="Normal 2 3 4 5" xfId="905"/>
-    <cellStyle name="Normal 2 3 4 6" xfId="843"/>
-    <cellStyle name="Normal 2 3 4 7" xfId="966"/>
-    <cellStyle name="Normal 2 3 4 8" xfId="1017"/>
-    <cellStyle name="Normal 2 3 4 9" xfId="1060"/>
-    <cellStyle name="Normal 2 3 4_CS" xfId="537"/>
-    <cellStyle name="Normal 2 3 5" xfId="192"/>
-    <cellStyle name="Normal 2 3 5 2" xfId="374"/>
-    <cellStyle name="Normal 2 3 5_CS" xfId="536"/>
-    <cellStyle name="Normal 2 3 6" xfId="297"/>
-    <cellStyle name="Normal 2 3 7" xfId="733"/>
-    <cellStyle name="Normal 2 3 8" xfId="902"/>
-    <cellStyle name="Normal 2 3 9" xfId="846"/>
-    <cellStyle name="Normal 2 3_CS" xfId="451"/>
-    <cellStyle name="Normal 2 4" xfId="613"/>
-    <cellStyle name="Normal 2 4 2" xfId="737"/>
-    <cellStyle name="Normal 2 5" xfId="68"/>
-    <cellStyle name="Normal 2 6" xfId="725"/>
-    <cellStyle name="Normal 20" xfId="161"/>
-    <cellStyle name="Normal 20 2" xfId="239"/>
-    <cellStyle name="Normal 20 2 2" xfId="421"/>
-    <cellStyle name="Normal 20 2_CS" xfId="532"/>
-    <cellStyle name="Normal 20 3" xfId="345"/>
-    <cellStyle name="Normal 20_CS" xfId="447"/>
-    <cellStyle name="Normal 21" xfId="162"/>
-    <cellStyle name="Normal 21 2" xfId="240"/>
-    <cellStyle name="Normal 21 2 2" xfId="422"/>
-    <cellStyle name="Normal 21 2_CS" xfId="446"/>
-    <cellStyle name="Normal 21 3" xfId="346"/>
-    <cellStyle name="Normal 21_CS" xfId="535"/>
-    <cellStyle name="Normal 22" xfId="163"/>
-    <cellStyle name="Normal 22 2" xfId="241"/>
-    <cellStyle name="Normal 22 2 2" xfId="423"/>
-    <cellStyle name="Normal 22 2_CS" xfId="445"/>
-    <cellStyle name="Normal 22 3" xfId="347"/>
-    <cellStyle name="Normal 22_CS" xfId="534"/>
-    <cellStyle name="Normal 23" xfId="164"/>
-    <cellStyle name="Normal 23 2" xfId="242"/>
-    <cellStyle name="Normal 23 2 2" xfId="424"/>
-    <cellStyle name="Normal 23 2_CS" xfId="444"/>
-    <cellStyle name="Normal 23 3" xfId="348"/>
-    <cellStyle name="Normal 23_CS" xfId="533"/>
-    <cellStyle name="Normal 24" xfId="165"/>
-    <cellStyle name="Normal 24 2" xfId="243"/>
-    <cellStyle name="Normal 24 2 2" xfId="425"/>
-    <cellStyle name="Normal 24 2_CS" xfId="528"/>
-    <cellStyle name="Normal 24 3" xfId="349"/>
-    <cellStyle name="Normal 24_CS" xfId="443"/>
-    <cellStyle name="Normal 25" xfId="166"/>
-    <cellStyle name="Normal 25 2" xfId="244"/>
-    <cellStyle name="Normal 25 2 2" xfId="426"/>
-    <cellStyle name="Normal 25 2_CS" xfId="442"/>
-    <cellStyle name="Normal 25 3" xfId="350"/>
-    <cellStyle name="Normal 25_CS" xfId="531"/>
-    <cellStyle name="Normal 26" xfId="167"/>
-    <cellStyle name="Normal 26 2" xfId="245"/>
-    <cellStyle name="Normal 26 2 2" xfId="427"/>
-    <cellStyle name="Normal 26 2_CS" xfId="441"/>
-    <cellStyle name="Normal 26 3" xfId="351"/>
-    <cellStyle name="Normal 26_CS" xfId="530"/>
-    <cellStyle name="Normal 27" xfId="168"/>
-    <cellStyle name="Normal 27 2" xfId="246"/>
-    <cellStyle name="Normal 27 2 2" xfId="428"/>
-    <cellStyle name="Normal 27 2_CS" xfId="440"/>
-    <cellStyle name="Normal 27 3" xfId="352"/>
-    <cellStyle name="Normal 27_CS" xfId="529"/>
-    <cellStyle name="Normal 28" xfId="169"/>
-    <cellStyle name="Normal 28 2" xfId="247"/>
-    <cellStyle name="Normal 28 2 2" xfId="429"/>
-    <cellStyle name="Normal 28 2_CS" xfId="527"/>
-    <cellStyle name="Normal 28 3" xfId="353"/>
-    <cellStyle name="Normal 28_CS" xfId="439"/>
-    <cellStyle name="Normal 29" xfId="170"/>
-    <cellStyle name="Normal 29 2" xfId="248"/>
-    <cellStyle name="Normal 29 2 2" xfId="430"/>
-    <cellStyle name="Normal 29 2_CS" xfId="526"/>
-    <cellStyle name="Normal 29 3" xfId="354"/>
-    <cellStyle name="Normal 29_CS" xfId="438"/>
-    <cellStyle name="Normal 3" xfId="69"/>
-    <cellStyle name="Normal 3 2" xfId="70"/>
-    <cellStyle name="Normal 3 2 2" xfId="739"/>
-    <cellStyle name="Normal 3 3" xfId="71"/>
-    <cellStyle name="Normal 3 3 2" xfId="72"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="741"/>
-    <cellStyle name="Normal 3 3 3" xfId="73"/>
-    <cellStyle name="Normal 3 3 3 2" xfId="742"/>
-    <cellStyle name="Normal 3 3 4" xfId="74"/>
-    <cellStyle name="Normal 3 3 4 2" xfId="743"/>
-    <cellStyle name="Normal 3 3 5" xfId="740"/>
-    <cellStyle name="Normal 3 4" xfId="75"/>
-    <cellStyle name="Normal 3 4 2" xfId="744"/>
-    <cellStyle name="Normal 3 5" xfId="76"/>
-    <cellStyle name="Normal 3 5 2" xfId="745"/>
-    <cellStyle name="Normal 3 6" xfId="77"/>
-    <cellStyle name="Normal 3 6 10" xfId="971"/>
-    <cellStyle name="Normal 3 6 2" xfId="78"/>
-    <cellStyle name="Normal 3 6 2 10" xfId="1110"/>
-    <cellStyle name="Normal 3 6 2 2" xfId="197"/>
-    <cellStyle name="Normal 3 6 2 2 2" xfId="379"/>
-    <cellStyle name="Normal 3 6 2 2_CS" xfId="436"/>
-    <cellStyle name="Normal 3 6 2 3" xfId="302"/>
-    <cellStyle name="Normal 3 6 2 4" xfId="747"/>
-    <cellStyle name="Normal 3 6 2 5" xfId="915"/>
-    <cellStyle name="Normal 3 6 2 6" xfId="833"/>
-    <cellStyle name="Normal 3 6 2 7" xfId="972"/>
-    <cellStyle name="Normal 3 6 2 8" xfId="1023"/>
-    <cellStyle name="Normal 3 6 2 9" xfId="1066"/>
-    <cellStyle name="Normal 3 6 2_CS" xfId="525"/>
-    <cellStyle name="Normal 3 6 3" xfId="79"/>
-    <cellStyle name="Normal 3 6 3 10" xfId="1111"/>
-    <cellStyle name="Normal 3 6 3 2" xfId="198"/>
-    <cellStyle name="Normal 3 6 3 2 2" xfId="380"/>
-    <cellStyle name="Normal 3 6 3 2_CS" xfId="435"/>
-    <cellStyle name="Normal 3 6 3 3" xfId="303"/>
-    <cellStyle name="Normal 3 6 3 4" xfId="748"/>
-    <cellStyle name="Normal 3 6 3 5" xfId="916"/>
-    <cellStyle name="Normal 3 6 3 6" xfId="832"/>
-    <cellStyle name="Normal 3 6 3 7" xfId="973"/>
-    <cellStyle name="Normal 3 6 3 8" xfId="1024"/>
-    <cellStyle name="Normal 3 6 3 9" xfId="1067"/>
-    <cellStyle name="Normal 3 6 3_CS" xfId="524"/>
-    <cellStyle name="Normal 3 6 4" xfId="80"/>
-    <cellStyle name="Normal 3 6 4 10" xfId="1112"/>
-    <cellStyle name="Normal 3 6 4 2" xfId="199"/>
-    <cellStyle name="Normal 3 6 4 2 2" xfId="381"/>
-    <cellStyle name="Normal 3 6 4 2_CS" xfId="433"/>
-    <cellStyle name="Normal 3 6 4 3" xfId="304"/>
-    <cellStyle name="Normal 3 6 4 4" xfId="749"/>
-    <cellStyle name="Normal 3 6 4 5" xfId="917"/>
-    <cellStyle name="Normal 3 6 4 6" xfId="831"/>
-    <cellStyle name="Normal 3 6 4 7" xfId="974"/>
-    <cellStyle name="Normal 3 6 4 8" xfId="1025"/>
-    <cellStyle name="Normal 3 6 4 9" xfId="1068"/>
-    <cellStyle name="Normal 3 6 4_CS" xfId="434"/>
-    <cellStyle name="Normal 3 6 5" xfId="196"/>
-    <cellStyle name="Normal 3 6 5 2" xfId="378"/>
-    <cellStyle name="Normal 3 6 5_CS" xfId="507"/>
-    <cellStyle name="Normal 3 6 6" xfId="301"/>
-    <cellStyle name="Normal 3 6 7" xfId="746"/>
-    <cellStyle name="Normal 3 6 8" xfId="914"/>
-    <cellStyle name="Normal 3 6 9" xfId="834"/>
-    <cellStyle name="Normal 3 6_CS" xfId="437"/>
-    <cellStyle name="Normal 3 7" xfId="158"/>
-    <cellStyle name="Normal 3 8" xfId="738"/>
-    <cellStyle name="Normal 30" xfId="172"/>
-    <cellStyle name="Normal 31" xfId="171"/>
-    <cellStyle name="Normal 31 2" xfId="355"/>
-    <cellStyle name="Normal 31_CS" xfId="522"/>
-    <cellStyle name="Normal 32" xfId="250"/>
-    <cellStyle name="Normal 33" xfId="249"/>
-    <cellStyle name="Normal 34" xfId="565"/>
-    <cellStyle name="Normal 34 2" xfId="632"/>
-    <cellStyle name="Normal 35" xfId="621"/>
-    <cellStyle name="Normal 35 2" xfId="636"/>
-    <cellStyle name="Normal 36" xfId="623"/>
-    <cellStyle name="Normal 37" xfId="622"/>
-    <cellStyle name="Normal 38" xfId="639"/>
-    <cellStyle name="Normal 39" xfId="640"/>
-    <cellStyle name="Normal 4" xfId="81"/>
-    <cellStyle name="Normal 4 10" xfId="750"/>
-    <cellStyle name="Normal 4 2" xfId="82"/>
-    <cellStyle name="Normal 4 2 10" xfId="976"/>
-    <cellStyle name="Normal 4 2 2" xfId="83"/>
-    <cellStyle name="Normal 4 2 2 10" xfId="1113"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="202"/>
-    <cellStyle name="Normal 4 2 2 2 2" xfId="384"/>
-    <cellStyle name="Normal 4 2 2 2_CS" xfId="520"/>
-    <cellStyle name="Normal 4 2 2 3" xfId="307"/>
-    <cellStyle name="Normal 4 2 2 4" xfId="752"/>
-    <cellStyle name="Normal 4 2 2 5" xfId="920"/>
-    <cellStyle name="Normal 4 2 2 6" xfId="828"/>
-    <cellStyle name="Normal 4 2 2 7" xfId="977"/>
-    <cellStyle name="Normal 4 2 2 8" xfId="1027"/>
-    <cellStyle name="Normal 4 2 2 9" xfId="1069"/>
-    <cellStyle name="Normal 4 2 2_CS" xfId="431"/>
-    <cellStyle name="Normal 4 2 3" xfId="84"/>
-    <cellStyle name="Normal 4 2 3 10" xfId="1114"/>
-    <cellStyle name="Normal 4 2 3 2" xfId="203"/>
-    <cellStyle name="Normal 4 2 3 2 2" xfId="385"/>
-    <cellStyle name="Normal 4 2 3 2_CS" xfId="516"/>
-    <cellStyle name="Normal 4 2 3 3" xfId="308"/>
-    <cellStyle name="Normal 4 2 3 4" xfId="753"/>
-    <cellStyle name="Normal 4 2 3 5" xfId="921"/>
-    <cellStyle name="Normal 4 2 3 6" xfId="827"/>
-    <cellStyle name="Normal 4 2 3 7" xfId="978"/>
-    <cellStyle name="Normal 4 2 3 8" xfId="1028"/>
-    <cellStyle name="Normal 4 2 3 9" xfId="1070"/>
-    <cellStyle name="Normal 4 2 3_CS" xfId="251"/>
-    <cellStyle name="Normal 4 2 4" xfId="85"/>
-    <cellStyle name="Normal 4 2 4 10" xfId="1115"/>
-    <cellStyle name="Normal 4 2 4 2" xfId="204"/>
-    <cellStyle name="Normal 4 2 4 2 2" xfId="386"/>
-    <cellStyle name="Normal 4 2 4 2_CS" xfId="252"/>
-    <cellStyle name="Normal 4 2 4 3" xfId="309"/>
-    <cellStyle name="Normal 4 2 4 4" xfId="754"/>
-    <cellStyle name="Normal 4 2 4 5" xfId="922"/>
-    <cellStyle name="Normal 4 2 4 6" xfId="826"/>
-    <cellStyle name="Normal 4 2 4 7" xfId="979"/>
-    <cellStyle name="Normal 4 2 4 8" xfId="1029"/>
-    <cellStyle name="Normal 4 2 4 9" xfId="1071"/>
-    <cellStyle name="Normal 4 2 4_CS" xfId="519"/>
-    <cellStyle name="Normal 4 2 5" xfId="201"/>
-    <cellStyle name="Normal 4 2 5 2" xfId="383"/>
-    <cellStyle name="Normal 4 2 5_CS" xfId="518"/>
-    <cellStyle name="Normal 4 2 6" xfId="306"/>
-    <cellStyle name="Normal 4 2 7" xfId="751"/>
-    <cellStyle name="Normal 4 2 8" xfId="919"/>
-    <cellStyle name="Normal 4 2 9" xfId="829"/>
-    <cellStyle name="Normal 4 2_CS" xfId="521"/>
-    <cellStyle name="Normal 4 3" xfId="86"/>
-    <cellStyle name="Normal 4 3 10" xfId="980"/>
-    <cellStyle name="Normal 4 3 2" xfId="87"/>
-    <cellStyle name="Normal 4 3 2 10" xfId="1116"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="206"/>
-    <cellStyle name="Normal 4 3 2 2 2" xfId="388"/>
-    <cellStyle name="Normal 4 3 2 2_CS" xfId="254"/>
-    <cellStyle name="Normal 4 3 2 3" xfId="311"/>
-    <cellStyle name="Normal 4 3 2 4" xfId="756"/>
-    <cellStyle name="Normal 4 3 2 5" xfId="924"/>
-    <cellStyle name="Normal 4 3 2 6" xfId="824"/>
-    <cellStyle name="Normal 4 3 2 7" xfId="981"/>
-    <cellStyle name="Normal 4 3 2 8" xfId="1031"/>
-    <cellStyle name="Normal 4 3 2 9" xfId="1072"/>
-    <cellStyle name="Normal 4 3 2_CS" xfId="517"/>
-    <cellStyle name="Normal 4 3 3" xfId="88"/>
-    <cellStyle name="Normal 4 3 3 10" xfId="1117"/>
-    <cellStyle name="Normal 4 3 3 2" xfId="207"/>
-    <cellStyle name="Normal 4 3 3 2 2" xfId="389"/>
-    <cellStyle name="Normal 4 3 3 2_CS" xfId="512"/>
-    <cellStyle name="Normal 4 3 3 3" xfId="312"/>
-    <cellStyle name="Normal 4 3 3 4" xfId="757"/>
-    <cellStyle name="Normal 4 3 3 5" xfId="925"/>
-    <cellStyle name="Normal 4 3 3 6" xfId="823"/>
-    <cellStyle name="Normal 4 3 3 7" xfId="982"/>
-    <cellStyle name="Normal 4 3 3 8" xfId="1032"/>
-    <cellStyle name="Normal 4 3 3 9" xfId="1073"/>
-    <cellStyle name="Normal 4 3 3_CS" xfId="255"/>
-    <cellStyle name="Normal 4 3 4" xfId="89"/>
-    <cellStyle name="Normal 4 3 4 10" xfId="1118"/>
-    <cellStyle name="Normal 4 3 4 2" xfId="208"/>
-    <cellStyle name="Normal 4 3 4 2 2" xfId="390"/>
-    <cellStyle name="Normal 4 3 4 2_CS" xfId="256"/>
-    <cellStyle name="Normal 4 3 4 3" xfId="313"/>
-    <cellStyle name="Normal 4 3 4 4" xfId="758"/>
-    <cellStyle name="Normal 4 3 4 5" xfId="926"/>
-    <cellStyle name="Normal 4 3 4 6" xfId="822"/>
-    <cellStyle name="Normal 4 3 4 7" xfId="983"/>
-    <cellStyle name="Normal 4 3 4 8" xfId="1033"/>
-    <cellStyle name="Normal 4 3 4 9" xfId="1074"/>
-    <cellStyle name="Normal 4 3 4_CS" xfId="515"/>
-    <cellStyle name="Normal 4 3 5" xfId="205"/>
-    <cellStyle name="Normal 4 3 5 2" xfId="387"/>
-    <cellStyle name="Normal 4 3 5_CS" xfId="514"/>
-    <cellStyle name="Normal 4 3 6" xfId="310"/>
-    <cellStyle name="Normal 4 3 7" xfId="755"/>
-    <cellStyle name="Normal 4 3 8" xfId="923"/>
-    <cellStyle name="Normal 4 3 9" xfId="825"/>
-    <cellStyle name="Normal 4 3_CS" xfId="253"/>
-    <cellStyle name="Normal 4 4" xfId="90"/>
-    <cellStyle name="Normal 4 4 10" xfId="984"/>
-    <cellStyle name="Normal 4 4 2" xfId="91"/>
-    <cellStyle name="Normal 4 4 2 10" xfId="1119"/>
-    <cellStyle name="Normal 4 4 2 2" xfId="210"/>
-    <cellStyle name="Normal 4 4 2 2 2" xfId="392"/>
-    <cellStyle name="Normal 4 4 2 2_CS" xfId="258"/>
-    <cellStyle name="Normal 4 4 2 3" xfId="315"/>
-    <cellStyle name="Normal 4 4 2 4" xfId="760"/>
-    <cellStyle name="Normal 4 4 2 5" xfId="928"/>
-    <cellStyle name="Normal 4 4 2 6" xfId="820"/>
-    <cellStyle name="Normal 4 4 2 7" xfId="1038"/>
-    <cellStyle name="Normal 4 4 2 8" xfId="1035"/>
-    <cellStyle name="Normal 4 4 2 9" xfId="1075"/>
-    <cellStyle name="Normal 4 4 2_CS" xfId="513"/>
-    <cellStyle name="Normal 4 4 3" xfId="92"/>
-    <cellStyle name="Normal 4 4 3 10" xfId="1120"/>
-    <cellStyle name="Normal 4 4 3 2" xfId="211"/>
-    <cellStyle name="Normal 4 4 3 2 2" xfId="393"/>
-    <cellStyle name="Normal 4 4 3 2_CS" xfId="508"/>
-    <cellStyle name="Normal 4 4 3 3" xfId="316"/>
-    <cellStyle name="Normal 4 4 3 4" xfId="761"/>
-    <cellStyle name="Normal 4 4 3 5" xfId="929"/>
-    <cellStyle name="Normal 4 4 3 6" xfId="693"/>
-    <cellStyle name="Normal 4 4 3 7" xfId="1039"/>
-    <cellStyle name="Normal 4 4 3 8" xfId="1036"/>
-    <cellStyle name="Normal 4 4 3 9" xfId="1076"/>
-    <cellStyle name="Normal 4 4 3_CS" xfId="259"/>
-    <cellStyle name="Normal 4 4 4" xfId="93"/>
-    <cellStyle name="Normal 4 4 4 10" xfId="1121"/>
-    <cellStyle name="Normal 4 4 4 2" xfId="212"/>
-    <cellStyle name="Normal 4 4 4 2 2" xfId="394"/>
-    <cellStyle name="Normal 4 4 4 2_CS" xfId="260"/>
-    <cellStyle name="Normal 4 4 4 3" xfId="317"/>
-    <cellStyle name="Normal 4 4 4 4" xfId="762"/>
-    <cellStyle name="Normal 4 4 4 5" xfId="930"/>
-    <cellStyle name="Normal 4 4 4 6" xfId="697"/>
-    <cellStyle name="Normal 4 4 4 7" xfId="1040"/>
-    <cellStyle name="Normal 4 4 4 8" xfId="1085"/>
-    <cellStyle name="Normal 4 4 4 9" xfId="1077"/>
-    <cellStyle name="Normal 4 4 4_CS" xfId="511"/>
-    <cellStyle name="Normal 4 4 5" xfId="209"/>
-    <cellStyle name="Normal 4 4 5 2" xfId="391"/>
-    <cellStyle name="Normal 4 4 5_CS" xfId="510"/>
-    <cellStyle name="Normal 4 4 6" xfId="314"/>
-    <cellStyle name="Normal 4 4 7" xfId="759"/>
-    <cellStyle name="Normal 4 4 8" xfId="927"/>
-    <cellStyle name="Normal 4 4 9" xfId="821"/>
-    <cellStyle name="Normal 4 4_CS" xfId="257"/>
-    <cellStyle name="Normal 4 5" xfId="94"/>
-    <cellStyle name="Normal 4 5 10" xfId="1122"/>
-    <cellStyle name="Normal 4 5 2" xfId="213"/>
-    <cellStyle name="Normal 4 5 2 2" xfId="395"/>
-    <cellStyle name="Normal 4 5 2_CS" xfId="509"/>
-    <cellStyle name="Normal 4 5 3" xfId="318"/>
-    <cellStyle name="Normal 4 5 4" xfId="763"/>
-    <cellStyle name="Normal 4 5 5" xfId="931"/>
-    <cellStyle name="Normal 4 5 6" xfId="986"/>
-    <cellStyle name="Normal 4 5 7" xfId="1041"/>
-    <cellStyle name="Normal 4 5 8" xfId="1086"/>
-    <cellStyle name="Normal 4 5 9" xfId="1078"/>
-    <cellStyle name="Normal 4 5_CS" xfId="261"/>
-    <cellStyle name="Normal 4 6" xfId="95"/>
-    <cellStyle name="Normal 4 6 10" xfId="1123"/>
-    <cellStyle name="Normal 4 6 2" xfId="214"/>
-    <cellStyle name="Normal 4 6 2 2" xfId="396"/>
-    <cellStyle name="Normal 4 6 2_CS" xfId="263"/>
-    <cellStyle name="Normal 4 6 3" xfId="319"/>
-    <cellStyle name="Normal 4 6 4" xfId="764"/>
-    <cellStyle name="Normal 4 6 5" xfId="932"/>
-    <cellStyle name="Normal 4 6 6" xfId="987"/>
-    <cellStyle name="Normal 4 6 7" xfId="1042"/>
-    <cellStyle name="Normal 4 6 8" xfId="1087"/>
-    <cellStyle name="Normal 4 6 9" xfId="1079"/>
-    <cellStyle name="Normal 4 6_CS" xfId="262"/>
-    <cellStyle name="Normal 4 7" xfId="96"/>
-    <cellStyle name="Normal 4 7 10" xfId="1124"/>
-    <cellStyle name="Normal 4 7 2" xfId="215"/>
-    <cellStyle name="Normal 4 7 2 2" xfId="397"/>
-    <cellStyle name="Normal 4 7 2_CS" xfId="341"/>
-    <cellStyle name="Normal 4 7 3" xfId="320"/>
-    <cellStyle name="Normal 4 7 4" xfId="765"/>
-    <cellStyle name="Normal 4 7 5" xfId="933"/>
-    <cellStyle name="Normal 4 7 6" xfId="988"/>
-    <cellStyle name="Normal 4 7 7" xfId="1043"/>
-    <cellStyle name="Normal 4 7 8" xfId="1088"/>
-    <cellStyle name="Normal 4 7 9" xfId="1080"/>
-    <cellStyle name="Normal 4 7_CS" xfId="264"/>
-    <cellStyle name="Normal 4 8" xfId="200"/>
-    <cellStyle name="Normal 4 8 2" xfId="382"/>
-    <cellStyle name="Normal 4 8_CS" xfId="500"/>
-    <cellStyle name="Normal 4 9" xfId="305"/>
-    <cellStyle name="Normal 4_CS" xfId="432"/>
-    <cellStyle name="Normal 40" xfId="638"/>
-    <cellStyle name="Normal 41" xfId="641"/>
-    <cellStyle name="Normal 42" xfId="698"/>
-    <cellStyle name="Normal 43" xfId="985"/>
-    <cellStyle name="Normal 44" xfId="1037"/>
-    <cellStyle name="Normal 45" xfId="1084"/>
-    <cellStyle name="Normal 46" xfId="1129"/>
-    <cellStyle name="Normal 47" xfId="1143"/>
-    <cellStyle name="Normal 48" xfId="1157"/>
-    <cellStyle name="Normal 49" xfId="1158"/>
-    <cellStyle name="Normal 5" xfId="97"/>
-    <cellStyle name="Normal 5 10" xfId="766"/>
-    <cellStyle name="Normal 5 2" xfId="98"/>
-    <cellStyle name="Normal 5 2 10" xfId="1089"/>
-    <cellStyle name="Normal 5 2 2" xfId="99"/>
-    <cellStyle name="Normal 5 2 2 10" xfId="1125"/>
-    <cellStyle name="Normal 5 2 2 2" xfId="217"/>
-    <cellStyle name="Normal 5 2 2 2 2" xfId="399"/>
-    <cellStyle name="Normal 5 2 2 2_CS" xfId="503"/>
-    <cellStyle name="Normal 5 2 2 3" xfId="322"/>
-    <cellStyle name="Normal 5 2 2 4" xfId="768"/>
-    <cellStyle name="Normal 5 2 2 5" xfId="936"/>
-    <cellStyle name="Normal 5 2 2 6" xfId="991"/>
-    <cellStyle name="Normal 5 2 2 7" xfId="1046"/>
-    <cellStyle name="Normal 5 2 2 8" xfId="1090"/>
-    <cellStyle name="Normal 5 2 2 9" xfId="1081"/>
-    <cellStyle name="Normal 5 2 2_CS" xfId="489"/>
-    <cellStyle name="Normal 5 2 3" xfId="100"/>
-    <cellStyle name="Normal 5 2 3 10" xfId="1126"/>
-    <cellStyle name="Normal 5 2 3 2" xfId="218"/>
-    <cellStyle name="Normal 5 2 3 2 2" xfId="400"/>
-    <cellStyle name="Normal 5 2 3 2_CS" xfId="265"/>
-    <cellStyle name="Normal 5 2 3 3" xfId="323"/>
-    <cellStyle name="Normal 5 2 3 4" xfId="769"/>
-    <cellStyle name="Normal 5 2 3 5" xfId="937"/>
-    <cellStyle name="Normal 5 2 3 6" xfId="992"/>
-    <cellStyle name="Normal 5 2 3 7" xfId="1047"/>
-    <cellStyle name="Normal 5 2 3 8" xfId="1091"/>
-    <cellStyle name="Normal 5 2 3 9" xfId="1082"/>
-    <cellStyle name="Normal 5 2 3_CS" xfId="506"/>
-    <cellStyle name="Normal 5 2 4" xfId="101"/>
-    <cellStyle name="Normal 5 2 4 10" xfId="1127"/>
-    <cellStyle name="Normal 5 2 4 2" xfId="219"/>
-    <cellStyle name="Normal 5 2 4 2 2" xfId="401"/>
-    <cellStyle name="Normal 5 2 4 2_CS" xfId="266"/>
-    <cellStyle name="Normal 5 2 4 3" xfId="324"/>
-    <cellStyle name="Normal 5 2 4 4" xfId="770"/>
-    <cellStyle name="Normal 5 2 4 5" xfId="938"/>
-    <cellStyle name="Normal 5 2 4 6" xfId="993"/>
-    <cellStyle name="Normal 5 2 4 7" xfId="1048"/>
-    <cellStyle name="Normal 5 2 4 8" xfId="1092"/>
-    <cellStyle name="Normal 5 2 4 9" xfId="1083"/>
-    <cellStyle name="Normal 5 2 4_CS" xfId="505"/>
-    <cellStyle name="Normal 5 2 5" xfId="102"/>
-    <cellStyle name="Normal 5 2 5 2" xfId="220"/>
-    <cellStyle name="Normal 5 2 5 2 2" xfId="402"/>
-    <cellStyle name="Normal 5 2 5 2_CS" xfId="267"/>
-    <cellStyle name="Normal 5 2 5 3" xfId="325"/>
-    <cellStyle name="Normal 5 2 5_CS" xfId="504"/>
-    <cellStyle name="Normal 5 2 6" xfId="767"/>
-    <cellStyle name="Normal 5 2 7" xfId="935"/>
-    <cellStyle name="Normal 5 2 8" xfId="990"/>
-    <cellStyle name="Normal 5 2 9" xfId="1045"/>
-    <cellStyle name="Normal 5 3" xfId="103"/>
-    <cellStyle name="Normal 5 3 10" xfId="1049"/>
-    <cellStyle name="Normal 5 3 2" xfId="104"/>
-    <cellStyle name="Normal 5 3 2 10" xfId="1128"/>
-    <cellStyle name="Normal 5 3 2 2" xfId="222"/>
-    <cellStyle name="Normal 5 3 2 2 2" xfId="404"/>
-    <cellStyle name="Normal 5 3 2 2_CS" xfId="271"/>
-    <cellStyle name="Normal 5 3 2 3" xfId="327"/>
-    <cellStyle name="Normal 5 3 2 4" xfId="772"/>
-    <cellStyle name="Normal 5 3 2 5" xfId="940"/>
-    <cellStyle name="Normal 5 3 2 6" xfId="995"/>
-    <cellStyle name="Normal 5 3 2 7" xfId="1050"/>
-    <cellStyle name="Normal 5 3 2 8" xfId="1094"/>
-    <cellStyle name="Normal 5 3 2 9" xfId="1130"/>
-    <cellStyle name="Normal 5 3 2_CS" xfId="269"/>
-    <cellStyle name="Normal 5 3 3" xfId="105"/>
-    <cellStyle name="Normal 5 3 3 10" xfId="1144"/>
-    <cellStyle name="Normal 5 3 3 2" xfId="223"/>
-    <cellStyle name="Normal 5 3 3 2 2" xfId="405"/>
-    <cellStyle name="Normal 5 3 3 2_CS" xfId="273"/>
-    <cellStyle name="Normal 5 3 3 3" xfId="328"/>
-    <cellStyle name="Normal 5 3 3 4" xfId="773"/>
-    <cellStyle name="Normal 5 3 3 5" xfId="941"/>
-    <cellStyle name="Normal 5 3 3 6" xfId="996"/>
-    <cellStyle name="Normal 5 3 3 7" xfId="1051"/>
-    <cellStyle name="Normal 5 3 3 8" xfId="1095"/>
-    <cellStyle name="Normal 5 3 3 9" xfId="1131"/>
-    <cellStyle name="Normal 5 3 3_CS" xfId="272"/>
-    <cellStyle name="Normal 5 3 4" xfId="106"/>
-    <cellStyle name="Normal 5 3 4 10" xfId="1145"/>
-    <cellStyle name="Normal 5 3 4 2" xfId="224"/>
-    <cellStyle name="Normal 5 3 4 2 2" xfId="406"/>
-    <cellStyle name="Normal 5 3 4 2_CS" xfId="275"/>
-    <cellStyle name="Normal 5 3 4 3" xfId="329"/>
-    <cellStyle name="Normal 5 3 4 4" xfId="774"/>
-    <cellStyle name="Normal 5 3 4 5" xfId="942"/>
-    <cellStyle name="Normal 5 3 4 6" xfId="997"/>
-    <cellStyle name="Normal 5 3 4 7" xfId="1052"/>
-    <cellStyle name="Normal 5 3 4 8" xfId="1096"/>
-    <cellStyle name="Normal 5 3 4 9" xfId="1132"/>
-    <cellStyle name="Normal 5 3 4_CS" xfId="274"/>
-    <cellStyle name="Normal 5 3 5" xfId="221"/>
-    <cellStyle name="Normal 5 3 5 2" xfId="403"/>
-    <cellStyle name="Normal 5 3 5_CS" xfId="276"/>
-    <cellStyle name="Normal 5 3 6" xfId="326"/>
-    <cellStyle name="Normal 5 3 7" xfId="771"/>
-    <cellStyle name="Normal 5 3 8" xfId="939"/>
-    <cellStyle name="Normal 5 3 9" xfId="994"/>
-    <cellStyle name="Normal 5 3_CS" xfId="268"/>
-    <cellStyle name="Normal 5 4" xfId="107"/>
-    <cellStyle name="Normal 5 4 10" xfId="1053"/>
-    <cellStyle name="Normal 5 4 2" xfId="108"/>
-    <cellStyle name="Normal 5 4 2 10" xfId="1146"/>
-    <cellStyle name="Normal 5 4 2 2" xfId="226"/>
-    <cellStyle name="Normal 5 4 2 2 2" xfId="408"/>
-    <cellStyle name="Normal 5 4 2 2_CS" xfId="499"/>
-    <cellStyle name="Normal 5 4 2 3" xfId="331"/>
-    <cellStyle name="Normal 5 4 2 4" xfId="776"/>
-    <cellStyle name="Normal 5 4 2 5" xfId="944"/>
-    <cellStyle name="Normal 5 4 2 6" xfId="999"/>
-    <cellStyle name="Normal 5 4 2 7" xfId="1054"/>
-    <cellStyle name="Normal 5 4 2 8" xfId="1098"/>
-    <cellStyle name="Normal 5 4 2 9" xfId="1133"/>
-    <cellStyle name="Normal 5 4 2_CS" xfId="552"/>
-    <cellStyle name="Normal 5 4 3" xfId="109"/>
-    <cellStyle name="Normal 5 4 3 10" xfId="1147"/>
-    <cellStyle name="Normal 5 4 3 2" xfId="227"/>
-    <cellStyle name="Normal 5 4 3 2 2" xfId="409"/>
-    <cellStyle name="Normal 5 4 3 2_CS" xfId="498"/>
-    <cellStyle name="Normal 5 4 3 3" xfId="332"/>
-    <cellStyle name="Normal 5 4 3 4" xfId="777"/>
-    <cellStyle name="Normal 5 4 3 5" xfId="945"/>
-    <cellStyle name="Normal 5 4 3 6" xfId="1000"/>
-    <cellStyle name="Normal 5 4 3 7" xfId="1055"/>
-    <cellStyle name="Normal 5 4 3 8" xfId="1099"/>
-    <cellStyle name="Normal 5 4 3 9" xfId="1134"/>
-    <cellStyle name="Normal 5 4 3_CS" xfId="551"/>
-    <cellStyle name="Normal 5 4 4" xfId="110"/>
-    <cellStyle name="Normal 5 4 4 10" xfId="1148"/>
-    <cellStyle name="Normal 5 4 4 2" xfId="228"/>
-    <cellStyle name="Normal 5 4 4 2 2" xfId="410"/>
-    <cellStyle name="Normal 5 4 4 2_CS" xfId="497"/>
-    <cellStyle name="Normal 5 4 4 3" xfId="333"/>
-    <cellStyle name="Normal 5 4 4 4" xfId="778"/>
-    <cellStyle name="Normal 5 4 4 5" xfId="946"/>
-    <cellStyle name="Normal 5 4 4 6" xfId="1001"/>
-    <cellStyle name="Normal 5 4 4 7" xfId="1056"/>
-    <cellStyle name="Normal 5 4 4 8" xfId="1100"/>
-    <cellStyle name="Normal 5 4 4 9" xfId="1135"/>
-    <cellStyle name="Normal 5 4 4_CS" xfId="550"/>
-    <cellStyle name="Normal 5 4 5" xfId="225"/>
-    <cellStyle name="Normal 5 4 5 2" xfId="407"/>
-    <cellStyle name="Normal 5 4 5_CS" xfId="549"/>
-    <cellStyle name="Normal 5 4 6" xfId="330"/>
-    <cellStyle name="Normal 5 4 7" xfId="775"/>
-    <cellStyle name="Normal 5 4 8" xfId="943"/>
-    <cellStyle name="Normal 5 4 9" xfId="998"/>
-    <cellStyle name="Normal 5 4_CS" xfId="277"/>
-    <cellStyle name="Normal 5 5" xfId="111"/>
-    <cellStyle name="Normal 5 5 10" xfId="1149"/>
-    <cellStyle name="Normal 5 5 2" xfId="229"/>
-    <cellStyle name="Normal 5 5 2 2" xfId="411"/>
-    <cellStyle name="Normal 5 5 2_CS" xfId="548"/>
-    <cellStyle name="Normal 5 5 3" xfId="334"/>
-    <cellStyle name="Normal 5 5 4" xfId="779"/>
-    <cellStyle name="Normal 5 5 5" xfId="947"/>
-    <cellStyle name="Normal 5 5 6" xfId="1002"/>
-    <cellStyle name="Normal 5 5 7" xfId="1057"/>
-    <cellStyle name="Normal 5 5 8" xfId="1101"/>
-    <cellStyle name="Normal 5 5 9" xfId="1136"/>
-    <cellStyle name="Normal 5 5_CS" xfId="496"/>
-    <cellStyle name="Normal 5 6" xfId="112"/>
-    <cellStyle name="Normal 5 6 10" xfId="1150"/>
-    <cellStyle name="Normal 5 6 2" xfId="230"/>
-    <cellStyle name="Normal 5 6 2 2" xfId="412"/>
-    <cellStyle name="Normal 5 6 2_CS" xfId="547"/>
-    <cellStyle name="Normal 5 6 3" xfId="335"/>
-    <cellStyle name="Normal 5 6 4" xfId="780"/>
-    <cellStyle name="Normal 5 6 5" xfId="948"/>
-    <cellStyle name="Normal 5 6 6" xfId="1003"/>
-    <cellStyle name="Normal 5 6 7" xfId="1058"/>
-    <cellStyle name="Normal 5 6 8" xfId="1102"/>
-    <cellStyle name="Normal 5 6 9" xfId="1137"/>
-    <cellStyle name="Normal 5 6_CS" xfId="495"/>
-    <cellStyle name="Normal 5 7" xfId="113"/>
-    <cellStyle name="Normal 5 7 10" xfId="1151"/>
-    <cellStyle name="Normal 5 7 2" xfId="231"/>
-    <cellStyle name="Normal 5 7 2 2" xfId="413"/>
-    <cellStyle name="Normal 5 7 2_CS" xfId="546"/>
-    <cellStyle name="Normal 5 7 3" xfId="336"/>
-    <cellStyle name="Normal 5 7 4" xfId="781"/>
-    <cellStyle name="Normal 5 7 5" xfId="949"/>
-    <cellStyle name="Normal 5 7 6" xfId="1004"/>
-    <cellStyle name="Normal 5 7 7" xfId="1059"/>
-    <cellStyle name="Normal 5 7 8" xfId="1103"/>
-    <cellStyle name="Normal 5 7 9" xfId="1138"/>
-    <cellStyle name="Normal 5 7_CS" xfId="494"/>
-    <cellStyle name="Normal 5 8" xfId="216"/>
-    <cellStyle name="Normal 5 8 2" xfId="398"/>
-    <cellStyle name="Normal 5 8_CS" xfId="493"/>
-    <cellStyle name="Normal 5 9" xfId="321"/>
-    <cellStyle name="Normal 5_CS" xfId="501"/>
-    <cellStyle name="Normal 50" xfId="1159"/>
-    <cellStyle name="Normal 51" xfId="1160"/>
-    <cellStyle name="Normal 52" xfId="1156"/>
-    <cellStyle name="Normal 53" xfId="1161"/>
-    <cellStyle name="Normal 54" xfId="1162"/>
-    <cellStyle name="Normal 55" xfId="1168"/>
-    <cellStyle name="Normal 56" xfId="1169"/>
-    <cellStyle name="Normal 57" xfId="1170"/>
-    <cellStyle name="Normal 58" xfId="1171"/>
-    <cellStyle name="Normal 59" xfId="1167"/>
-    <cellStyle name="Normal 6" xfId="114"/>
-    <cellStyle name="Normal 6 2" xfId="782"/>
-    <cellStyle name="Normal 60" xfId="1172"/>
-    <cellStyle name="Normal 61" xfId="1166"/>
-    <cellStyle name="Normal 62" xfId="1173"/>
-    <cellStyle name="Normal 63" xfId="1174"/>
-    <cellStyle name="Normal 64" xfId="1183"/>
-    <cellStyle name="Normal 65" xfId="1187"/>
-    <cellStyle name="Normal 66" xfId="1188"/>
-    <cellStyle name="Normal 67" xfId="1189"/>
-    <cellStyle name="Normal 68" xfId="1190"/>
-    <cellStyle name="Normal 69" xfId="1202"/>
-    <cellStyle name="Normal 7" xfId="115"/>
-    <cellStyle name="Normal 7 2" xfId="783"/>
-    <cellStyle name="Normal 70" xfId="1203"/>
-    <cellStyle name="Normal 71" xfId="1204"/>
-    <cellStyle name="Normal 72" xfId="1205"/>
-    <cellStyle name="Normal 73" xfId="1206"/>
-    <cellStyle name="Normal 74" xfId="1212"/>
-    <cellStyle name="Normal 75" xfId="1213"/>
-    <cellStyle name="Normal 76" xfId="1211"/>
-    <cellStyle name="Normal 77" xfId="1215"/>
-    <cellStyle name="Normal 78" xfId="1210"/>
-    <cellStyle name="Normal 79" xfId="1214"/>
-    <cellStyle name="Normal 8" xfId="116"/>
-    <cellStyle name="Normal 8 2" xfId="784"/>
-    <cellStyle name="Normal 80" xfId="1216"/>
-    <cellStyle name="Normal 81" xfId="1217"/>
-    <cellStyle name="Normal 82" xfId="1218"/>
-    <cellStyle name="Normal 83" xfId="1219"/>
-    <cellStyle name="Normal 84" xfId="1220"/>
-    <cellStyle name="Normal 85" xfId="1221"/>
-    <cellStyle name="Normal 86" xfId="1222"/>
-    <cellStyle name="Normal 87" xfId="1226"/>
-    <cellStyle name="Normal 88" xfId="1227"/>
-    <cellStyle name="Normal 89" xfId="1228"/>
-    <cellStyle name="Normal 9" xfId="117"/>
-    <cellStyle name="Normal 9 10" xfId="1105"/>
-    <cellStyle name="Normal 9 2" xfId="118"/>
-    <cellStyle name="Normal 9 2 10" xfId="1152"/>
-    <cellStyle name="Normal 9 2 2" xfId="232"/>
-    <cellStyle name="Normal 9 2 2 2" xfId="414"/>
-    <cellStyle name="Normal 9 2 2_CS" xfId="492"/>
-    <cellStyle name="Normal 9 2 3" xfId="337"/>
-    <cellStyle name="Normal 9 2 4" xfId="786"/>
-    <cellStyle name="Normal 9 2 5" xfId="954"/>
-    <cellStyle name="Normal 9 2 6" xfId="1009"/>
-    <cellStyle name="Normal 9 2 7" xfId="1062"/>
-    <cellStyle name="Normal 9 2 8" xfId="1106"/>
-    <cellStyle name="Normal 9 2 9" xfId="1139"/>
-    <cellStyle name="Normal 9 2_CS" xfId="545"/>
-    <cellStyle name="Normal 9 3" xfId="119"/>
-    <cellStyle name="Normal 9 3 10" xfId="1153"/>
-    <cellStyle name="Normal 9 3 2" xfId="233"/>
-    <cellStyle name="Normal 9 3 2 2" xfId="415"/>
-    <cellStyle name="Normal 9 3 2_CS" xfId="491"/>
-    <cellStyle name="Normal 9 3 3" xfId="338"/>
-    <cellStyle name="Normal 9 3 4" xfId="787"/>
-    <cellStyle name="Normal 9 3 5" xfId="955"/>
-    <cellStyle name="Normal 9 3 6" xfId="1010"/>
-    <cellStyle name="Normal 9 3 7" xfId="1063"/>
-    <cellStyle name="Normal 9 3 8" xfId="1107"/>
-    <cellStyle name="Normal 9 3 9" xfId="1140"/>
-    <cellStyle name="Normal 9 3_CS" xfId="544"/>
-    <cellStyle name="Normal 9 4" xfId="120"/>
-    <cellStyle name="Normal 9 4 10" xfId="1154"/>
-    <cellStyle name="Normal 9 4 2" xfId="234"/>
-    <cellStyle name="Normal 9 4 2 2" xfId="416"/>
-    <cellStyle name="Normal 9 4 2_CS" xfId="490"/>
-    <cellStyle name="Normal 9 4 3" xfId="339"/>
-    <cellStyle name="Normal 9 4 4" xfId="788"/>
-    <cellStyle name="Normal 9 4 5" xfId="956"/>
-    <cellStyle name="Normal 9 4 6" xfId="1011"/>
-    <cellStyle name="Normal 9 4 7" xfId="1064"/>
-    <cellStyle name="Normal 9 4 8" xfId="1108"/>
-    <cellStyle name="Normal 9 4 9" xfId="1141"/>
-    <cellStyle name="Normal 9 4_CS" xfId="543"/>
-    <cellStyle name="Normal 9 5" xfId="121"/>
-    <cellStyle name="Normal 9 5 10" xfId="1155"/>
-    <cellStyle name="Normal 9 5 2" xfId="235"/>
-    <cellStyle name="Normal 9 5 2 2" xfId="417"/>
-    <cellStyle name="Normal 9 5 2_CS" xfId="502"/>
-    <cellStyle name="Normal 9 5 3" xfId="340"/>
-    <cellStyle name="Normal 9 5 4" xfId="789"/>
-    <cellStyle name="Normal 9 5 5" xfId="957"/>
-    <cellStyle name="Normal 9 5 6" xfId="1012"/>
-    <cellStyle name="Normal 9 5 7" xfId="1065"/>
-    <cellStyle name="Normal 9 5 8" xfId="1109"/>
-    <cellStyle name="Normal 9 5 9" xfId="1142"/>
-    <cellStyle name="Normal 9 5_CS" xfId="280"/>
-    <cellStyle name="Normal 9 6" xfId="785"/>
-    <cellStyle name="Normal 9 7" xfId="953"/>
-    <cellStyle name="Normal 9 8" xfId="1008"/>
-    <cellStyle name="Normal 9 9" xfId="1061"/>
-    <cellStyle name="Normal 90" xfId="1229"/>
-    <cellStyle name="Normal 91" xfId="1230"/>
-    <cellStyle name="Normal 92" xfId="1231"/>
-    <cellStyle name="Normal 93" xfId="1232"/>
-    <cellStyle name="Normal 94" xfId="1236"/>
-    <cellStyle name="Normal 95" xfId="1237"/>
-    <cellStyle name="Normal 96" xfId="1238"/>
-    <cellStyle name="Note 2" xfId="614"/>
-    <cellStyle name="Note 2 2" xfId="790"/>
-    <cellStyle name="Output 2" xfId="615"/>
-    <cellStyle name="Output 2 2" xfId="791"/>
-    <cellStyle name="Percent 10" xfId="1207"/>
-    <cellStyle name="Percent 11" xfId="1225"/>
-    <cellStyle name="Percent 12" xfId="1235"/>
-    <cellStyle name="Percent 13" xfId="1241"/>
-    <cellStyle name="Percent 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 4" xfId="616"/>
-    <cellStyle name="Percent 4 2" xfId="635"/>
-    <cellStyle name="Percent 5" xfId="631"/>
-    <cellStyle name="Percent 6" xfId="792"/>
-    <cellStyle name="Percent 7" xfId="1165"/>
-    <cellStyle name="Percent 8" xfId="1186"/>
-    <cellStyle name="Percent 9" xfId="1201"/>
-    <cellStyle name="Title 2" xfId="617"/>
-    <cellStyle name="Title 2 2" xfId="793"/>
-    <cellStyle name="Total 2" xfId="618"/>
-    <cellStyle name="Total 2 2" xfId="794"/>
-    <cellStyle name="Warning Text 2" xfId="619"/>
-    <cellStyle name="Warning Text 2 2" xfId="795"/>
-    <cellStyle name="千位分隔 2 3" xfId="124"/>
-    <cellStyle name="好" xfId="125"/>
-    <cellStyle name="好 2" xfId="796"/>
-    <cellStyle name="差" xfId="126"/>
-    <cellStyle name="差 2" xfId="797"/>
-    <cellStyle name="常规 2" xfId="127"/>
-    <cellStyle name="常规 2 8" xfId="128"/>
-    <cellStyle name="常规 20" xfId="129"/>
-    <cellStyle name="常规 21" xfId="130"/>
-    <cellStyle name="常规 22" xfId="131"/>
-    <cellStyle name="常规 23" xfId="132"/>
-    <cellStyle name="常规 26" xfId="133"/>
-    <cellStyle name="常规 3" xfId="134"/>
-    <cellStyle name="常规 4" xfId="135"/>
-    <cellStyle name="常规 4 2" xfId="798"/>
-    <cellStyle name="强调文字颜色 1" xfId="136"/>
-    <cellStyle name="强调文字颜色 1 2" xfId="799"/>
-    <cellStyle name="强调文字颜色 2" xfId="137"/>
-    <cellStyle name="强调文字颜色 2 2" xfId="800"/>
-    <cellStyle name="强调文字颜色 3" xfId="138"/>
-    <cellStyle name="强调文字颜色 3 2" xfId="801"/>
-    <cellStyle name="强调文字颜色 4" xfId="139"/>
-    <cellStyle name="强调文字颜色 4 2" xfId="802"/>
-    <cellStyle name="强调文字颜色 5" xfId="140"/>
-    <cellStyle name="强调文字颜色 5 2" xfId="803"/>
-    <cellStyle name="强调文字颜色 6" xfId="141"/>
-    <cellStyle name="强调文字颜色 6 2" xfId="804"/>
-    <cellStyle name="标题" xfId="142"/>
-    <cellStyle name="标题 1" xfId="143"/>
-    <cellStyle name="标题 1 2" xfId="806"/>
-    <cellStyle name="标题 2" xfId="144"/>
-    <cellStyle name="标题 2 2" xfId="807"/>
-    <cellStyle name="标题 3" xfId="145"/>
-    <cellStyle name="标题 3 2" xfId="808"/>
-    <cellStyle name="标题 4" xfId="146"/>
-    <cellStyle name="标题 4 2" xfId="809"/>
-    <cellStyle name="标题 5" xfId="620"/>
-    <cellStyle name="标题 6" xfId="805"/>
-    <cellStyle name="检查单元格" xfId="147"/>
-    <cellStyle name="检查单元格 2" xfId="810"/>
-    <cellStyle name="汇总" xfId="148"/>
-    <cellStyle name="汇总 2" xfId="557"/>
-    <cellStyle name="汇总 2 2" xfId="626"/>
-    <cellStyle name="汇总 3" xfId="564"/>
-    <cellStyle name="汇总 4" xfId="811"/>
-    <cellStyle name="注释" xfId="149"/>
-    <cellStyle name="注释 2" xfId="558"/>
-    <cellStyle name="注释 2 2" xfId="627"/>
-    <cellStyle name="注释 3" xfId="563"/>
-    <cellStyle name="注释 4" xfId="812"/>
-    <cellStyle name="解释性文本" xfId="150"/>
-    <cellStyle name="解释性文本 2" xfId="813"/>
-    <cellStyle name="警告文本" xfId="151"/>
-    <cellStyle name="警告文本 2" xfId="814"/>
-    <cellStyle name="计算" xfId="152"/>
-    <cellStyle name="计算 2" xfId="559"/>
-    <cellStyle name="计算 2 2" xfId="628"/>
-    <cellStyle name="计算 3" xfId="562"/>
-    <cellStyle name="计算 4" xfId="815"/>
-    <cellStyle name="输入" xfId="153"/>
-    <cellStyle name="输入 2" xfId="560"/>
-    <cellStyle name="输入 2 2" xfId="629"/>
-    <cellStyle name="输入 3" xfId="556"/>
-    <cellStyle name="输入 4" xfId="816"/>
-    <cellStyle name="输出" xfId="154"/>
-    <cellStyle name="输出 2" xfId="561"/>
-    <cellStyle name="输出 2 2" xfId="630"/>
-    <cellStyle name="输出 3" xfId="555"/>
-    <cellStyle name="输出 4" xfId="817"/>
-    <cellStyle name="适中" xfId="155"/>
-    <cellStyle name="适中 2" xfId="818"/>
-    <cellStyle name="链接单元格" xfId="156"/>
-    <cellStyle name="链接单元格 2" xfId="819"/>
+    <cellStyle name="Normal 10" xfId="40" xr:uid="{00000000-0005-0000-0000-0000C9000000}"/>
+    <cellStyle name="Normal 10 10" xfId="871" xr:uid="{00000000-0005-0000-0000-0000CA000000}"/>
+    <cellStyle name="Normal 10 2" xfId="41" xr:uid="{00000000-0005-0000-0000-0000CB000000}"/>
+    <cellStyle name="Normal 10 2 10" xfId="872" xr:uid="{00000000-0005-0000-0000-0000CC000000}"/>
+    <cellStyle name="Normal 10 2 2" xfId="176" xr:uid="{00000000-0005-0000-0000-0000CD000000}"/>
+    <cellStyle name="Normal 10 2 2 2" xfId="358" xr:uid="{00000000-0005-0000-0000-0000CE000000}"/>
+    <cellStyle name="Normal 10 2 2_CS" xfId="484" xr:uid="{00000000-0005-0000-0000-0000CF000000}"/>
+    <cellStyle name="Normal 10 2 3" xfId="281" xr:uid="{00000000-0005-0000-0000-0000D0000000}"/>
+    <cellStyle name="Normal 10 2 4" xfId="711" xr:uid="{00000000-0005-0000-0000-0000D1000000}"/>
+    <cellStyle name="Normal 10 2 5" xfId="880" xr:uid="{00000000-0005-0000-0000-0000D2000000}"/>
+    <cellStyle name="Normal 10 2 6" xfId="867" xr:uid="{00000000-0005-0000-0000-0000D3000000}"/>
+    <cellStyle name="Normal 10 2 7" xfId="897" xr:uid="{00000000-0005-0000-0000-0000D4000000}"/>
+    <cellStyle name="Normal 10 2 8" xfId="870" xr:uid="{00000000-0005-0000-0000-0000D5000000}"/>
+    <cellStyle name="Normal 10 2 9" xfId="873" xr:uid="{00000000-0005-0000-0000-0000D6000000}"/>
+    <cellStyle name="Normal 10 2_CS" xfId="485" xr:uid="{00000000-0005-0000-0000-0000D7000000}"/>
+    <cellStyle name="Normal 10 3" xfId="42" xr:uid="{00000000-0005-0000-0000-0000D8000000}"/>
+    <cellStyle name="Normal 10 3 10" xfId="1022" xr:uid="{00000000-0005-0000-0000-0000D9000000}"/>
+    <cellStyle name="Normal 10 3 2" xfId="177" xr:uid="{00000000-0005-0000-0000-0000DA000000}"/>
+    <cellStyle name="Normal 10 3 2 2" xfId="359" xr:uid="{00000000-0005-0000-0000-0000DB000000}"/>
+    <cellStyle name="Normal 10 3 2_CS" xfId="482" xr:uid="{00000000-0005-0000-0000-0000DC000000}"/>
+    <cellStyle name="Normal 10 3 3" xfId="282" xr:uid="{00000000-0005-0000-0000-0000DD000000}"/>
+    <cellStyle name="Normal 10 3 4" xfId="712" xr:uid="{00000000-0005-0000-0000-0000DE000000}"/>
+    <cellStyle name="Normal 10 3 5" xfId="881" xr:uid="{00000000-0005-0000-0000-0000DF000000}"/>
+    <cellStyle name="Normal 10 3 6" xfId="866" xr:uid="{00000000-0005-0000-0000-0000E0000000}"/>
+    <cellStyle name="Normal 10 3 7" xfId="898" xr:uid="{00000000-0005-0000-0000-0000E1000000}"/>
+    <cellStyle name="Normal 10 3 8" xfId="869" xr:uid="{00000000-0005-0000-0000-0000E2000000}"/>
+    <cellStyle name="Normal 10 3 9" xfId="874" xr:uid="{00000000-0005-0000-0000-0000E3000000}"/>
+    <cellStyle name="Normal 10 3_CS" xfId="483" xr:uid="{00000000-0005-0000-0000-0000E4000000}"/>
+    <cellStyle name="Normal 10 4" xfId="43" xr:uid="{00000000-0005-0000-0000-0000E5000000}"/>
+    <cellStyle name="Normal 10 4 10" xfId="836" xr:uid="{00000000-0005-0000-0000-0000E6000000}"/>
+    <cellStyle name="Normal 10 4 2" xfId="178" xr:uid="{00000000-0005-0000-0000-0000E7000000}"/>
+    <cellStyle name="Normal 10 4 2 2" xfId="360" xr:uid="{00000000-0005-0000-0000-0000E8000000}"/>
+    <cellStyle name="Normal 10 4 2_CS" xfId="480" xr:uid="{00000000-0005-0000-0000-0000E9000000}"/>
+    <cellStyle name="Normal 10 4 3" xfId="283" xr:uid="{00000000-0005-0000-0000-0000EA000000}"/>
+    <cellStyle name="Normal 10 4 4" xfId="713" xr:uid="{00000000-0005-0000-0000-0000EB000000}"/>
+    <cellStyle name="Normal 10 4 5" xfId="882" xr:uid="{00000000-0005-0000-0000-0000EC000000}"/>
+    <cellStyle name="Normal 10 4 6" xfId="865" xr:uid="{00000000-0005-0000-0000-0000ED000000}"/>
+    <cellStyle name="Normal 10 4 7" xfId="906" xr:uid="{00000000-0005-0000-0000-0000EE000000}"/>
+    <cellStyle name="Normal 10 4 8" xfId="854" xr:uid="{00000000-0005-0000-0000-0000EF000000}"/>
+    <cellStyle name="Normal 10 4 9" xfId="875" xr:uid="{00000000-0005-0000-0000-0000F0000000}"/>
+    <cellStyle name="Normal 10 4_CS" xfId="481" xr:uid="{00000000-0005-0000-0000-0000F1000000}"/>
+    <cellStyle name="Normal 10 5" xfId="44" xr:uid="{00000000-0005-0000-0000-0000F2000000}"/>
+    <cellStyle name="Normal 10 5 10" xfId="835" xr:uid="{00000000-0005-0000-0000-0000F3000000}"/>
+    <cellStyle name="Normal 10 5 2" xfId="179" xr:uid="{00000000-0005-0000-0000-0000F4000000}"/>
+    <cellStyle name="Normal 10 5 2 2" xfId="361" xr:uid="{00000000-0005-0000-0000-0000F5000000}"/>
+    <cellStyle name="Normal 10 5 2_CS" xfId="478" xr:uid="{00000000-0005-0000-0000-0000F6000000}"/>
+    <cellStyle name="Normal 10 5 3" xfId="284" xr:uid="{00000000-0005-0000-0000-0000F7000000}"/>
+    <cellStyle name="Normal 10 5 4" xfId="714" xr:uid="{00000000-0005-0000-0000-0000F8000000}"/>
+    <cellStyle name="Normal 10 5 5" xfId="883" xr:uid="{00000000-0005-0000-0000-0000F9000000}"/>
+    <cellStyle name="Normal 10 5 6" xfId="864" xr:uid="{00000000-0005-0000-0000-0000FA000000}"/>
+    <cellStyle name="Normal 10 5 7" xfId="907" xr:uid="{00000000-0005-0000-0000-0000FB000000}"/>
+    <cellStyle name="Normal 10 5 8" xfId="853" xr:uid="{00000000-0005-0000-0000-0000FC000000}"/>
+    <cellStyle name="Normal 10 5 9" xfId="876" xr:uid="{00000000-0005-0000-0000-0000FD000000}"/>
+    <cellStyle name="Normal 10 5_CS" xfId="479" xr:uid="{00000000-0005-0000-0000-0000FE000000}"/>
+    <cellStyle name="Normal 10 6" xfId="710" xr:uid="{00000000-0005-0000-0000-0000FF000000}"/>
+    <cellStyle name="Normal 10 7" xfId="879" xr:uid="{00000000-0005-0000-0000-000000010000}"/>
+    <cellStyle name="Normal 10 8" xfId="868" xr:uid="{00000000-0005-0000-0000-000001010000}"/>
+    <cellStyle name="Normal 10 9" xfId="896" xr:uid="{00000000-0005-0000-0000-000002010000}"/>
+    <cellStyle name="Normal 11" xfId="45" xr:uid="{00000000-0005-0000-0000-000003010000}"/>
+    <cellStyle name="Normal 11 10" xfId="852" xr:uid="{00000000-0005-0000-0000-000004010000}"/>
+    <cellStyle name="Normal 11 2" xfId="46" xr:uid="{00000000-0005-0000-0000-000005010000}"/>
+    <cellStyle name="Normal 11 2 10" xfId="830" xr:uid="{00000000-0005-0000-0000-000006010000}"/>
+    <cellStyle name="Normal 11 2 2" xfId="180" xr:uid="{00000000-0005-0000-0000-000007010000}"/>
+    <cellStyle name="Normal 11 2 2 2" xfId="362" xr:uid="{00000000-0005-0000-0000-000008010000}"/>
+    <cellStyle name="Normal 11 2 2_CS" xfId="476" xr:uid="{00000000-0005-0000-0000-000009010000}"/>
+    <cellStyle name="Normal 11 2 3" xfId="285" xr:uid="{00000000-0005-0000-0000-00000A010000}"/>
+    <cellStyle name="Normal 11 2 4" xfId="716" xr:uid="{00000000-0005-0000-0000-00000B010000}"/>
+    <cellStyle name="Normal 11 2 5" xfId="885" xr:uid="{00000000-0005-0000-0000-00000C010000}"/>
+    <cellStyle name="Normal 11 2 6" xfId="862" xr:uid="{00000000-0005-0000-0000-00000D010000}"/>
+    <cellStyle name="Normal 11 2 7" xfId="909" xr:uid="{00000000-0005-0000-0000-00000E010000}"/>
+    <cellStyle name="Normal 11 2 8" xfId="851" xr:uid="{00000000-0005-0000-0000-00000F010000}"/>
+    <cellStyle name="Normal 11 2 9" xfId="877" xr:uid="{00000000-0005-0000-0000-000010010000}"/>
+    <cellStyle name="Normal 11 2_CS" xfId="477" xr:uid="{00000000-0005-0000-0000-000011010000}"/>
+    <cellStyle name="Normal 11 3" xfId="47" xr:uid="{00000000-0005-0000-0000-000012010000}"/>
+    <cellStyle name="Normal 11 3 10" xfId="989" xr:uid="{00000000-0005-0000-0000-000013010000}"/>
+    <cellStyle name="Normal 11 3 2" xfId="181" xr:uid="{00000000-0005-0000-0000-000014010000}"/>
+    <cellStyle name="Normal 11 3 2 2" xfId="363" xr:uid="{00000000-0005-0000-0000-000015010000}"/>
+    <cellStyle name="Normal 11 3 2_CS" xfId="474" xr:uid="{00000000-0005-0000-0000-000016010000}"/>
+    <cellStyle name="Normal 11 3 3" xfId="286" xr:uid="{00000000-0005-0000-0000-000017010000}"/>
+    <cellStyle name="Normal 11 3 4" xfId="717" xr:uid="{00000000-0005-0000-0000-000018010000}"/>
+    <cellStyle name="Normal 11 3 5" xfId="886" xr:uid="{00000000-0005-0000-0000-000019010000}"/>
+    <cellStyle name="Normal 11 3 6" xfId="861" xr:uid="{00000000-0005-0000-0000-00001A010000}"/>
+    <cellStyle name="Normal 11 3 7" xfId="910" xr:uid="{00000000-0005-0000-0000-00001B010000}"/>
+    <cellStyle name="Normal 11 3 8" xfId="850" xr:uid="{00000000-0005-0000-0000-00001C010000}"/>
+    <cellStyle name="Normal 11 3 9" xfId="878" xr:uid="{00000000-0005-0000-0000-00001D010000}"/>
+    <cellStyle name="Normal 11 3_CS" xfId="475" xr:uid="{00000000-0005-0000-0000-00001E010000}"/>
+    <cellStyle name="Normal 11 4" xfId="48" xr:uid="{00000000-0005-0000-0000-00001F010000}"/>
+    <cellStyle name="Normal 11 4 10" xfId="1005" xr:uid="{00000000-0005-0000-0000-000020010000}"/>
+    <cellStyle name="Normal 11 4 2" xfId="182" xr:uid="{00000000-0005-0000-0000-000021010000}"/>
+    <cellStyle name="Normal 11 4 2 2" xfId="364" xr:uid="{00000000-0005-0000-0000-000022010000}"/>
+    <cellStyle name="Normal 11 4 2_CS" xfId="472" xr:uid="{00000000-0005-0000-0000-000023010000}"/>
+    <cellStyle name="Normal 11 4 3" xfId="287" xr:uid="{00000000-0005-0000-0000-000024010000}"/>
+    <cellStyle name="Normal 11 4 4" xfId="718" xr:uid="{00000000-0005-0000-0000-000025010000}"/>
+    <cellStyle name="Normal 11 4 5" xfId="887" xr:uid="{00000000-0005-0000-0000-000026010000}"/>
+    <cellStyle name="Normal 11 4 6" xfId="860" xr:uid="{00000000-0005-0000-0000-000027010000}"/>
+    <cellStyle name="Normal 11 4 7" xfId="911" xr:uid="{00000000-0005-0000-0000-000028010000}"/>
+    <cellStyle name="Normal 11 4 8" xfId="842" xr:uid="{00000000-0005-0000-0000-000029010000}"/>
+    <cellStyle name="Normal 11 4 9" xfId="893" xr:uid="{00000000-0005-0000-0000-00002A010000}"/>
+    <cellStyle name="Normal 11 4_CS" xfId="473" xr:uid="{00000000-0005-0000-0000-00002B010000}"/>
+    <cellStyle name="Normal 11 5" xfId="49" xr:uid="{00000000-0005-0000-0000-00002C010000}"/>
+    <cellStyle name="Normal 11 5 10" xfId="1014" xr:uid="{00000000-0005-0000-0000-00002D010000}"/>
+    <cellStyle name="Normal 11 5 2" xfId="183" xr:uid="{00000000-0005-0000-0000-00002E010000}"/>
+    <cellStyle name="Normal 11 5 2 2" xfId="365" xr:uid="{00000000-0005-0000-0000-00002F010000}"/>
+    <cellStyle name="Normal 11 5 2_CS" xfId="470" xr:uid="{00000000-0005-0000-0000-000030010000}"/>
+    <cellStyle name="Normal 11 5 3" xfId="288" xr:uid="{00000000-0005-0000-0000-000031010000}"/>
+    <cellStyle name="Normal 11 5 4" xfId="719" xr:uid="{00000000-0005-0000-0000-000032010000}"/>
+    <cellStyle name="Normal 11 5 5" xfId="888" xr:uid="{00000000-0005-0000-0000-000033010000}"/>
+    <cellStyle name="Normal 11 5 6" xfId="859" xr:uid="{00000000-0005-0000-0000-000034010000}"/>
+    <cellStyle name="Normal 11 5 7" xfId="912" xr:uid="{00000000-0005-0000-0000-000035010000}"/>
+    <cellStyle name="Normal 11 5 8" xfId="841" xr:uid="{00000000-0005-0000-0000-000036010000}"/>
+    <cellStyle name="Normal 11 5 9" xfId="894" xr:uid="{00000000-0005-0000-0000-000037010000}"/>
+    <cellStyle name="Normal 11 5_CS" xfId="471" xr:uid="{00000000-0005-0000-0000-000038010000}"/>
+    <cellStyle name="Normal 11 6" xfId="715" xr:uid="{00000000-0005-0000-0000-000039010000}"/>
+    <cellStyle name="Normal 11 7" xfId="884" xr:uid="{00000000-0005-0000-0000-00003A010000}"/>
+    <cellStyle name="Normal 11 8" xfId="863" xr:uid="{00000000-0005-0000-0000-00003B010000}"/>
+    <cellStyle name="Normal 11 9" xfId="908" xr:uid="{00000000-0005-0000-0000-00003C010000}"/>
+    <cellStyle name="Normal 12" xfId="50" xr:uid="{00000000-0005-0000-0000-00003D010000}"/>
+    <cellStyle name="Normal 12 10" xfId="1018" xr:uid="{00000000-0005-0000-0000-00003E010000}"/>
+    <cellStyle name="Normal 12 2" xfId="184" xr:uid="{00000000-0005-0000-0000-00003F010000}"/>
+    <cellStyle name="Normal 12 2 2" xfId="366" xr:uid="{00000000-0005-0000-0000-000040010000}"/>
+    <cellStyle name="Normal 12 2_CS" xfId="468" xr:uid="{00000000-0005-0000-0000-000041010000}"/>
+    <cellStyle name="Normal 12 3" xfId="289" xr:uid="{00000000-0005-0000-0000-000042010000}"/>
+    <cellStyle name="Normal 12 4" xfId="720" xr:uid="{00000000-0005-0000-0000-000043010000}"/>
+    <cellStyle name="Normal 12 5" xfId="889" xr:uid="{00000000-0005-0000-0000-000044010000}"/>
+    <cellStyle name="Normal 12 6" xfId="858" xr:uid="{00000000-0005-0000-0000-000045010000}"/>
+    <cellStyle name="Normal 12 7" xfId="913" xr:uid="{00000000-0005-0000-0000-000046010000}"/>
+    <cellStyle name="Normal 12 8" xfId="840" xr:uid="{00000000-0005-0000-0000-000047010000}"/>
+    <cellStyle name="Normal 12 9" xfId="951" xr:uid="{00000000-0005-0000-0000-000048010000}"/>
+    <cellStyle name="Normal 12_CS" xfId="469" xr:uid="{00000000-0005-0000-0000-000049010000}"/>
+    <cellStyle name="Normal 13" xfId="51" xr:uid="{00000000-0005-0000-0000-00004A010000}"/>
+    <cellStyle name="Normal 13 10" xfId="970" xr:uid="{00000000-0005-0000-0000-00004B010000}"/>
+    <cellStyle name="Normal 13 2" xfId="52" xr:uid="{00000000-0005-0000-0000-00004C010000}"/>
+    <cellStyle name="Normal 13 2 2" xfId="185" xr:uid="{00000000-0005-0000-0000-00004D010000}"/>
+    <cellStyle name="Normal 13 2 2 2" xfId="367" xr:uid="{00000000-0005-0000-0000-00004E010000}"/>
+    <cellStyle name="Normal 13 2 2_CS" xfId="466" xr:uid="{00000000-0005-0000-0000-00004F010000}"/>
+    <cellStyle name="Normal 13 2 3" xfId="290" xr:uid="{00000000-0005-0000-0000-000050010000}"/>
+    <cellStyle name="Normal 13 2_CS" xfId="467" xr:uid="{00000000-0005-0000-0000-000051010000}"/>
+    <cellStyle name="Normal 13 3" xfId="721" xr:uid="{00000000-0005-0000-0000-000052010000}"/>
+    <cellStyle name="Normal 13 4" xfId="890" xr:uid="{00000000-0005-0000-0000-000053010000}"/>
+    <cellStyle name="Normal 13 5" xfId="857" xr:uid="{00000000-0005-0000-0000-000054010000}"/>
+    <cellStyle name="Normal 13 6" xfId="918" xr:uid="{00000000-0005-0000-0000-000055010000}"/>
+    <cellStyle name="Normal 13 7" xfId="839" xr:uid="{00000000-0005-0000-0000-000056010000}"/>
+    <cellStyle name="Normal 13 8" xfId="952" xr:uid="{00000000-0005-0000-0000-000057010000}"/>
+    <cellStyle name="Normal 13 9" xfId="1019" xr:uid="{00000000-0005-0000-0000-000058010000}"/>
+    <cellStyle name="Normal 14" xfId="53" xr:uid="{00000000-0005-0000-0000-000059010000}"/>
+    <cellStyle name="Normal 14 10" xfId="1020" xr:uid="{00000000-0005-0000-0000-00005A010000}"/>
+    <cellStyle name="Normal 14 2" xfId="186" xr:uid="{00000000-0005-0000-0000-00005B010000}"/>
+    <cellStyle name="Normal 14 2 2" xfId="368" xr:uid="{00000000-0005-0000-0000-00005C010000}"/>
+    <cellStyle name="Normal 14 2_CS" xfId="464" xr:uid="{00000000-0005-0000-0000-00005D010000}"/>
+    <cellStyle name="Normal 14 3" xfId="291" xr:uid="{00000000-0005-0000-0000-00005E010000}"/>
+    <cellStyle name="Normal 14 4" xfId="722" xr:uid="{00000000-0005-0000-0000-00005F010000}"/>
+    <cellStyle name="Normal 14 5" xfId="891" xr:uid="{00000000-0005-0000-0000-000060010000}"/>
+    <cellStyle name="Normal 14 6" xfId="856" xr:uid="{00000000-0005-0000-0000-000061010000}"/>
+    <cellStyle name="Normal 14 7" xfId="934" xr:uid="{00000000-0005-0000-0000-000062010000}"/>
+    <cellStyle name="Normal 14 8" xfId="838" xr:uid="{00000000-0005-0000-0000-000063010000}"/>
+    <cellStyle name="Normal 14 9" xfId="958" xr:uid="{00000000-0005-0000-0000-000064010000}"/>
+    <cellStyle name="Normal 14_CS" xfId="465" xr:uid="{00000000-0005-0000-0000-000065010000}"/>
+    <cellStyle name="Normal 15" xfId="54" xr:uid="{00000000-0005-0000-0000-000066010000}"/>
+    <cellStyle name="Normal 15 10" xfId="1021" xr:uid="{00000000-0005-0000-0000-000067010000}"/>
+    <cellStyle name="Normal 15 2" xfId="187" xr:uid="{00000000-0005-0000-0000-000068010000}"/>
+    <cellStyle name="Normal 15 2 2" xfId="369" xr:uid="{00000000-0005-0000-0000-000069010000}"/>
+    <cellStyle name="Normal 15 2_CS" xfId="462" xr:uid="{00000000-0005-0000-0000-00006A010000}"/>
+    <cellStyle name="Normal 15 3" xfId="292" xr:uid="{00000000-0005-0000-0000-00006B010000}"/>
+    <cellStyle name="Normal 15 4" xfId="723" xr:uid="{00000000-0005-0000-0000-00006C010000}"/>
+    <cellStyle name="Normal 15 5" xfId="892" xr:uid="{00000000-0005-0000-0000-00006D010000}"/>
+    <cellStyle name="Normal 15 6" xfId="855" xr:uid="{00000000-0005-0000-0000-00006E010000}"/>
+    <cellStyle name="Normal 15 7" xfId="950" xr:uid="{00000000-0005-0000-0000-00006F010000}"/>
+    <cellStyle name="Normal 15 8" xfId="837" xr:uid="{00000000-0005-0000-0000-000070010000}"/>
+    <cellStyle name="Normal 15 9" xfId="959" xr:uid="{00000000-0005-0000-0000-000071010000}"/>
+    <cellStyle name="Normal 15_CS" xfId="463" xr:uid="{00000000-0005-0000-0000-000072010000}"/>
+    <cellStyle name="Normal 16" xfId="55" xr:uid="{00000000-0005-0000-0000-000073010000}"/>
+    <cellStyle name="Normal 16 2" xfId="724" xr:uid="{00000000-0005-0000-0000-000074010000}"/>
+    <cellStyle name="Normal 17" xfId="157" xr:uid="{00000000-0005-0000-0000-000075010000}"/>
+    <cellStyle name="Normal 17 2" xfId="236" xr:uid="{00000000-0005-0000-0000-000076010000}"/>
+    <cellStyle name="Normal 17 2 2" xfId="418" xr:uid="{00000000-0005-0000-0000-000077010000}"/>
+    <cellStyle name="Normal 17 2_CS" xfId="460" xr:uid="{00000000-0005-0000-0000-000078010000}"/>
+    <cellStyle name="Normal 17 3" xfId="342" xr:uid="{00000000-0005-0000-0000-000079010000}"/>
+    <cellStyle name="Normal 17_CS" xfId="461" xr:uid="{00000000-0005-0000-0000-00007A010000}"/>
+    <cellStyle name="Normal 18" xfId="159" xr:uid="{00000000-0005-0000-0000-00007B010000}"/>
+    <cellStyle name="Normal 18 2" xfId="237" xr:uid="{00000000-0005-0000-0000-00007C010000}"/>
+    <cellStyle name="Normal 18 2 2" xfId="419" xr:uid="{00000000-0005-0000-0000-00007D010000}"/>
+    <cellStyle name="Normal 18 2_CS" xfId="458" xr:uid="{00000000-0005-0000-0000-00007E010000}"/>
+    <cellStyle name="Normal 18 3" xfId="343" xr:uid="{00000000-0005-0000-0000-00007F010000}"/>
+    <cellStyle name="Normal 18_CS" xfId="459" xr:uid="{00000000-0005-0000-0000-000080010000}"/>
+    <cellStyle name="Normal 19" xfId="160" xr:uid="{00000000-0005-0000-0000-000081010000}"/>
+    <cellStyle name="Normal 19 2" xfId="238" xr:uid="{00000000-0005-0000-0000-000082010000}"/>
+    <cellStyle name="Normal 19 2 2" xfId="420" xr:uid="{00000000-0005-0000-0000-000083010000}"/>
+    <cellStyle name="Normal 19 2_CS" xfId="457" xr:uid="{00000000-0005-0000-0000-000084010000}"/>
+    <cellStyle name="Normal 19 3" xfId="344" xr:uid="{00000000-0005-0000-0000-000085010000}"/>
+    <cellStyle name="Normal 19_CS" xfId="542" xr:uid="{00000000-0005-0000-0000-000086010000}"/>
+    <cellStyle name="Normal 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000087010000}"/>
+    <cellStyle name="Normal 2 2" xfId="57" xr:uid="{00000000-0005-0000-0000-000088010000}"/>
+    <cellStyle name="Normal 2 2 10" xfId="895" xr:uid="{00000000-0005-0000-0000-000089010000}"/>
+    <cellStyle name="Normal 2 2 2" xfId="58" xr:uid="{00000000-0005-0000-0000-00008A010000}"/>
+    <cellStyle name="Normal 2 2 2 2" xfId="59" xr:uid="{00000000-0005-0000-0000-00008B010000}"/>
+    <cellStyle name="Normal 2 2 2 2 2" xfId="728" xr:uid="{00000000-0005-0000-0000-00008C010000}"/>
+    <cellStyle name="Normal 2 2 2 3" xfId="727" xr:uid="{00000000-0005-0000-0000-00008D010000}"/>
+    <cellStyle name="Normal 2 2 3" xfId="60" xr:uid="{00000000-0005-0000-0000-00008E010000}"/>
+    <cellStyle name="Normal 2 2 3 2" xfId="729" xr:uid="{00000000-0005-0000-0000-00008F010000}"/>
+    <cellStyle name="Normal 2 2 4" xfId="61" xr:uid="{00000000-0005-0000-0000-000090010000}"/>
+    <cellStyle name="Normal 2 2 4 10" xfId="1026" xr:uid="{00000000-0005-0000-0000-000091010000}"/>
+    <cellStyle name="Normal 2 2 4 2" xfId="189" xr:uid="{00000000-0005-0000-0000-000092010000}"/>
+    <cellStyle name="Normal 2 2 4 2 2" xfId="371" xr:uid="{00000000-0005-0000-0000-000093010000}"/>
+    <cellStyle name="Normal 2 2 4 2_CS" xfId="540" xr:uid="{00000000-0005-0000-0000-000094010000}"/>
+    <cellStyle name="Normal 2 2 4 3" xfId="294" xr:uid="{00000000-0005-0000-0000-000095010000}"/>
+    <cellStyle name="Normal 2 2 4 4" xfId="730" xr:uid="{00000000-0005-0000-0000-000096010000}"/>
+    <cellStyle name="Normal 2 2 4 5" xfId="899" xr:uid="{00000000-0005-0000-0000-000097010000}"/>
+    <cellStyle name="Normal 2 2 4 6" xfId="849" xr:uid="{00000000-0005-0000-0000-000098010000}"/>
+    <cellStyle name="Normal 2 2 4 7" xfId="960" xr:uid="{00000000-0005-0000-0000-000099010000}"/>
+    <cellStyle name="Normal 2 2 4 8" xfId="1006" xr:uid="{00000000-0005-0000-0000-00009A010000}"/>
+    <cellStyle name="Normal 2 2 4 9" xfId="967" xr:uid="{00000000-0005-0000-0000-00009B010000}"/>
+    <cellStyle name="Normal 2 2 4_CS" xfId="456" xr:uid="{00000000-0005-0000-0000-00009C010000}"/>
+    <cellStyle name="Normal 2 2 5" xfId="62" xr:uid="{00000000-0005-0000-0000-00009D010000}"/>
+    <cellStyle name="Normal 2 2 5 10" xfId="1030" xr:uid="{00000000-0005-0000-0000-00009E010000}"/>
+    <cellStyle name="Normal 2 2 5 2" xfId="190" xr:uid="{00000000-0005-0000-0000-00009F010000}"/>
+    <cellStyle name="Normal 2 2 5 2 2" xfId="372" xr:uid="{00000000-0005-0000-0000-0000A0010000}"/>
+    <cellStyle name="Normal 2 2 5 2_CS" xfId="539" xr:uid="{00000000-0005-0000-0000-0000A1010000}"/>
+    <cellStyle name="Normal 2 2 5 3" xfId="295" xr:uid="{00000000-0005-0000-0000-0000A2010000}"/>
+    <cellStyle name="Normal 2 2 5 4" xfId="731" xr:uid="{00000000-0005-0000-0000-0000A3010000}"/>
+    <cellStyle name="Normal 2 2 5 5" xfId="900" xr:uid="{00000000-0005-0000-0000-0000A4010000}"/>
+    <cellStyle name="Normal 2 2 5 6" xfId="848" xr:uid="{00000000-0005-0000-0000-0000A5010000}"/>
+    <cellStyle name="Normal 2 2 5 7" xfId="961" xr:uid="{00000000-0005-0000-0000-0000A6010000}"/>
+    <cellStyle name="Normal 2 2 5 8" xfId="1007" xr:uid="{00000000-0005-0000-0000-0000A7010000}"/>
+    <cellStyle name="Normal 2 2 5 9" xfId="968" xr:uid="{00000000-0005-0000-0000-0000A8010000}"/>
+    <cellStyle name="Normal 2 2 5_CS" xfId="455" xr:uid="{00000000-0005-0000-0000-0000A9010000}"/>
+    <cellStyle name="Normal 2 2 6" xfId="63" xr:uid="{00000000-0005-0000-0000-0000AA010000}"/>
+    <cellStyle name="Normal 2 2 6 10" xfId="1034" xr:uid="{00000000-0005-0000-0000-0000AB010000}"/>
+    <cellStyle name="Normal 2 2 6 2" xfId="191" xr:uid="{00000000-0005-0000-0000-0000AC010000}"/>
+    <cellStyle name="Normal 2 2 6 2 2" xfId="373" xr:uid="{00000000-0005-0000-0000-0000AD010000}"/>
+    <cellStyle name="Normal 2 2 6 2_CS" xfId="453" xr:uid="{00000000-0005-0000-0000-0000AE010000}"/>
+    <cellStyle name="Normal 2 2 6 3" xfId="296" xr:uid="{00000000-0005-0000-0000-0000AF010000}"/>
+    <cellStyle name="Normal 2 2 6 4" xfId="732" xr:uid="{00000000-0005-0000-0000-0000B0010000}"/>
+    <cellStyle name="Normal 2 2 6 5" xfId="901" xr:uid="{00000000-0005-0000-0000-0000B1010000}"/>
+    <cellStyle name="Normal 2 2 6 6" xfId="847" xr:uid="{00000000-0005-0000-0000-0000B2010000}"/>
+    <cellStyle name="Normal 2 2 6 7" xfId="962" xr:uid="{00000000-0005-0000-0000-0000B3010000}"/>
+    <cellStyle name="Normal 2 2 6 8" xfId="1013" xr:uid="{00000000-0005-0000-0000-0000B4010000}"/>
+    <cellStyle name="Normal 2 2 6 9" xfId="969" xr:uid="{00000000-0005-0000-0000-0000B5010000}"/>
+    <cellStyle name="Normal 2 2 6_CS" xfId="454" xr:uid="{00000000-0005-0000-0000-0000B6010000}"/>
+    <cellStyle name="Normal 2 2 7" xfId="188" xr:uid="{00000000-0005-0000-0000-0000B7010000}"/>
+    <cellStyle name="Normal 2 2 7 2" xfId="370" xr:uid="{00000000-0005-0000-0000-0000B8010000}"/>
+    <cellStyle name="Normal 2 2 7_CS" xfId="452" xr:uid="{00000000-0005-0000-0000-0000B9010000}"/>
+    <cellStyle name="Normal 2 2 8" xfId="293" xr:uid="{00000000-0005-0000-0000-0000BA010000}"/>
+    <cellStyle name="Normal 2 2 9" xfId="726" xr:uid="{00000000-0005-0000-0000-0000BB010000}"/>
+    <cellStyle name="Normal 2 2_CS" xfId="541" xr:uid="{00000000-0005-0000-0000-0000BC010000}"/>
+    <cellStyle name="Normal 2 3" xfId="64" xr:uid="{00000000-0005-0000-0000-0000BD010000}"/>
+    <cellStyle name="Normal 2 3 10" xfId="963" xr:uid="{00000000-0005-0000-0000-0000BE010000}"/>
+    <cellStyle name="Normal 2 3 2" xfId="65" xr:uid="{00000000-0005-0000-0000-0000BF010000}"/>
+    <cellStyle name="Normal 2 3 2 10" xfId="1093" xr:uid="{00000000-0005-0000-0000-0000C0010000}"/>
+    <cellStyle name="Normal 2 3 2 2" xfId="193" xr:uid="{00000000-0005-0000-0000-0000C1010000}"/>
+    <cellStyle name="Normal 2 3 2 2 2" xfId="375" xr:uid="{00000000-0005-0000-0000-0000C2010000}"/>
+    <cellStyle name="Normal 2 3 2 2_CS" xfId="523" xr:uid="{00000000-0005-0000-0000-0000C3010000}"/>
+    <cellStyle name="Normal 2 3 2 3" xfId="298" xr:uid="{00000000-0005-0000-0000-0000C4010000}"/>
+    <cellStyle name="Normal 2 3 2 4" xfId="734" xr:uid="{00000000-0005-0000-0000-0000C5010000}"/>
+    <cellStyle name="Normal 2 3 2 5" xfId="903" xr:uid="{00000000-0005-0000-0000-0000C6010000}"/>
+    <cellStyle name="Normal 2 3 2 6" xfId="845" xr:uid="{00000000-0005-0000-0000-0000C7010000}"/>
+    <cellStyle name="Normal 2 3 2 7" xfId="964" xr:uid="{00000000-0005-0000-0000-0000C8010000}"/>
+    <cellStyle name="Normal 2 3 2 8" xfId="1015" xr:uid="{00000000-0005-0000-0000-0000C9010000}"/>
+    <cellStyle name="Normal 2 3 2 9" xfId="975" xr:uid="{00000000-0005-0000-0000-0000CA010000}"/>
+    <cellStyle name="Normal 2 3 2_CS" xfId="450" xr:uid="{00000000-0005-0000-0000-0000CB010000}"/>
+    <cellStyle name="Normal 2 3 3" xfId="66" xr:uid="{00000000-0005-0000-0000-0000CC010000}"/>
+    <cellStyle name="Normal 2 3 3 10" xfId="1097" xr:uid="{00000000-0005-0000-0000-0000CD010000}"/>
+    <cellStyle name="Normal 2 3 3 2" xfId="194" xr:uid="{00000000-0005-0000-0000-0000CE010000}"/>
+    <cellStyle name="Normal 2 3 3 2 2" xfId="376" xr:uid="{00000000-0005-0000-0000-0000CF010000}"/>
+    <cellStyle name="Normal 2 3 3 2_CS" xfId="449" xr:uid="{00000000-0005-0000-0000-0000D0010000}"/>
+    <cellStyle name="Normal 2 3 3 3" xfId="299" xr:uid="{00000000-0005-0000-0000-0000D1010000}"/>
+    <cellStyle name="Normal 2 3 3 4" xfId="735" xr:uid="{00000000-0005-0000-0000-0000D2010000}"/>
+    <cellStyle name="Normal 2 3 3 5" xfId="904" xr:uid="{00000000-0005-0000-0000-0000D3010000}"/>
+    <cellStyle name="Normal 2 3 3 6" xfId="844" xr:uid="{00000000-0005-0000-0000-0000D4010000}"/>
+    <cellStyle name="Normal 2 3 3 7" xfId="965" xr:uid="{00000000-0005-0000-0000-0000D5010000}"/>
+    <cellStyle name="Normal 2 3 3 8" xfId="1016" xr:uid="{00000000-0005-0000-0000-0000D6010000}"/>
+    <cellStyle name="Normal 2 3 3 9" xfId="1044" xr:uid="{00000000-0005-0000-0000-0000D7010000}"/>
+    <cellStyle name="Normal 2 3 3_CS" xfId="538" xr:uid="{00000000-0005-0000-0000-0000D8010000}"/>
+    <cellStyle name="Normal 2 3 4" xfId="67" xr:uid="{00000000-0005-0000-0000-0000D9010000}"/>
+    <cellStyle name="Normal 2 3 4 10" xfId="1104" xr:uid="{00000000-0005-0000-0000-0000DA010000}"/>
+    <cellStyle name="Normal 2 3 4 2" xfId="195" xr:uid="{00000000-0005-0000-0000-0000DB010000}"/>
+    <cellStyle name="Normal 2 3 4 2 2" xfId="377" xr:uid="{00000000-0005-0000-0000-0000DC010000}"/>
+    <cellStyle name="Normal 2 3 4 2_CS" xfId="448" xr:uid="{00000000-0005-0000-0000-0000DD010000}"/>
+    <cellStyle name="Normal 2 3 4 3" xfId="300" xr:uid="{00000000-0005-0000-0000-0000DE010000}"/>
+    <cellStyle name="Normal 2 3 4 4" xfId="736" xr:uid="{00000000-0005-0000-0000-0000DF010000}"/>
+    <cellStyle name="Normal 2 3 4 5" xfId="905" xr:uid="{00000000-0005-0000-0000-0000E0010000}"/>
+    <cellStyle name="Normal 2 3 4 6" xfId="843" xr:uid="{00000000-0005-0000-0000-0000E1010000}"/>
+    <cellStyle name="Normal 2 3 4 7" xfId="966" xr:uid="{00000000-0005-0000-0000-0000E2010000}"/>
+    <cellStyle name="Normal 2 3 4 8" xfId="1017" xr:uid="{00000000-0005-0000-0000-0000E3010000}"/>
+    <cellStyle name="Normal 2 3 4 9" xfId="1060" xr:uid="{00000000-0005-0000-0000-0000E4010000}"/>
+    <cellStyle name="Normal 2 3 4_CS" xfId="537" xr:uid="{00000000-0005-0000-0000-0000E5010000}"/>
+    <cellStyle name="Normal 2 3 5" xfId="192" xr:uid="{00000000-0005-0000-0000-0000E6010000}"/>
+    <cellStyle name="Normal 2 3 5 2" xfId="374" xr:uid="{00000000-0005-0000-0000-0000E7010000}"/>
+    <cellStyle name="Normal 2 3 5_CS" xfId="536" xr:uid="{00000000-0005-0000-0000-0000E8010000}"/>
+    <cellStyle name="Normal 2 3 6" xfId="297" xr:uid="{00000000-0005-0000-0000-0000E9010000}"/>
+    <cellStyle name="Normal 2 3 7" xfId="733" xr:uid="{00000000-0005-0000-0000-0000EA010000}"/>
+    <cellStyle name="Normal 2 3 8" xfId="902" xr:uid="{00000000-0005-0000-0000-0000EB010000}"/>
+    <cellStyle name="Normal 2 3 9" xfId="846" xr:uid="{00000000-0005-0000-0000-0000EC010000}"/>
+    <cellStyle name="Normal 2 3_CS" xfId="451" xr:uid="{00000000-0005-0000-0000-0000ED010000}"/>
+    <cellStyle name="Normal 2 4" xfId="613" xr:uid="{00000000-0005-0000-0000-0000EE010000}"/>
+    <cellStyle name="Normal 2 4 2" xfId="737" xr:uid="{00000000-0005-0000-0000-0000EF010000}"/>
+    <cellStyle name="Normal 2 5" xfId="68" xr:uid="{00000000-0005-0000-0000-0000F0010000}"/>
+    <cellStyle name="Normal 2 6" xfId="725" xr:uid="{00000000-0005-0000-0000-0000F1010000}"/>
+    <cellStyle name="Normal 20" xfId="161" xr:uid="{00000000-0005-0000-0000-0000F2010000}"/>
+    <cellStyle name="Normal 20 2" xfId="239" xr:uid="{00000000-0005-0000-0000-0000F3010000}"/>
+    <cellStyle name="Normal 20 2 2" xfId="421" xr:uid="{00000000-0005-0000-0000-0000F4010000}"/>
+    <cellStyle name="Normal 20 2_CS" xfId="532" xr:uid="{00000000-0005-0000-0000-0000F5010000}"/>
+    <cellStyle name="Normal 20 3" xfId="345" xr:uid="{00000000-0005-0000-0000-0000F6010000}"/>
+    <cellStyle name="Normal 20_CS" xfId="447" xr:uid="{00000000-0005-0000-0000-0000F7010000}"/>
+    <cellStyle name="Normal 21" xfId="162" xr:uid="{00000000-0005-0000-0000-0000F8010000}"/>
+    <cellStyle name="Normal 21 2" xfId="240" xr:uid="{00000000-0005-0000-0000-0000F9010000}"/>
+    <cellStyle name="Normal 21 2 2" xfId="422" xr:uid="{00000000-0005-0000-0000-0000FA010000}"/>
+    <cellStyle name="Normal 21 2_CS" xfId="446" xr:uid="{00000000-0005-0000-0000-0000FB010000}"/>
+    <cellStyle name="Normal 21 3" xfId="346" xr:uid="{00000000-0005-0000-0000-0000FC010000}"/>
+    <cellStyle name="Normal 21_CS" xfId="535" xr:uid="{00000000-0005-0000-0000-0000FD010000}"/>
+    <cellStyle name="Normal 22" xfId="163" xr:uid="{00000000-0005-0000-0000-0000FE010000}"/>
+    <cellStyle name="Normal 22 2" xfId="241" xr:uid="{00000000-0005-0000-0000-0000FF010000}"/>
+    <cellStyle name="Normal 22 2 2" xfId="423" xr:uid="{00000000-0005-0000-0000-000000020000}"/>
+    <cellStyle name="Normal 22 2_CS" xfId="445" xr:uid="{00000000-0005-0000-0000-000001020000}"/>
+    <cellStyle name="Normal 22 3" xfId="347" xr:uid="{00000000-0005-0000-0000-000002020000}"/>
+    <cellStyle name="Normal 22_CS" xfId="534" xr:uid="{00000000-0005-0000-0000-000003020000}"/>
+    <cellStyle name="Normal 23" xfId="164" xr:uid="{00000000-0005-0000-0000-000004020000}"/>
+    <cellStyle name="Normal 23 2" xfId="242" xr:uid="{00000000-0005-0000-0000-000005020000}"/>
+    <cellStyle name="Normal 23 2 2" xfId="424" xr:uid="{00000000-0005-0000-0000-000006020000}"/>
+    <cellStyle name="Normal 23 2_CS" xfId="444" xr:uid="{00000000-0005-0000-0000-000007020000}"/>
+    <cellStyle name="Normal 23 3" xfId="348" xr:uid="{00000000-0005-0000-0000-000008020000}"/>
+    <cellStyle name="Normal 23_CS" xfId="533" xr:uid="{00000000-0005-0000-0000-000009020000}"/>
+    <cellStyle name="Normal 24" xfId="165" xr:uid="{00000000-0005-0000-0000-00000A020000}"/>
+    <cellStyle name="Normal 24 2" xfId="243" xr:uid="{00000000-0005-0000-0000-00000B020000}"/>
+    <cellStyle name="Normal 24 2 2" xfId="425" xr:uid="{00000000-0005-0000-0000-00000C020000}"/>
+    <cellStyle name="Normal 24 2_CS" xfId="528" xr:uid="{00000000-0005-0000-0000-00000D020000}"/>
+    <cellStyle name="Normal 24 3" xfId="349" xr:uid="{00000000-0005-0000-0000-00000E020000}"/>
+    <cellStyle name="Normal 24_CS" xfId="443" xr:uid="{00000000-0005-0000-0000-00000F020000}"/>
+    <cellStyle name="Normal 25" xfId="166" xr:uid="{00000000-0005-0000-0000-000010020000}"/>
+    <cellStyle name="Normal 25 2" xfId="244" xr:uid="{00000000-0005-0000-0000-000011020000}"/>
+    <cellStyle name="Normal 25 2 2" xfId="426" xr:uid="{00000000-0005-0000-0000-000012020000}"/>
+    <cellStyle name="Normal 25 2_CS" xfId="442" xr:uid="{00000000-0005-0000-0000-000013020000}"/>
+    <cellStyle name="Normal 25 3" xfId="350" xr:uid="{00000000-0005-0000-0000-000014020000}"/>
+    <cellStyle name="Normal 25_CS" xfId="531" xr:uid="{00000000-0005-0000-0000-000015020000}"/>
+    <cellStyle name="Normal 26" xfId="167" xr:uid="{00000000-0005-0000-0000-000016020000}"/>
+    <cellStyle name="Normal 26 2" xfId="245" xr:uid="{00000000-0005-0000-0000-000017020000}"/>
+    <cellStyle name="Normal 26 2 2" xfId="427" xr:uid="{00000000-0005-0000-0000-000018020000}"/>
+    <cellStyle name="Normal 26 2_CS" xfId="441" xr:uid="{00000000-0005-0000-0000-000019020000}"/>
+    <cellStyle name="Normal 26 3" xfId="351" xr:uid="{00000000-0005-0000-0000-00001A020000}"/>
+    <cellStyle name="Normal 26_CS" xfId="530" xr:uid="{00000000-0005-0000-0000-00001B020000}"/>
+    <cellStyle name="Normal 27" xfId="168" xr:uid="{00000000-0005-0000-0000-00001C020000}"/>
+    <cellStyle name="Normal 27 2" xfId="246" xr:uid="{00000000-0005-0000-0000-00001D020000}"/>
+    <cellStyle name="Normal 27 2 2" xfId="428" xr:uid="{00000000-0005-0000-0000-00001E020000}"/>
+    <cellStyle name="Normal 27 2_CS" xfId="440" xr:uid="{00000000-0005-0000-0000-00001F020000}"/>
+    <cellStyle name="Normal 27 3" xfId="352" xr:uid="{00000000-0005-0000-0000-000020020000}"/>
+    <cellStyle name="Normal 27_CS" xfId="529" xr:uid="{00000000-0005-0000-0000-000021020000}"/>
+    <cellStyle name="Normal 28" xfId="169" xr:uid="{00000000-0005-0000-0000-000022020000}"/>
+    <cellStyle name="Normal 28 2" xfId="247" xr:uid="{00000000-0005-0000-0000-000023020000}"/>
+    <cellStyle name="Normal 28 2 2" xfId="429" xr:uid="{00000000-0005-0000-0000-000024020000}"/>
+    <cellStyle name="Normal 28 2_CS" xfId="527" xr:uid="{00000000-0005-0000-0000-000025020000}"/>
+    <cellStyle name="Normal 28 3" xfId="353" xr:uid="{00000000-0005-0000-0000-000026020000}"/>
+    <cellStyle name="Normal 28_CS" xfId="439" xr:uid="{00000000-0005-0000-0000-000027020000}"/>
+    <cellStyle name="Normal 29" xfId="170" xr:uid="{00000000-0005-0000-0000-000028020000}"/>
+    <cellStyle name="Normal 29 2" xfId="248" xr:uid="{00000000-0005-0000-0000-000029020000}"/>
+    <cellStyle name="Normal 29 2 2" xfId="430" xr:uid="{00000000-0005-0000-0000-00002A020000}"/>
+    <cellStyle name="Normal 29 2_CS" xfId="526" xr:uid="{00000000-0005-0000-0000-00002B020000}"/>
+    <cellStyle name="Normal 29 3" xfId="354" xr:uid="{00000000-0005-0000-0000-00002C020000}"/>
+    <cellStyle name="Normal 29_CS" xfId="438" xr:uid="{00000000-0005-0000-0000-00002D020000}"/>
+    <cellStyle name="Normal 3" xfId="69" xr:uid="{00000000-0005-0000-0000-00002E020000}"/>
+    <cellStyle name="Normal 3 2" xfId="70" xr:uid="{00000000-0005-0000-0000-00002F020000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="739" xr:uid="{00000000-0005-0000-0000-000030020000}"/>
+    <cellStyle name="Normal 3 3" xfId="71" xr:uid="{00000000-0005-0000-0000-000031020000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000032020000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="741" xr:uid="{00000000-0005-0000-0000-000033020000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="73" xr:uid="{00000000-0005-0000-0000-000034020000}"/>
+    <cellStyle name="Normal 3 3 3 2" xfId="742" xr:uid="{00000000-0005-0000-0000-000035020000}"/>
+    <cellStyle name="Normal 3 3 4" xfId="74" xr:uid="{00000000-0005-0000-0000-000036020000}"/>
+    <cellStyle name="Normal 3 3 4 2" xfId="743" xr:uid="{00000000-0005-0000-0000-000037020000}"/>
+    <cellStyle name="Normal 3 3 5" xfId="740" xr:uid="{00000000-0005-0000-0000-000038020000}"/>
+    <cellStyle name="Normal 3 4" xfId="75" xr:uid="{00000000-0005-0000-0000-000039020000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="744" xr:uid="{00000000-0005-0000-0000-00003A020000}"/>
+    <cellStyle name="Normal 3 5" xfId="76" xr:uid="{00000000-0005-0000-0000-00003B020000}"/>
+    <cellStyle name="Normal 3 5 2" xfId="745" xr:uid="{00000000-0005-0000-0000-00003C020000}"/>
+    <cellStyle name="Normal 3 6" xfId="77" xr:uid="{00000000-0005-0000-0000-00003D020000}"/>
+    <cellStyle name="Normal 3 6 10" xfId="971" xr:uid="{00000000-0005-0000-0000-00003E020000}"/>
+    <cellStyle name="Normal 3 6 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00003F020000}"/>
+    <cellStyle name="Normal 3 6 2 10" xfId="1110" xr:uid="{00000000-0005-0000-0000-000040020000}"/>
+    <cellStyle name="Normal 3 6 2 2" xfId="197" xr:uid="{00000000-0005-0000-0000-000041020000}"/>
+    <cellStyle name="Normal 3 6 2 2 2" xfId="379" xr:uid="{00000000-0005-0000-0000-000042020000}"/>
+    <cellStyle name="Normal 3 6 2 2_CS" xfId="436" xr:uid="{00000000-0005-0000-0000-000043020000}"/>
+    <cellStyle name="Normal 3 6 2 3" xfId="302" xr:uid="{00000000-0005-0000-0000-000044020000}"/>
+    <cellStyle name="Normal 3 6 2 4" xfId="747" xr:uid="{00000000-0005-0000-0000-000045020000}"/>
+    <cellStyle name="Normal 3 6 2 5" xfId="915" xr:uid="{00000000-0005-0000-0000-000046020000}"/>
+    <cellStyle name="Normal 3 6 2 6" xfId="833" xr:uid="{00000000-0005-0000-0000-000047020000}"/>
+    <cellStyle name="Normal 3 6 2 7" xfId="972" xr:uid="{00000000-0005-0000-0000-000048020000}"/>
+    <cellStyle name="Normal 3 6 2 8" xfId="1023" xr:uid="{00000000-0005-0000-0000-000049020000}"/>
+    <cellStyle name="Normal 3 6 2 9" xfId="1066" xr:uid="{00000000-0005-0000-0000-00004A020000}"/>
+    <cellStyle name="Normal 3 6 2_CS" xfId="525" xr:uid="{00000000-0005-0000-0000-00004B020000}"/>
+    <cellStyle name="Normal 3 6 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004C020000}"/>
+    <cellStyle name="Normal 3 6 3 10" xfId="1111" xr:uid="{00000000-0005-0000-0000-00004D020000}"/>
+    <cellStyle name="Normal 3 6 3 2" xfId="198" xr:uid="{00000000-0005-0000-0000-00004E020000}"/>
+    <cellStyle name="Normal 3 6 3 2 2" xfId="380" xr:uid="{00000000-0005-0000-0000-00004F020000}"/>
+    <cellStyle name="Normal 3 6 3 2_CS" xfId="435" xr:uid="{00000000-0005-0000-0000-000050020000}"/>
+    <cellStyle name="Normal 3 6 3 3" xfId="303" xr:uid="{00000000-0005-0000-0000-000051020000}"/>
+    <cellStyle name="Normal 3 6 3 4" xfId="748" xr:uid="{00000000-0005-0000-0000-000052020000}"/>
+    <cellStyle name="Normal 3 6 3 5" xfId="916" xr:uid="{00000000-0005-0000-0000-000053020000}"/>
+    <cellStyle name="Normal 3 6 3 6" xfId="832" xr:uid="{00000000-0005-0000-0000-000054020000}"/>
+    <cellStyle name="Normal 3 6 3 7" xfId="973" xr:uid="{00000000-0005-0000-0000-000055020000}"/>
+    <cellStyle name="Normal 3 6 3 8" xfId="1024" xr:uid="{00000000-0005-0000-0000-000056020000}"/>
+    <cellStyle name="Normal 3 6 3 9" xfId="1067" xr:uid="{00000000-0005-0000-0000-000057020000}"/>
+    <cellStyle name="Normal 3 6 3_CS" xfId="524" xr:uid="{00000000-0005-0000-0000-000058020000}"/>
+    <cellStyle name="Normal 3 6 4" xfId="80" xr:uid="{00000000-0005-0000-0000-000059020000}"/>
+    <cellStyle name="Normal 3 6 4 10" xfId="1112" xr:uid="{00000000-0005-0000-0000-00005A020000}"/>
+    <cellStyle name="Normal 3 6 4 2" xfId="199" xr:uid="{00000000-0005-0000-0000-00005B020000}"/>
+    <cellStyle name="Normal 3 6 4 2 2" xfId="381" xr:uid="{00000000-0005-0000-0000-00005C020000}"/>
+    <cellStyle name="Normal 3 6 4 2_CS" xfId="433" xr:uid="{00000000-0005-0000-0000-00005D020000}"/>
+    <cellStyle name="Normal 3 6 4 3" xfId="304" xr:uid="{00000000-0005-0000-0000-00005E020000}"/>
+    <cellStyle name="Normal 3 6 4 4" xfId="749" xr:uid="{00000000-0005-0000-0000-00005F020000}"/>
+    <cellStyle name="Normal 3 6 4 5" xfId="917" xr:uid="{00000000-0005-0000-0000-000060020000}"/>
+    <cellStyle name="Normal 3 6 4 6" xfId="831" xr:uid="{00000000-0005-0000-0000-000061020000}"/>
+    <cellStyle name="Normal 3 6 4 7" xfId="974" xr:uid="{00000000-0005-0000-0000-000062020000}"/>
+    <cellStyle name="Normal 3 6 4 8" xfId="1025" xr:uid="{00000000-0005-0000-0000-000063020000}"/>
+    <cellStyle name="Normal 3 6 4 9" xfId="1068" xr:uid="{00000000-0005-0000-0000-000064020000}"/>
+    <cellStyle name="Normal 3 6 4_CS" xfId="434" xr:uid="{00000000-0005-0000-0000-000065020000}"/>
+    <cellStyle name="Normal 3 6 5" xfId="196" xr:uid="{00000000-0005-0000-0000-000066020000}"/>
+    <cellStyle name="Normal 3 6 5 2" xfId="378" xr:uid="{00000000-0005-0000-0000-000067020000}"/>
+    <cellStyle name="Normal 3 6 5_CS" xfId="507" xr:uid="{00000000-0005-0000-0000-000068020000}"/>
+    <cellStyle name="Normal 3 6 6" xfId="301" xr:uid="{00000000-0005-0000-0000-000069020000}"/>
+    <cellStyle name="Normal 3 6 7" xfId="746" xr:uid="{00000000-0005-0000-0000-00006A020000}"/>
+    <cellStyle name="Normal 3 6 8" xfId="914" xr:uid="{00000000-0005-0000-0000-00006B020000}"/>
+    <cellStyle name="Normal 3 6 9" xfId="834" xr:uid="{00000000-0005-0000-0000-00006C020000}"/>
+    <cellStyle name="Normal 3 6_CS" xfId="437" xr:uid="{00000000-0005-0000-0000-00006D020000}"/>
+    <cellStyle name="Normal 3 7" xfId="158" xr:uid="{00000000-0005-0000-0000-00006E020000}"/>
+    <cellStyle name="Normal 3 8" xfId="738" xr:uid="{00000000-0005-0000-0000-00006F020000}"/>
+    <cellStyle name="Normal 30" xfId="172" xr:uid="{00000000-0005-0000-0000-000070020000}"/>
+    <cellStyle name="Normal 31" xfId="171" xr:uid="{00000000-0005-0000-0000-000071020000}"/>
+    <cellStyle name="Normal 31 2" xfId="355" xr:uid="{00000000-0005-0000-0000-000072020000}"/>
+    <cellStyle name="Normal 31_CS" xfId="522" xr:uid="{00000000-0005-0000-0000-000073020000}"/>
+    <cellStyle name="Normal 32" xfId="250" xr:uid="{00000000-0005-0000-0000-000074020000}"/>
+    <cellStyle name="Normal 33" xfId="249" xr:uid="{00000000-0005-0000-0000-000075020000}"/>
+    <cellStyle name="Normal 34" xfId="565" xr:uid="{00000000-0005-0000-0000-000076020000}"/>
+    <cellStyle name="Normal 34 2" xfId="632" xr:uid="{00000000-0005-0000-0000-000077020000}"/>
+    <cellStyle name="Normal 35" xfId="621" xr:uid="{00000000-0005-0000-0000-000078020000}"/>
+    <cellStyle name="Normal 35 2" xfId="636" xr:uid="{00000000-0005-0000-0000-000079020000}"/>
+    <cellStyle name="Normal 36" xfId="623" xr:uid="{00000000-0005-0000-0000-00007A020000}"/>
+    <cellStyle name="Normal 37" xfId="622" xr:uid="{00000000-0005-0000-0000-00007B020000}"/>
+    <cellStyle name="Normal 38" xfId="639" xr:uid="{00000000-0005-0000-0000-00007C020000}"/>
+    <cellStyle name="Normal 39" xfId="640" xr:uid="{00000000-0005-0000-0000-00007D020000}"/>
+    <cellStyle name="Normal 4" xfId="81" xr:uid="{00000000-0005-0000-0000-00007E020000}"/>
+    <cellStyle name="Normal 4 10" xfId="750" xr:uid="{00000000-0005-0000-0000-00007F020000}"/>
+    <cellStyle name="Normal 4 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000080020000}"/>
+    <cellStyle name="Normal 4 2 10" xfId="976" xr:uid="{00000000-0005-0000-0000-000081020000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="83" xr:uid="{00000000-0005-0000-0000-000082020000}"/>
+    <cellStyle name="Normal 4 2 2 10" xfId="1113" xr:uid="{00000000-0005-0000-0000-000083020000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="202" xr:uid="{00000000-0005-0000-0000-000084020000}"/>
+    <cellStyle name="Normal 4 2 2 2 2" xfId="384" xr:uid="{00000000-0005-0000-0000-000085020000}"/>
+    <cellStyle name="Normal 4 2 2 2_CS" xfId="520" xr:uid="{00000000-0005-0000-0000-000086020000}"/>
+    <cellStyle name="Normal 4 2 2 3" xfId="307" xr:uid="{00000000-0005-0000-0000-000087020000}"/>
+    <cellStyle name="Normal 4 2 2 4" xfId="752" xr:uid="{00000000-0005-0000-0000-000088020000}"/>
+    <cellStyle name="Normal 4 2 2 5" xfId="920" xr:uid="{00000000-0005-0000-0000-000089020000}"/>
+    <cellStyle name="Normal 4 2 2 6" xfId="828" xr:uid="{00000000-0005-0000-0000-00008A020000}"/>
+    <cellStyle name="Normal 4 2 2 7" xfId="977" xr:uid="{00000000-0005-0000-0000-00008B020000}"/>
+    <cellStyle name="Normal 4 2 2 8" xfId="1027" xr:uid="{00000000-0005-0000-0000-00008C020000}"/>
+    <cellStyle name="Normal 4 2 2 9" xfId="1069" xr:uid="{00000000-0005-0000-0000-00008D020000}"/>
+    <cellStyle name="Normal 4 2 2_CS" xfId="431" xr:uid="{00000000-0005-0000-0000-00008E020000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="84" xr:uid="{00000000-0005-0000-0000-00008F020000}"/>
+    <cellStyle name="Normal 4 2 3 10" xfId="1114" xr:uid="{00000000-0005-0000-0000-000090020000}"/>
+    <cellStyle name="Normal 4 2 3 2" xfId="203" xr:uid="{00000000-0005-0000-0000-000091020000}"/>
+    <cellStyle name="Normal 4 2 3 2 2" xfId="385" xr:uid="{00000000-0005-0000-0000-000092020000}"/>
+    <cellStyle name="Normal 4 2 3 2_CS" xfId="516" xr:uid="{00000000-0005-0000-0000-000093020000}"/>
+    <cellStyle name="Normal 4 2 3 3" xfId="308" xr:uid="{00000000-0005-0000-0000-000094020000}"/>
+    <cellStyle name="Normal 4 2 3 4" xfId="753" xr:uid="{00000000-0005-0000-0000-000095020000}"/>
+    <cellStyle name="Normal 4 2 3 5" xfId="921" xr:uid="{00000000-0005-0000-0000-000096020000}"/>
+    <cellStyle name="Normal 4 2 3 6" xfId="827" xr:uid="{00000000-0005-0000-0000-000097020000}"/>
+    <cellStyle name="Normal 4 2 3 7" xfId="978" xr:uid="{00000000-0005-0000-0000-000098020000}"/>
+    <cellStyle name="Normal 4 2 3 8" xfId="1028" xr:uid="{00000000-0005-0000-0000-000099020000}"/>
+    <cellStyle name="Normal 4 2 3 9" xfId="1070" xr:uid="{00000000-0005-0000-0000-00009A020000}"/>
+    <cellStyle name="Normal 4 2 3_CS" xfId="251" xr:uid="{00000000-0005-0000-0000-00009B020000}"/>
+    <cellStyle name="Normal 4 2 4" xfId="85" xr:uid="{00000000-0005-0000-0000-00009C020000}"/>
+    <cellStyle name="Normal 4 2 4 10" xfId="1115" xr:uid="{00000000-0005-0000-0000-00009D020000}"/>
+    <cellStyle name="Normal 4 2 4 2" xfId="204" xr:uid="{00000000-0005-0000-0000-00009E020000}"/>
+    <cellStyle name="Normal 4 2 4 2 2" xfId="386" xr:uid="{00000000-0005-0000-0000-00009F020000}"/>
+    <cellStyle name="Normal 4 2 4 2_CS" xfId="252" xr:uid="{00000000-0005-0000-0000-0000A0020000}"/>
+    <cellStyle name="Normal 4 2 4 3" xfId="309" xr:uid="{00000000-0005-0000-0000-0000A1020000}"/>
+    <cellStyle name="Normal 4 2 4 4" xfId="754" xr:uid="{00000000-0005-0000-0000-0000A2020000}"/>
+    <cellStyle name="Normal 4 2 4 5" xfId="922" xr:uid="{00000000-0005-0000-0000-0000A3020000}"/>
+    <cellStyle name="Normal 4 2 4 6" xfId="826" xr:uid="{00000000-0005-0000-0000-0000A4020000}"/>
+    <cellStyle name="Normal 4 2 4 7" xfId="979" xr:uid="{00000000-0005-0000-0000-0000A5020000}"/>
+    <cellStyle name="Normal 4 2 4 8" xfId="1029" xr:uid="{00000000-0005-0000-0000-0000A6020000}"/>
+    <cellStyle name="Normal 4 2 4 9" xfId="1071" xr:uid="{00000000-0005-0000-0000-0000A7020000}"/>
+    <cellStyle name="Normal 4 2 4_CS" xfId="519" xr:uid="{00000000-0005-0000-0000-0000A8020000}"/>
+    <cellStyle name="Normal 4 2 5" xfId="201" xr:uid="{00000000-0005-0000-0000-0000A9020000}"/>
+    <cellStyle name="Normal 4 2 5 2" xfId="383" xr:uid="{00000000-0005-0000-0000-0000AA020000}"/>
+    <cellStyle name="Normal 4 2 5_CS" xfId="518" xr:uid="{00000000-0005-0000-0000-0000AB020000}"/>
+    <cellStyle name="Normal 4 2 6" xfId="306" xr:uid="{00000000-0005-0000-0000-0000AC020000}"/>
+    <cellStyle name="Normal 4 2 7" xfId="751" xr:uid="{00000000-0005-0000-0000-0000AD020000}"/>
+    <cellStyle name="Normal 4 2 8" xfId="919" xr:uid="{00000000-0005-0000-0000-0000AE020000}"/>
+    <cellStyle name="Normal 4 2 9" xfId="829" xr:uid="{00000000-0005-0000-0000-0000AF020000}"/>
+    <cellStyle name="Normal 4 2_CS" xfId="521" xr:uid="{00000000-0005-0000-0000-0000B0020000}"/>
+    <cellStyle name="Normal 4 3" xfId="86" xr:uid="{00000000-0005-0000-0000-0000B1020000}"/>
+    <cellStyle name="Normal 4 3 10" xfId="980" xr:uid="{00000000-0005-0000-0000-0000B2020000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="87" xr:uid="{00000000-0005-0000-0000-0000B3020000}"/>
+    <cellStyle name="Normal 4 3 2 10" xfId="1116" xr:uid="{00000000-0005-0000-0000-0000B4020000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="206" xr:uid="{00000000-0005-0000-0000-0000B5020000}"/>
+    <cellStyle name="Normal 4 3 2 2 2" xfId="388" xr:uid="{00000000-0005-0000-0000-0000B6020000}"/>
+    <cellStyle name="Normal 4 3 2 2_CS" xfId="254" xr:uid="{00000000-0005-0000-0000-0000B7020000}"/>
+    <cellStyle name="Normal 4 3 2 3" xfId="311" xr:uid="{00000000-0005-0000-0000-0000B8020000}"/>
+    <cellStyle name="Normal 4 3 2 4" xfId="756" xr:uid="{00000000-0005-0000-0000-0000B9020000}"/>
+    <cellStyle name="Normal 4 3 2 5" xfId="924" xr:uid="{00000000-0005-0000-0000-0000BA020000}"/>
+    <cellStyle name="Normal 4 3 2 6" xfId="824" xr:uid="{00000000-0005-0000-0000-0000BB020000}"/>
+    <cellStyle name="Normal 4 3 2 7" xfId="981" xr:uid="{00000000-0005-0000-0000-0000BC020000}"/>
+    <cellStyle name="Normal 4 3 2 8" xfId="1031" xr:uid="{00000000-0005-0000-0000-0000BD020000}"/>
+    <cellStyle name="Normal 4 3 2 9" xfId="1072" xr:uid="{00000000-0005-0000-0000-0000BE020000}"/>
+    <cellStyle name="Normal 4 3 2_CS" xfId="517" xr:uid="{00000000-0005-0000-0000-0000BF020000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="88" xr:uid="{00000000-0005-0000-0000-0000C0020000}"/>
+    <cellStyle name="Normal 4 3 3 10" xfId="1117" xr:uid="{00000000-0005-0000-0000-0000C1020000}"/>
+    <cellStyle name="Normal 4 3 3 2" xfId="207" xr:uid="{00000000-0005-0000-0000-0000C2020000}"/>
+    <cellStyle name="Normal 4 3 3 2 2" xfId="389" xr:uid="{00000000-0005-0000-0000-0000C3020000}"/>
+    <cellStyle name="Normal 4 3 3 2_CS" xfId="512" xr:uid="{00000000-0005-0000-0000-0000C4020000}"/>
+    <cellStyle name="Normal 4 3 3 3" xfId="312" xr:uid="{00000000-0005-0000-0000-0000C5020000}"/>
+    <cellStyle name="Normal 4 3 3 4" xfId="757" xr:uid="{00000000-0005-0000-0000-0000C6020000}"/>
+    <cellStyle name="Normal 4 3 3 5" xfId="925" xr:uid="{00000000-0005-0000-0000-0000C7020000}"/>
+    <cellStyle name="Normal 4 3 3 6" xfId="823" xr:uid="{00000000-0005-0000-0000-0000C8020000}"/>
+    <cellStyle name="Normal 4 3 3 7" xfId="982" xr:uid="{00000000-0005-0000-0000-0000C9020000}"/>
+    <cellStyle name="Normal 4 3 3 8" xfId="1032" xr:uid="{00000000-0005-0000-0000-0000CA020000}"/>
+    <cellStyle name="Normal 4 3 3 9" xfId="1073" xr:uid="{00000000-0005-0000-0000-0000CB020000}"/>
+    <cellStyle name="Normal 4 3 3_CS" xfId="255" xr:uid="{00000000-0005-0000-0000-0000CC020000}"/>
+    <cellStyle name="Normal 4 3 4" xfId="89" xr:uid="{00000000-0005-0000-0000-0000CD020000}"/>
+    <cellStyle name="Normal 4 3 4 10" xfId="1118" xr:uid="{00000000-0005-0000-0000-0000CE020000}"/>
+    <cellStyle name="Normal 4 3 4 2" xfId="208" xr:uid="{00000000-0005-0000-0000-0000CF020000}"/>
+    <cellStyle name="Normal 4 3 4 2 2" xfId="390" xr:uid="{00000000-0005-0000-0000-0000D0020000}"/>
+    <cellStyle name="Normal 4 3 4 2_CS" xfId="256" xr:uid="{00000000-0005-0000-0000-0000D1020000}"/>
+    <cellStyle name="Normal 4 3 4 3" xfId="313" xr:uid="{00000000-0005-0000-0000-0000D2020000}"/>
+    <cellStyle name="Normal 4 3 4 4" xfId="758" xr:uid="{00000000-0005-0000-0000-0000D3020000}"/>
+    <cellStyle name="Normal 4 3 4 5" xfId="926" xr:uid="{00000000-0005-0000-0000-0000D4020000}"/>
+    <cellStyle name="Normal 4 3 4 6" xfId="822" xr:uid="{00000000-0005-0000-0000-0000D5020000}"/>
+    <cellStyle name="Normal 4 3 4 7" xfId="983" xr:uid="{00000000-0005-0000-0000-0000D6020000}"/>
+    <cellStyle name="Normal 4 3 4 8" xfId="1033" xr:uid="{00000000-0005-0000-0000-0000D7020000}"/>
+    <cellStyle name="Normal 4 3 4 9" xfId="1074" xr:uid="{00000000-0005-0000-0000-0000D8020000}"/>
+    <cellStyle name="Normal 4 3 4_CS" xfId="515" xr:uid="{00000000-0005-0000-0000-0000D9020000}"/>
+    <cellStyle name="Normal 4 3 5" xfId="205" xr:uid="{00000000-0005-0000-0000-0000DA020000}"/>
+    <cellStyle name="Normal 4 3 5 2" xfId="387" xr:uid="{00000000-0005-0000-0000-0000DB020000}"/>
+    <cellStyle name="Normal 4 3 5_CS" xfId="514" xr:uid="{00000000-0005-0000-0000-0000DC020000}"/>
+    <cellStyle name="Normal 4 3 6" xfId="310" xr:uid="{00000000-0005-0000-0000-0000DD020000}"/>
+    <cellStyle name="Normal 4 3 7" xfId="755" xr:uid="{00000000-0005-0000-0000-0000DE020000}"/>
+    <cellStyle name="Normal 4 3 8" xfId="923" xr:uid="{00000000-0005-0000-0000-0000DF020000}"/>
+    <cellStyle name="Normal 4 3 9" xfId="825" xr:uid="{00000000-0005-0000-0000-0000E0020000}"/>
+    <cellStyle name="Normal 4 3_CS" xfId="253" xr:uid="{00000000-0005-0000-0000-0000E1020000}"/>
+    <cellStyle name="Normal 4 4" xfId="90" xr:uid="{00000000-0005-0000-0000-0000E2020000}"/>
+    <cellStyle name="Normal 4 4 10" xfId="984" xr:uid="{00000000-0005-0000-0000-0000E3020000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="91" xr:uid="{00000000-0005-0000-0000-0000E4020000}"/>
+    <cellStyle name="Normal 4 4 2 10" xfId="1119" xr:uid="{00000000-0005-0000-0000-0000E5020000}"/>
+    <cellStyle name="Normal 4 4 2 2" xfId="210" xr:uid="{00000000-0005-0000-0000-0000E6020000}"/>
+    <cellStyle name="Normal 4 4 2 2 2" xfId="392" xr:uid="{00000000-0005-0000-0000-0000E7020000}"/>
+    <cellStyle name="Normal 4 4 2 2_CS" xfId="258" xr:uid="{00000000-0005-0000-0000-0000E8020000}"/>
+    <cellStyle name="Normal 4 4 2 3" xfId="315" xr:uid="{00000000-0005-0000-0000-0000E9020000}"/>
+    <cellStyle name="Normal 4 4 2 4" xfId="760" xr:uid="{00000000-0005-0000-0000-0000EA020000}"/>
+    <cellStyle name="Normal 4 4 2 5" xfId="928" xr:uid="{00000000-0005-0000-0000-0000EB020000}"/>
+    <cellStyle name="Normal 4 4 2 6" xfId="820" xr:uid="{00000000-0005-0000-0000-0000EC020000}"/>
+    <cellStyle name="Normal 4 4 2 7" xfId="1038" xr:uid="{00000000-0005-0000-0000-0000ED020000}"/>
+    <cellStyle name="Normal 4 4 2 8" xfId="1035" xr:uid="{00000000-0005-0000-0000-0000EE020000}"/>
+    <cellStyle name="Normal 4 4 2 9" xfId="1075" xr:uid="{00000000-0005-0000-0000-0000EF020000}"/>
+    <cellStyle name="Normal 4 4 2_CS" xfId="513" xr:uid="{00000000-0005-0000-0000-0000F0020000}"/>
+    <cellStyle name="Normal 4 4 3" xfId="92" xr:uid="{00000000-0005-0000-0000-0000F1020000}"/>
+    <cellStyle name="Normal 4 4 3 10" xfId="1120" xr:uid="{00000000-0005-0000-0000-0000F2020000}"/>
+    <cellStyle name="Normal 4 4 3 2" xfId="211" xr:uid="{00000000-0005-0000-0000-0000F3020000}"/>
+    <cellStyle name="Normal 4 4 3 2 2" xfId="393" xr:uid="{00000000-0005-0000-0000-0000F4020000}"/>
+    <cellStyle name="Normal 4 4 3 2_CS" xfId="508" xr:uid="{00000000-0005-0000-0000-0000F5020000}"/>
+    <cellStyle name="Normal 4 4 3 3" xfId="316" xr:uid="{00000000-0005-0000-0000-0000F6020000}"/>
+    <cellStyle name="Normal 4 4 3 4" xfId="761" xr:uid="{00000000-0005-0000-0000-0000F7020000}"/>
+    <cellStyle name="Normal 4 4 3 5" xfId="929" xr:uid="{00000000-0005-0000-0000-0000F8020000}"/>
+    <cellStyle name="Normal 4 4 3 6" xfId="693" xr:uid="{00000000-0005-0000-0000-0000F9020000}"/>
+    <cellStyle name="Normal 4 4 3 7" xfId="1039" xr:uid="{00000000-0005-0000-0000-0000FA020000}"/>
+    <cellStyle name="Normal 4 4 3 8" xfId="1036" xr:uid="{00000000-0005-0000-0000-0000FB020000}"/>
+    <cellStyle name="Normal 4 4 3 9" xfId="1076" xr:uid="{00000000-0005-0000-0000-0000FC020000}"/>
+    <cellStyle name="Normal 4 4 3_CS" xfId="259" xr:uid="{00000000-0005-0000-0000-0000FD020000}"/>
+    <cellStyle name="Normal 4 4 4" xfId="93" xr:uid="{00000000-0005-0000-0000-0000FE020000}"/>
+    <cellStyle name="Normal 4 4 4 10" xfId="1121" xr:uid="{00000000-0005-0000-0000-0000FF020000}"/>
+    <cellStyle name="Normal 4 4 4 2" xfId="212" xr:uid="{00000000-0005-0000-0000-000000030000}"/>
+    <cellStyle name="Normal 4 4 4 2 2" xfId="394" xr:uid="{00000000-0005-0000-0000-000001030000}"/>
+    <cellStyle name="Normal 4 4 4 2_CS" xfId="260" xr:uid="{00000000-0005-0000-0000-000002030000}"/>
+    <cellStyle name="Normal 4 4 4 3" xfId="317" xr:uid="{00000000-0005-0000-0000-000003030000}"/>
+    <cellStyle name="Normal 4 4 4 4" xfId="762" xr:uid="{00000000-0005-0000-0000-000004030000}"/>
+    <cellStyle name="Normal 4 4 4 5" xfId="930" xr:uid="{00000000-0005-0000-0000-000005030000}"/>
+    <cellStyle name="Normal 4 4 4 6" xfId="697" xr:uid="{00000000-0005-0000-0000-000006030000}"/>
+    <cellStyle name="Normal 4 4 4 7" xfId="1040" xr:uid="{00000000-0005-0000-0000-000007030000}"/>
+    <cellStyle name="Normal 4 4 4 8" xfId="1085" xr:uid="{00000000-0005-0000-0000-000008030000}"/>
+    <cellStyle name="Normal 4 4 4 9" xfId="1077" xr:uid="{00000000-0005-0000-0000-000009030000}"/>
+    <cellStyle name="Normal 4 4 4_CS" xfId="511" xr:uid="{00000000-0005-0000-0000-00000A030000}"/>
+    <cellStyle name="Normal 4 4 5" xfId="209" xr:uid="{00000000-0005-0000-0000-00000B030000}"/>
+    <cellStyle name="Normal 4 4 5 2" xfId="391" xr:uid="{00000000-0005-0000-0000-00000C030000}"/>
+    <cellStyle name="Normal 4 4 5_CS" xfId="510" xr:uid="{00000000-0005-0000-0000-00000D030000}"/>
+    <cellStyle name="Normal 4 4 6" xfId="314" xr:uid="{00000000-0005-0000-0000-00000E030000}"/>
+    <cellStyle name="Normal 4 4 7" xfId="759" xr:uid="{00000000-0005-0000-0000-00000F030000}"/>
+    <cellStyle name="Normal 4 4 8" xfId="927" xr:uid="{00000000-0005-0000-0000-000010030000}"/>
+    <cellStyle name="Normal 4 4 9" xfId="821" xr:uid="{00000000-0005-0000-0000-000011030000}"/>
+    <cellStyle name="Normal 4 4_CS" xfId="257" xr:uid="{00000000-0005-0000-0000-000012030000}"/>
+    <cellStyle name="Normal 4 5" xfId="94" xr:uid="{00000000-0005-0000-0000-000013030000}"/>
+    <cellStyle name="Normal 4 5 10" xfId="1122" xr:uid="{00000000-0005-0000-0000-000014030000}"/>
+    <cellStyle name="Normal 4 5 2" xfId="213" xr:uid="{00000000-0005-0000-0000-000015030000}"/>
+    <cellStyle name="Normal 4 5 2 2" xfId="395" xr:uid="{00000000-0005-0000-0000-000016030000}"/>
+    <cellStyle name="Normal 4 5 2_CS" xfId="509" xr:uid="{00000000-0005-0000-0000-000017030000}"/>
+    <cellStyle name="Normal 4 5 3" xfId="318" xr:uid="{00000000-0005-0000-0000-000018030000}"/>
+    <cellStyle name="Normal 4 5 4" xfId="763" xr:uid="{00000000-0005-0000-0000-000019030000}"/>
+    <cellStyle name="Normal 4 5 5" xfId="931" xr:uid="{00000000-0005-0000-0000-00001A030000}"/>
+    <cellStyle name="Normal 4 5 6" xfId="986" xr:uid="{00000000-0005-0000-0000-00001B030000}"/>
+    <cellStyle name="Normal 4 5 7" xfId="1041" xr:uid="{00000000-0005-0000-0000-00001C030000}"/>
+    <cellStyle name="Normal 4 5 8" xfId="1086" xr:uid="{00000000-0005-0000-0000-00001D030000}"/>
+    <cellStyle name="Normal 4 5 9" xfId="1078" xr:uid="{00000000-0005-0000-0000-00001E030000}"/>
+    <cellStyle name="Normal 4 5_CS" xfId="261" xr:uid="{00000000-0005-0000-0000-00001F030000}"/>
+    <cellStyle name="Normal 4 6" xfId="95" xr:uid="{00000000-0005-0000-0000-000020030000}"/>
+    <cellStyle name="Normal 4 6 10" xfId="1123" xr:uid="{00000000-0005-0000-0000-000021030000}"/>
+    <cellStyle name="Normal 4 6 2" xfId="214" xr:uid="{00000000-0005-0000-0000-000022030000}"/>
+    <cellStyle name="Normal 4 6 2 2" xfId="396" xr:uid="{00000000-0005-0000-0000-000023030000}"/>
+    <cellStyle name="Normal 4 6 2_CS" xfId="263" xr:uid="{00000000-0005-0000-0000-000024030000}"/>
+    <cellStyle name="Normal 4 6 3" xfId="319" xr:uid="{00000000-0005-0000-0000-000025030000}"/>
+    <cellStyle name="Normal 4 6 4" xfId="764" xr:uid="{00000000-0005-0000-0000-000026030000}"/>
+    <cellStyle name="Normal 4 6 5" xfId="932" xr:uid="{00000000-0005-0000-0000-000027030000}"/>
+    <cellStyle name="Normal 4 6 6" xfId="987" xr:uid="{00000000-0005-0000-0000-000028030000}"/>
+    <cellStyle name="Normal 4 6 7" xfId="1042" xr:uid="{00000000-0005-0000-0000-000029030000}"/>
+    <cellStyle name="Normal 4 6 8" xfId="1087" xr:uid="{00000000-0005-0000-0000-00002A030000}"/>
+    <cellStyle name="Normal 4 6 9" xfId="1079" xr:uid="{00000000-0005-0000-0000-00002B030000}"/>
+    <cellStyle name="Normal 4 6_CS" xfId="262" xr:uid="{00000000-0005-0000-0000-00002C030000}"/>
+    <cellStyle name="Normal 4 7" xfId="96" xr:uid="{00000000-0005-0000-0000-00002D030000}"/>
+    <cellStyle name="Normal 4 7 10" xfId="1124" xr:uid="{00000000-0005-0000-0000-00002E030000}"/>
+    <cellStyle name="Normal 4 7 2" xfId="215" xr:uid="{00000000-0005-0000-0000-00002F030000}"/>
+    <cellStyle name="Normal 4 7 2 2" xfId="397" xr:uid="{00000000-0005-0000-0000-000030030000}"/>
+    <cellStyle name="Normal 4 7 2_CS" xfId="341" xr:uid="{00000000-0005-0000-0000-000031030000}"/>
+    <cellStyle name="Normal 4 7 3" xfId="320" xr:uid="{00000000-0005-0000-0000-000032030000}"/>
+    <cellStyle name="Normal 4 7 4" xfId="765" xr:uid="{00000000-0005-0000-0000-000033030000}"/>
+    <cellStyle name="Normal 4 7 5" xfId="933" xr:uid="{00000000-0005-0000-0000-000034030000}"/>
+    <cellStyle name="Normal 4 7 6" xfId="988" xr:uid="{00000000-0005-0000-0000-000035030000}"/>
+    <cellStyle name="Normal 4 7 7" xfId="1043" xr:uid="{00000000-0005-0000-0000-000036030000}"/>
+    <cellStyle name="Normal 4 7 8" xfId="1088" xr:uid="{00000000-0005-0000-0000-000037030000}"/>
+    <cellStyle name="Normal 4 7 9" xfId="1080" xr:uid="{00000000-0005-0000-0000-000038030000}"/>
+    <cellStyle name="Normal 4 7_CS" xfId="264" xr:uid="{00000000-0005-0000-0000-000039030000}"/>
+    <cellStyle name="Normal 4 8" xfId="200" xr:uid="{00000000-0005-0000-0000-00003A030000}"/>
+    <cellStyle name="Normal 4 8 2" xfId="382" xr:uid="{00000000-0005-0000-0000-00003B030000}"/>
+    <cellStyle name="Normal 4 8_CS" xfId="500" xr:uid="{00000000-0005-0000-0000-00003C030000}"/>
+    <cellStyle name="Normal 4 9" xfId="305" xr:uid="{00000000-0005-0000-0000-00003D030000}"/>
+    <cellStyle name="Normal 4_CS" xfId="432" xr:uid="{00000000-0005-0000-0000-00003E030000}"/>
+    <cellStyle name="Normal 40" xfId="638" xr:uid="{00000000-0005-0000-0000-00003F030000}"/>
+    <cellStyle name="Normal 41" xfId="641" xr:uid="{00000000-0005-0000-0000-000040030000}"/>
+    <cellStyle name="Normal 42" xfId="698" xr:uid="{00000000-0005-0000-0000-000041030000}"/>
+    <cellStyle name="Normal 43" xfId="985" xr:uid="{00000000-0005-0000-0000-000042030000}"/>
+    <cellStyle name="Normal 44" xfId="1037" xr:uid="{00000000-0005-0000-0000-000043030000}"/>
+    <cellStyle name="Normal 45" xfId="1084" xr:uid="{00000000-0005-0000-0000-000044030000}"/>
+    <cellStyle name="Normal 46" xfId="1129" xr:uid="{00000000-0005-0000-0000-000045030000}"/>
+    <cellStyle name="Normal 47" xfId="1143" xr:uid="{00000000-0005-0000-0000-000046030000}"/>
+    <cellStyle name="Normal 48" xfId="1157" xr:uid="{00000000-0005-0000-0000-000047030000}"/>
+    <cellStyle name="Normal 49" xfId="1158" xr:uid="{00000000-0005-0000-0000-000048030000}"/>
+    <cellStyle name="Normal 5" xfId="97" xr:uid="{00000000-0005-0000-0000-000049030000}"/>
+    <cellStyle name="Normal 5 10" xfId="766" xr:uid="{00000000-0005-0000-0000-00004A030000}"/>
+    <cellStyle name="Normal 5 2" xfId="98" xr:uid="{00000000-0005-0000-0000-00004B030000}"/>
+    <cellStyle name="Normal 5 2 10" xfId="1089" xr:uid="{00000000-0005-0000-0000-00004C030000}"/>
+    <cellStyle name="Normal 5 2 2" xfId="99" xr:uid="{00000000-0005-0000-0000-00004D030000}"/>
+    <cellStyle name="Normal 5 2 2 10" xfId="1125" xr:uid="{00000000-0005-0000-0000-00004E030000}"/>
+    <cellStyle name="Normal 5 2 2 2" xfId="217" xr:uid="{00000000-0005-0000-0000-00004F030000}"/>
+    <cellStyle name="Normal 5 2 2 2 2" xfId="399" xr:uid="{00000000-0005-0000-0000-000050030000}"/>
+    <cellStyle name="Normal 5 2 2 2_CS" xfId="503" xr:uid="{00000000-0005-0000-0000-000051030000}"/>
+    <cellStyle name="Normal 5 2 2 3" xfId="322" xr:uid="{00000000-0005-0000-0000-000052030000}"/>
+    <cellStyle name="Normal 5 2 2 4" xfId="768" xr:uid="{00000000-0005-0000-0000-000053030000}"/>
+    <cellStyle name="Normal 5 2 2 5" xfId="936" xr:uid="{00000000-0005-0000-0000-000054030000}"/>
+    <cellStyle name="Normal 5 2 2 6" xfId="991" xr:uid="{00000000-0005-0000-0000-000055030000}"/>
+    <cellStyle name="Normal 5 2 2 7" xfId="1046" xr:uid="{00000000-0005-0000-0000-000056030000}"/>
+    <cellStyle name="Normal 5 2 2 8" xfId="1090" xr:uid="{00000000-0005-0000-0000-000057030000}"/>
+    <cellStyle name="Normal 5 2 2 9" xfId="1081" xr:uid="{00000000-0005-0000-0000-000058030000}"/>
+    <cellStyle name="Normal 5 2 2_CS" xfId="489" xr:uid="{00000000-0005-0000-0000-000059030000}"/>
+    <cellStyle name="Normal 5 2 3" xfId="100" xr:uid="{00000000-0005-0000-0000-00005A030000}"/>
+    <cellStyle name="Normal 5 2 3 10" xfId="1126" xr:uid="{00000000-0005-0000-0000-00005B030000}"/>
+    <cellStyle name="Normal 5 2 3 2" xfId="218" xr:uid="{00000000-0005-0000-0000-00005C030000}"/>
+    <cellStyle name="Normal 5 2 3 2 2" xfId="400" xr:uid="{00000000-0005-0000-0000-00005D030000}"/>
+    <cellStyle name="Normal 5 2 3 2_CS" xfId="265" xr:uid="{00000000-0005-0000-0000-00005E030000}"/>
+    <cellStyle name="Normal 5 2 3 3" xfId="323" xr:uid="{00000000-0005-0000-0000-00005F030000}"/>
+    <cellStyle name="Normal 5 2 3 4" xfId="769" xr:uid="{00000000-0005-0000-0000-000060030000}"/>
+    <cellStyle name="Normal 5 2 3 5" xfId="937" xr:uid="{00000000-0005-0000-0000-000061030000}"/>
+    <cellStyle name="Normal 5 2 3 6" xfId="992" xr:uid="{00000000-0005-0000-0000-000062030000}"/>
+    <cellStyle name="Normal 5 2 3 7" xfId="1047" xr:uid="{00000000-0005-0000-0000-000063030000}"/>
+    <cellStyle name="Normal 5 2 3 8" xfId="1091" xr:uid="{00000000-0005-0000-0000-000064030000}"/>
+    <cellStyle name="Normal 5 2 3 9" xfId="1082" xr:uid="{00000000-0005-0000-0000-000065030000}"/>
+    <cellStyle name="Normal 5 2 3_CS" xfId="506" xr:uid="{00000000-0005-0000-0000-000066030000}"/>
+    <cellStyle name="Normal 5 2 4" xfId="101" xr:uid="{00000000-0005-0000-0000-000067030000}"/>
+    <cellStyle name="Normal 5 2 4 10" xfId="1127" xr:uid="{00000000-0005-0000-0000-000068030000}"/>
+    <cellStyle name="Normal 5 2 4 2" xfId="219" xr:uid="{00000000-0005-0000-0000-000069030000}"/>
+    <cellStyle name="Normal 5 2 4 2 2" xfId="401" xr:uid="{00000000-0005-0000-0000-00006A030000}"/>
+    <cellStyle name="Normal 5 2 4 2_CS" xfId="266" xr:uid="{00000000-0005-0000-0000-00006B030000}"/>
+    <cellStyle name="Normal 5 2 4 3" xfId="324" xr:uid="{00000000-0005-0000-0000-00006C030000}"/>
+    <cellStyle name="Normal 5 2 4 4" xfId="770" xr:uid="{00000000-0005-0000-0000-00006D030000}"/>
+    <cellStyle name="Normal 5 2 4 5" xfId="938" xr:uid="{00000000-0005-0000-0000-00006E030000}"/>
+    <cellStyle name="Normal 5 2 4 6" xfId="993" xr:uid="{00000000-0005-0000-0000-00006F030000}"/>
+    <cellStyle name="Normal 5 2 4 7" xfId="1048" xr:uid="{00000000-0005-0000-0000-000070030000}"/>
+    <cellStyle name="Normal 5 2 4 8" xfId="1092" xr:uid="{00000000-0005-0000-0000-000071030000}"/>
+    <cellStyle name="Normal 5 2 4 9" xfId="1083" xr:uid="{00000000-0005-0000-0000-000072030000}"/>
+    <cellStyle name="Normal 5 2 4_CS" xfId="505" xr:uid="{00000000-0005-0000-0000-000073030000}"/>
+    <cellStyle name="Normal 5 2 5" xfId="102" xr:uid="{00000000-0005-0000-0000-000074030000}"/>
+    <cellStyle name="Normal 5 2 5 2" xfId="220" xr:uid="{00000000-0005-0000-0000-000075030000}"/>
+    <cellStyle name="Normal 5 2 5 2 2" xfId="402" xr:uid="{00000000-0005-0000-0000-000076030000}"/>
+    <cellStyle name="Normal 5 2 5 2_CS" xfId="267" xr:uid="{00000000-0005-0000-0000-000077030000}"/>
+    <cellStyle name="Normal 5 2 5 3" xfId="325" xr:uid="{00000000-0005-0000-0000-000078030000}"/>
+    <cellStyle name="Normal 5 2 5_CS" xfId="504" xr:uid="{00000000-0005-0000-0000-000079030000}"/>
+    <cellStyle name="Normal 5 2 6" xfId="767" xr:uid="{00000000-0005-0000-0000-00007A030000}"/>
+    <cellStyle name="Normal 5 2 7" xfId="935" xr:uid="{00000000-0005-0000-0000-00007B030000}"/>
+    <cellStyle name="Normal 5 2 8" xfId="990" xr:uid="{00000000-0005-0000-0000-00007C030000}"/>
+    <cellStyle name="Normal 5 2 9" xfId="1045" xr:uid="{00000000-0005-0000-0000-00007D030000}"/>
+    <cellStyle name="Normal 5 3" xfId="103" xr:uid="{00000000-0005-0000-0000-00007E030000}"/>
+    <cellStyle name="Normal 5 3 10" xfId="1049" xr:uid="{00000000-0005-0000-0000-00007F030000}"/>
+    <cellStyle name="Normal 5 3 2" xfId="104" xr:uid="{00000000-0005-0000-0000-000080030000}"/>
+    <cellStyle name="Normal 5 3 2 10" xfId="1128" xr:uid="{00000000-0005-0000-0000-000081030000}"/>
+    <cellStyle name="Normal 5 3 2 2" xfId="222" xr:uid="{00000000-0005-0000-0000-000082030000}"/>
+    <cellStyle name="Normal 5 3 2 2 2" xfId="404" xr:uid="{00000000-0005-0000-0000-000083030000}"/>
+    <cellStyle name="Normal 5 3 2 2_CS" xfId="271" xr:uid="{00000000-0005-0000-0000-000084030000}"/>
+    <cellStyle name="Normal 5 3 2 3" xfId="327" xr:uid="{00000000-0005-0000-0000-000085030000}"/>
+    <cellStyle name="Normal 5 3 2 4" xfId="772" xr:uid="{00000000-0005-0000-0000-000086030000}"/>
+    <cellStyle name="Normal 5 3 2 5" xfId="940" xr:uid="{00000000-0005-0000-0000-000087030000}"/>
+    <cellStyle name="Normal 5 3 2 6" xfId="995" xr:uid="{00000000-0005-0000-0000-000088030000}"/>
+    <cellStyle name="Normal 5 3 2 7" xfId="1050" xr:uid="{00000000-0005-0000-0000-000089030000}"/>
+    <cellStyle name="Normal 5 3 2 8" xfId="1094" xr:uid="{00000000-0005-0000-0000-00008A030000}"/>
+    <cellStyle name="Normal 5 3 2 9" xfId="1130" xr:uid="{00000000-0005-0000-0000-00008B030000}"/>
+    <cellStyle name="Normal 5 3 2_CS" xfId="269" xr:uid="{00000000-0005-0000-0000-00008C030000}"/>
+    <cellStyle name="Normal 5 3 3" xfId="105" xr:uid="{00000000-0005-0000-0000-00008D030000}"/>
+    <cellStyle name="Normal 5 3 3 10" xfId="1144" xr:uid="{00000000-0005-0000-0000-00008E030000}"/>
+    <cellStyle name="Normal 5 3 3 2" xfId="223" xr:uid="{00000000-0005-0000-0000-00008F030000}"/>
+    <cellStyle name="Normal 5 3 3 2 2" xfId="405" xr:uid="{00000000-0005-0000-0000-000090030000}"/>
+    <cellStyle name="Normal 5 3 3 2_CS" xfId="273" xr:uid="{00000000-0005-0000-0000-000091030000}"/>
+    <cellStyle name="Normal 5 3 3 3" xfId="328" xr:uid="{00000000-0005-0000-0000-000092030000}"/>
+    <cellStyle name="Normal 5 3 3 4" xfId="773" xr:uid="{00000000-0005-0000-0000-000093030000}"/>
+    <cellStyle name="Normal 5 3 3 5" xfId="941" xr:uid="{00000000-0005-0000-0000-000094030000}"/>
+    <cellStyle name="Normal 5 3 3 6" xfId="996" xr:uid="{00000000-0005-0000-0000-000095030000}"/>
+    <cellStyle name="Normal 5 3 3 7" xfId="1051" xr:uid="{00000000-0005-0000-0000-000096030000}"/>
+    <cellStyle name="Normal 5 3 3 8" xfId="1095" xr:uid="{00000000-0005-0000-0000-000097030000}"/>
+    <cellStyle name="Normal 5 3 3 9" xfId="1131" xr:uid="{00000000-0005-0000-0000-000098030000}"/>
+    <cellStyle name="Normal 5 3 3_CS" xfId="272" xr:uid="{00000000-0005-0000-0000-000099030000}"/>
+    <cellStyle name="Normal 5 3 4" xfId="106" xr:uid="{00000000-0005-0000-0000-00009A030000}"/>
+    <cellStyle name="Normal 5 3 4 10" xfId="1145" xr:uid="{00000000-0005-0000-0000-00009B030000}"/>
+    <cellStyle name="Normal 5 3 4 2" xfId="224" xr:uid="{00000000-0005-0000-0000-00009C030000}"/>
+    <cellStyle name="Normal 5 3 4 2 2" xfId="406" xr:uid="{00000000-0005-0000-0000-00009D030000}"/>
+    <cellStyle name="Normal 5 3 4 2_CS" xfId="275" xr:uid="{00000000-0005-0000-0000-00009E030000}"/>
+    <cellStyle name="Normal 5 3 4 3" xfId="329" xr:uid="{00000000-0005-0000-0000-00009F030000}"/>
+    <cellStyle name="Normal 5 3 4 4" xfId="774" xr:uid="{00000000-0005-0000-0000-0000A0030000}"/>
+    <cellStyle name="Normal 5 3 4 5" xfId="942" xr:uid="{00000000-0005-0000-0000-0000A1030000}"/>
+    <cellStyle name="Normal 5 3 4 6" xfId="997" xr:uid="{00000000-0005-0000-0000-0000A2030000}"/>
+    <cellStyle name="Normal 5 3 4 7" xfId="1052" xr:uid="{00000000-0005-0000-0000-0000A3030000}"/>
+    <cellStyle name="Normal 5 3 4 8" xfId="1096" xr:uid="{00000000-0005-0000-0000-0000A4030000}"/>
+    <cellStyle name="Normal 5 3 4 9" xfId="1132" xr:uid="{00000000-0005-0000-0000-0000A5030000}"/>
+    <cellStyle name="Normal 5 3 4_CS" xfId="274" xr:uid="{00000000-0005-0000-0000-0000A6030000}"/>
+    <cellStyle name="Normal 5 3 5" xfId="221" xr:uid="{00000000-0005-0000-0000-0000A7030000}"/>
+    <cellStyle name="Normal 5 3 5 2" xfId="403" xr:uid="{00000000-0005-0000-0000-0000A8030000}"/>
+    <cellStyle name="Normal 5 3 5_CS" xfId="276" xr:uid="{00000000-0005-0000-0000-0000A9030000}"/>
+    <cellStyle name="Normal 5 3 6" xfId="326" xr:uid="{00000000-0005-0000-0000-0000AA030000}"/>
+    <cellStyle name="Normal 5 3 7" xfId="771" xr:uid="{00000000-0005-0000-0000-0000AB030000}"/>
+    <cellStyle name="Normal 5 3 8" xfId="939" xr:uid="{00000000-0005-0000-0000-0000AC030000}"/>
+    <cellStyle name="Normal 5 3 9" xfId="994" xr:uid="{00000000-0005-0000-0000-0000AD030000}"/>
+    <cellStyle name="Normal 5 3_CS" xfId="268" xr:uid="{00000000-0005-0000-0000-0000AE030000}"/>
+    <cellStyle name="Normal 5 4" xfId="107" xr:uid="{00000000-0005-0000-0000-0000AF030000}"/>
+    <cellStyle name="Normal 5 4 10" xfId="1053" xr:uid="{00000000-0005-0000-0000-0000B0030000}"/>
+    <cellStyle name="Normal 5 4 2" xfId="108" xr:uid="{00000000-0005-0000-0000-0000B1030000}"/>
+    <cellStyle name="Normal 5 4 2 10" xfId="1146" xr:uid="{00000000-0005-0000-0000-0000B2030000}"/>
+    <cellStyle name="Normal 5 4 2 2" xfId="226" xr:uid="{00000000-0005-0000-0000-0000B3030000}"/>
+    <cellStyle name="Normal 5 4 2 2 2" xfId="408" xr:uid="{00000000-0005-0000-0000-0000B4030000}"/>
+    <cellStyle name="Normal 5 4 2 2_CS" xfId="499" xr:uid="{00000000-0005-0000-0000-0000B5030000}"/>
+    <cellStyle name="Normal 5 4 2 3" xfId="331" xr:uid="{00000000-0005-0000-0000-0000B6030000}"/>
+    <cellStyle name="Normal 5 4 2 4" xfId="776" xr:uid="{00000000-0005-0000-0000-0000B7030000}"/>
+    <cellStyle name="Normal 5 4 2 5" xfId="944" xr:uid="{00000000-0005-0000-0000-0000B8030000}"/>
+    <cellStyle name="Normal 5 4 2 6" xfId="999" xr:uid="{00000000-0005-0000-0000-0000B9030000}"/>
+    <cellStyle name="Normal 5 4 2 7" xfId="1054" xr:uid="{00000000-0005-0000-0000-0000BA030000}"/>
+    <cellStyle name="Normal 5 4 2 8" xfId="1098" xr:uid="{00000000-0005-0000-0000-0000BB030000}"/>
+    <cellStyle name="Normal 5 4 2 9" xfId="1133" xr:uid="{00000000-0005-0000-0000-0000BC030000}"/>
+    <cellStyle name="Normal 5 4 2_CS" xfId="552" xr:uid="{00000000-0005-0000-0000-0000BD030000}"/>
+    <cellStyle name="Normal 5 4 3" xfId="109" xr:uid="{00000000-0005-0000-0000-0000BE030000}"/>
+    <cellStyle name="Normal 5 4 3 10" xfId="1147" xr:uid="{00000000-0005-0000-0000-0000BF030000}"/>
+    <cellStyle name="Normal 5 4 3 2" xfId="227" xr:uid="{00000000-0005-0000-0000-0000C0030000}"/>
+    <cellStyle name="Normal 5 4 3 2 2" xfId="409" xr:uid="{00000000-0005-0000-0000-0000C1030000}"/>
+    <cellStyle name="Normal 5 4 3 2_CS" xfId="498" xr:uid="{00000000-0005-0000-0000-0000C2030000}"/>
+    <cellStyle name="Normal 5 4 3 3" xfId="332" xr:uid="{00000000-0005-0000-0000-0000C3030000}"/>
+    <cellStyle name="Normal 5 4 3 4" xfId="777" xr:uid="{00000000-0005-0000-0000-0000C4030000}"/>
+    <cellStyle name="Normal 5 4 3 5" xfId="945" xr:uid="{00000000-0005-0000-0000-0000C5030000}"/>
+    <cellStyle name="Normal 5 4 3 6" xfId="1000" xr:uid="{00000000-0005-0000-0000-0000C6030000}"/>
+    <cellStyle name="Normal 5 4 3 7" xfId="1055" xr:uid="{00000000-0005-0000-0000-0000C7030000}"/>
+    <cellStyle name="Normal 5 4 3 8" xfId="1099" xr:uid="{00000000-0005-0000-0000-0000C8030000}"/>
+    <cellStyle name="Normal 5 4 3 9" xfId="1134" xr:uid="{00000000-0005-0000-0000-0000C9030000}"/>
+    <cellStyle name="Normal 5 4 3_CS" xfId="551" xr:uid="{00000000-0005-0000-0000-0000CA030000}"/>
+    <cellStyle name="Normal 5 4 4" xfId="110" xr:uid="{00000000-0005-0000-0000-0000CB030000}"/>
+    <cellStyle name="Normal 5 4 4 10" xfId="1148" xr:uid="{00000000-0005-0000-0000-0000CC030000}"/>
+    <cellStyle name="Normal 5 4 4 2" xfId="228" xr:uid="{00000000-0005-0000-0000-0000CD030000}"/>
+    <cellStyle name="Normal 5 4 4 2 2" xfId="410" xr:uid="{00000000-0005-0000-0000-0000CE030000}"/>
+    <cellStyle name="Normal 5 4 4 2_CS" xfId="497" xr:uid="{00000000-0005-0000-0000-0000CF030000}"/>
+    <cellStyle name="Normal 5 4 4 3" xfId="333" xr:uid="{00000000-0005-0000-0000-0000D0030000}"/>
+    <cellStyle name="Normal 5 4 4 4" xfId="778" xr:uid="{00000000-0005-0000-0000-0000D1030000}"/>
+    <cellStyle name="Normal 5 4 4 5" xfId="946" xr:uid="{00000000-0005-0000-0000-0000D2030000}"/>
+    <cellStyle name="Normal 5 4 4 6" xfId="1001" xr:uid="{00000000-0005-0000-0000-0000D3030000}"/>
+    <cellStyle name="Normal 5 4 4 7" xfId="1056" xr:uid="{00000000-0005-0000-0000-0000D4030000}"/>
+    <cellStyle name="Normal 5 4 4 8" xfId="1100" xr:uid="{00000000-0005-0000-0000-0000D5030000}"/>
+    <cellStyle name="Normal 5 4 4 9" xfId="1135" xr:uid="{00000000-0005-0000-0000-0000D6030000}"/>
+    <cellStyle name="Normal 5 4 4_CS" xfId="550" xr:uid="{00000000-0005-0000-0000-0000D7030000}"/>
+    <cellStyle name="Normal 5 4 5" xfId="225" xr:uid="{00000000-0005-0000-0000-0000D8030000}"/>
+    <cellStyle name="Normal 5 4 5 2" xfId="407" xr:uid="{00000000-0005-0000-0000-0000D9030000}"/>
+    <cellStyle name="Normal 5 4 5_CS" xfId="549" xr:uid="{00000000-0005-0000-0000-0000DA030000}"/>
+    <cellStyle name="Normal 5 4 6" xfId="330" xr:uid="{00000000-0005-0000-0000-0000DB030000}"/>
+    <cellStyle name="Normal 5 4 7" xfId="775" xr:uid="{00000000-0005-0000-0000-0000DC030000}"/>
+    <cellStyle name="Normal 5 4 8" xfId="943" xr:uid="{00000000-0005-0000-0000-0000DD030000}"/>
+    <cellStyle name="Normal 5 4 9" xfId="998" xr:uid="{00000000-0005-0000-0000-0000DE030000}"/>
+    <cellStyle name="Normal 5 4_CS" xfId="277" xr:uid="{00000000-0005-0000-0000-0000DF030000}"/>
+    <cellStyle name="Normal 5 5" xfId="111" xr:uid="{00000000-0005-0000-0000-0000E0030000}"/>
+    <cellStyle name="Normal 5 5 10" xfId="1149" xr:uid="{00000000-0005-0000-0000-0000E1030000}"/>
+    <cellStyle name="Normal 5 5 2" xfId="229" xr:uid="{00000000-0005-0000-0000-0000E2030000}"/>
+    <cellStyle name="Normal 5 5 2 2" xfId="411" xr:uid="{00000000-0005-0000-0000-0000E3030000}"/>
+    <cellStyle name="Normal 5 5 2_CS" xfId="548" xr:uid="{00000000-0005-0000-0000-0000E4030000}"/>
+    <cellStyle name="Normal 5 5 3" xfId="334" xr:uid="{00000000-0005-0000-0000-0000E5030000}"/>
+    <cellStyle name="Normal 5 5 4" xfId="779" xr:uid="{00000000-0005-0000-0000-0000E6030000}"/>
+    <cellStyle name="Normal 5 5 5" xfId="947" xr:uid="{00000000-0005-0000-0000-0000E7030000}"/>
+    <cellStyle name="Normal 5 5 6" xfId="1002" xr:uid="{00000000-0005-0000-0000-0000E8030000}"/>
+    <cellStyle name="Normal 5 5 7" xfId="1057" xr:uid="{00000000-0005-0000-0000-0000E9030000}"/>
+    <cellStyle name="Normal 5 5 8" xfId="1101" xr:uid="{00000000-0005-0000-0000-0000EA030000}"/>
+    <cellStyle name="Normal 5 5 9" xfId="1136" xr:uid="{00000000-0005-0000-0000-0000EB030000}"/>
+    <cellStyle name="Normal 5 5_CS" xfId="496" xr:uid="{00000000-0005-0000-0000-0000EC030000}"/>
+    <cellStyle name="Normal 5 6" xfId="112" xr:uid="{00000000-0005-0000-0000-0000ED030000}"/>
+    <cellStyle name="Normal 5 6 10" xfId="1150" xr:uid="{00000000-0005-0000-0000-0000EE030000}"/>
+    <cellStyle name="Normal 5 6 2" xfId="230" xr:uid="{00000000-0005-0000-0000-0000EF030000}"/>
+    <cellStyle name="Normal 5 6 2 2" xfId="412" xr:uid="{00000000-0005-0000-0000-0000F0030000}"/>
+    <cellStyle name="Normal 5 6 2_CS" xfId="547" xr:uid="{00000000-0005-0000-0000-0000F1030000}"/>
+    <cellStyle name="Normal 5 6 3" xfId="335" xr:uid="{00000000-0005-0000-0000-0000F2030000}"/>
+    <cellStyle name="Normal 5 6 4" xfId="780" xr:uid="{00000000-0005-0000-0000-0000F3030000}"/>
+    <cellStyle name="Normal 5 6 5" xfId="948" xr:uid="{00000000-0005-0000-0000-0000F4030000}"/>
+    <cellStyle name="Normal 5 6 6" xfId="1003" xr:uid="{00000000-0005-0000-0000-0000F5030000}"/>
+    <cellStyle name="Normal 5 6 7" xfId="1058" xr:uid="{00000000-0005-0000-0000-0000F6030000}"/>
+    <cellStyle name="Normal 5 6 8" xfId="1102" xr:uid="{00000000-0005-0000-0000-0000F7030000}"/>
+    <cellStyle name="Normal 5 6 9" xfId="1137" xr:uid="{00000000-0005-0000-0000-0000F8030000}"/>
+    <cellStyle name="Normal 5 6_CS" xfId="495" xr:uid="{00000000-0005-0000-0000-0000F9030000}"/>
+    <cellStyle name="Normal 5 7" xfId="113" xr:uid="{00000000-0005-0000-0000-0000FA030000}"/>
+    <cellStyle name="Normal 5 7 10" xfId="1151" xr:uid="{00000000-0005-0000-0000-0000FB030000}"/>
+    <cellStyle name="Normal 5 7 2" xfId="231" xr:uid="{00000000-0005-0000-0000-0000FC030000}"/>
+    <cellStyle name="Normal 5 7 2 2" xfId="413" xr:uid="{00000000-0005-0000-0000-0000FD030000}"/>
+    <cellStyle name="Normal 5 7 2_CS" xfId="546" xr:uid="{00000000-0005-0000-0000-0000FE030000}"/>
+    <cellStyle name="Normal 5 7 3" xfId="336" xr:uid="{00000000-0005-0000-0000-0000FF030000}"/>
+    <cellStyle name="Normal 5 7 4" xfId="781" xr:uid="{00000000-0005-0000-0000-000000040000}"/>
+    <cellStyle name="Normal 5 7 5" xfId="949" xr:uid="{00000000-0005-0000-0000-000001040000}"/>
+    <cellStyle name="Normal 5 7 6" xfId="1004" xr:uid="{00000000-0005-0000-0000-000002040000}"/>
+    <cellStyle name="Normal 5 7 7" xfId="1059" xr:uid="{00000000-0005-0000-0000-000003040000}"/>
+    <cellStyle name="Normal 5 7 8" xfId="1103" xr:uid="{00000000-0005-0000-0000-000004040000}"/>
+    <cellStyle name="Normal 5 7 9" xfId="1138" xr:uid="{00000000-0005-0000-0000-000005040000}"/>
+    <cellStyle name="Normal 5 7_CS" xfId="494" xr:uid="{00000000-0005-0000-0000-000006040000}"/>
+    <cellStyle name="Normal 5 8" xfId="216" xr:uid="{00000000-0005-0000-0000-000007040000}"/>
+    <cellStyle name="Normal 5 8 2" xfId="398" xr:uid="{00000000-0005-0000-0000-000008040000}"/>
+    <cellStyle name="Normal 5 8_CS" xfId="493" xr:uid="{00000000-0005-0000-0000-000009040000}"/>
+    <cellStyle name="Normal 5 9" xfId="321" xr:uid="{00000000-0005-0000-0000-00000A040000}"/>
+    <cellStyle name="Normal 5_CS" xfId="501" xr:uid="{00000000-0005-0000-0000-00000B040000}"/>
+    <cellStyle name="Normal 50" xfId="1159" xr:uid="{00000000-0005-0000-0000-00000C040000}"/>
+    <cellStyle name="Normal 51" xfId="1160" xr:uid="{00000000-0005-0000-0000-00000D040000}"/>
+    <cellStyle name="Normal 52" xfId="1156" xr:uid="{00000000-0005-0000-0000-00000E040000}"/>
+    <cellStyle name="Normal 53" xfId="1161" xr:uid="{00000000-0005-0000-0000-00000F040000}"/>
+    <cellStyle name="Normal 54" xfId="1162" xr:uid="{00000000-0005-0000-0000-000010040000}"/>
+    <cellStyle name="Normal 55" xfId="1168" xr:uid="{00000000-0005-0000-0000-000011040000}"/>
+    <cellStyle name="Normal 56" xfId="1169" xr:uid="{00000000-0005-0000-0000-000012040000}"/>
+    <cellStyle name="Normal 57" xfId="1170" xr:uid="{00000000-0005-0000-0000-000013040000}"/>
+    <cellStyle name="Normal 58" xfId="1171" xr:uid="{00000000-0005-0000-0000-000014040000}"/>
+    <cellStyle name="Normal 59" xfId="1167" xr:uid="{00000000-0005-0000-0000-000015040000}"/>
+    <cellStyle name="Normal 6" xfId="114" xr:uid="{00000000-0005-0000-0000-000016040000}"/>
+    <cellStyle name="Normal 6 2" xfId="782" xr:uid="{00000000-0005-0000-0000-000017040000}"/>
+    <cellStyle name="Normal 60" xfId="1172" xr:uid="{00000000-0005-0000-0000-000018040000}"/>
+    <cellStyle name="Normal 61" xfId="1166" xr:uid="{00000000-0005-0000-0000-000019040000}"/>
+    <cellStyle name="Normal 62" xfId="1173" xr:uid="{00000000-0005-0000-0000-00001A040000}"/>
+    <cellStyle name="Normal 63" xfId="1174" xr:uid="{00000000-0005-0000-0000-00001B040000}"/>
+    <cellStyle name="Normal 64" xfId="1183" xr:uid="{00000000-0005-0000-0000-00001C040000}"/>
+    <cellStyle name="Normal 65" xfId="1187" xr:uid="{00000000-0005-0000-0000-00001D040000}"/>
+    <cellStyle name="Normal 66" xfId="1188" xr:uid="{00000000-0005-0000-0000-00001E040000}"/>
+    <cellStyle name="Normal 67" xfId="1189" xr:uid="{00000000-0005-0000-0000-00001F040000}"/>
+    <cellStyle name="Normal 68" xfId="1190" xr:uid="{00000000-0005-0000-0000-000020040000}"/>
+    <cellStyle name="Normal 69" xfId="1202" xr:uid="{00000000-0005-0000-0000-000021040000}"/>
+    <cellStyle name="Normal 7" xfId="115" xr:uid="{00000000-0005-0000-0000-000022040000}"/>
+    <cellStyle name="Normal 7 2" xfId="783" xr:uid="{00000000-0005-0000-0000-000023040000}"/>
+    <cellStyle name="Normal 70" xfId="1203" xr:uid="{00000000-0005-0000-0000-000024040000}"/>
+    <cellStyle name="Normal 71" xfId="1204" xr:uid="{00000000-0005-0000-0000-000025040000}"/>
+    <cellStyle name="Normal 72" xfId="1205" xr:uid="{00000000-0005-0000-0000-000026040000}"/>
+    <cellStyle name="Normal 73" xfId="1206" xr:uid="{00000000-0005-0000-0000-000027040000}"/>
+    <cellStyle name="Normal 74" xfId="1212" xr:uid="{00000000-0005-0000-0000-000028040000}"/>
+    <cellStyle name="Normal 75" xfId="1213" xr:uid="{00000000-0005-0000-0000-000029040000}"/>
+    <cellStyle name="Normal 76" xfId="1211" xr:uid="{00000000-0005-0000-0000-00002A040000}"/>
+    <cellStyle name="Normal 77" xfId="1215" xr:uid="{00000000-0005-0000-0000-00002B040000}"/>
+    <cellStyle name="Normal 78" xfId="1210" xr:uid="{00000000-0005-0000-0000-00002C040000}"/>
+    <cellStyle name="Normal 79" xfId="1214" xr:uid="{00000000-0005-0000-0000-00002D040000}"/>
+    <cellStyle name="Normal 8" xfId="116" xr:uid="{00000000-0005-0000-0000-00002E040000}"/>
+    <cellStyle name="Normal 8 2" xfId="784" xr:uid="{00000000-0005-0000-0000-00002F040000}"/>
+    <cellStyle name="Normal 80" xfId="1216" xr:uid="{00000000-0005-0000-0000-000030040000}"/>
+    <cellStyle name="Normal 81" xfId="1217" xr:uid="{00000000-0005-0000-0000-000031040000}"/>
+    <cellStyle name="Normal 82" xfId="1218" xr:uid="{00000000-0005-0000-0000-000032040000}"/>
+    <cellStyle name="Normal 83" xfId="1219" xr:uid="{00000000-0005-0000-0000-000033040000}"/>
+    <cellStyle name="Normal 84" xfId="1220" xr:uid="{00000000-0005-0000-0000-000034040000}"/>
+    <cellStyle name="Normal 85" xfId="1221" xr:uid="{00000000-0005-0000-0000-000035040000}"/>
+    <cellStyle name="Normal 86" xfId="1222" xr:uid="{00000000-0005-0000-0000-000036040000}"/>
+    <cellStyle name="Normal 87" xfId="1226" xr:uid="{00000000-0005-0000-0000-000037040000}"/>
+    <cellStyle name="Normal 88" xfId="1227" xr:uid="{00000000-0005-0000-0000-000038040000}"/>
+    <cellStyle name="Normal 89" xfId="1228" xr:uid="{00000000-0005-0000-0000-000039040000}"/>
+    <cellStyle name="Normal 9" xfId="117" xr:uid="{00000000-0005-0000-0000-00003A040000}"/>
+    <cellStyle name="Normal 9 10" xfId="1105" xr:uid="{00000000-0005-0000-0000-00003B040000}"/>
+    <cellStyle name="Normal 9 2" xfId="118" xr:uid="{00000000-0005-0000-0000-00003C040000}"/>
+    <cellStyle name="Normal 9 2 10" xfId="1152" xr:uid="{00000000-0005-0000-0000-00003D040000}"/>
+    <cellStyle name="Normal 9 2 2" xfId="232" xr:uid="{00000000-0005-0000-0000-00003E040000}"/>
+    <cellStyle name="Normal 9 2 2 2" xfId="414" xr:uid="{00000000-0005-0000-0000-00003F040000}"/>
+    <cellStyle name="Normal 9 2 2_CS" xfId="492" xr:uid="{00000000-0005-0000-0000-000040040000}"/>
+    <cellStyle name="Normal 9 2 3" xfId="337" xr:uid="{00000000-0005-0000-0000-000041040000}"/>
+    <cellStyle name="Normal 9 2 4" xfId="786" xr:uid="{00000000-0005-0000-0000-000042040000}"/>
+    <cellStyle name="Normal 9 2 5" xfId="954" xr:uid="{00000000-0005-0000-0000-000043040000}"/>
+    <cellStyle name="Normal 9 2 6" xfId="1009" xr:uid="{00000000-0005-0000-0000-000044040000}"/>
+    <cellStyle name="Normal 9 2 7" xfId="1062" xr:uid="{00000000-0005-0000-0000-000045040000}"/>
+    <cellStyle name="Normal 9 2 8" xfId="1106" xr:uid="{00000000-0005-0000-0000-000046040000}"/>
+    <cellStyle name="Normal 9 2 9" xfId="1139" xr:uid="{00000000-0005-0000-0000-000047040000}"/>
+    <cellStyle name="Normal 9 2_CS" xfId="545" xr:uid="{00000000-0005-0000-0000-000048040000}"/>
+    <cellStyle name="Normal 9 3" xfId="119" xr:uid="{00000000-0005-0000-0000-000049040000}"/>
+    <cellStyle name="Normal 9 3 10" xfId="1153" xr:uid="{00000000-0005-0000-0000-00004A040000}"/>
+    <cellStyle name="Normal 9 3 2" xfId="233" xr:uid="{00000000-0005-0000-0000-00004B040000}"/>
+    <cellStyle name="Normal 9 3 2 2" xfId="415" xr:uid="{00000000-0005-0000-0000-00004C040000}"/>
+    <cellStyle name="Normal 9 3 2_CS" xfId="491" xr:uid="{00000000-0005-0000-0000-00004D040000}"/>
+    <cellStyle name="Normal 9 3 3" xfId="338" xr:uid="{00000000-0005-0000-0000-00004E040000}"/>
+    <cellStyle name="Normal 9 3 4" xfId="787" xr:uid="{00000000-0005-0000-0000-00004F040000}"/>
+    <cellStyle name="Normal 9 3 5" xfId="955" xr:uid="{00000000-0005-0000-0000-000050040000}"/>
+    <cellStyle name="Normal 9 3 6" xfId="1010" xr:uid="{00000000-0005-0000-0000-000051040000}"/>
+    <cellStyle name="Normal 9 3 7" xfId="1063" xr:uid="{00000000-0005-0000-0000-000052040000}"/>
+    <cellStyle name="Normal 9 3 8" xfId="1107" xr:uid="{00000000-0005-0000-0000-000053040000}"/>
+    <cellStyle name="Normal 9 3 9" xfId="1140" xr:uid="{00000000-0005-0000-0000-000054040000}"/>
+    <cellStyle name="Normal 9 3_CS" xfId="544" xr:uid="{00000000-0005-0000-0000-000055040000}"/>
+    <cellStyle name="Normal 9 4" xfId="120" xr:uid="{00000000-0005-0000-0000-000056040000}"/>
+    <cellStyle name="Normal 9 4 10" xfId="1154" xr:uid="{00000000-0005-0000-0000-000057040000}"/>
+    <cellStyle name="Normal 9 4 2" xfId="234" xr:uid="{00000000-0005-0000-0000-000058040000}"/>
+    <cellStyle name="Normal 9 4 2 2" xfId="416" xr:uid="{00000000-0005-0000-0000-000059040000}"/>
+    <cellStyle name="Normal 9 4 2_CS" xfId="490" xr:uid="{00000000-0005-0000-0000-00005A040000}"/>
+    <cellStyle name="Normal 9 4 3" xfId="339" xr:uid="{00000000-0005-0000-0000-00005B040000}"/>
+    <cellStyle name="Normal 9 4 4" xfId="788" xr:uid="{00000000-0005-0000-0000-00005C040000}"/>
+    <cellStyle name="Normal 9 4 5" xfId="956" xr:uid="{00000000-0005-0000-0000-00005D040000}"/>
+    <cellStyle name="Normal 9 4 6" xfId="1011" xr:uid="{00000000-0005-0000-0000-00005E040000}"/>
+    <cellStyle name="Normal 9 4 7" xfId="1064" xr:uid="{00000000-0005-0000-0000-00005F040000}"/>
+    <cellStyle name="Normal 9 4 8" xfId="1108" xr:uid="{00000000-0005-0000-0000-000060040000}"/>
+    <cellStyle name="Normal 9 4 9" xfId="1141" xr:uid="{00000000-0005-0000-0000-000061040000}"/>
+    <cellStyle name="Normal 9 4_CS" xfId="543" xr:uid="{00000000-0005-0000-0000-000062040000}"/>
+    <cellStyle name="Normal 9 5" xfId="121" xr:uid="{00000000-0005-0000-0000-000063040000}"/>
+    <cellStyle name="Normal 9 5 10" xfId="1155" xr:uid="{00000000-0005-0000-0000-000064040000}"/>
+    <cellStyle name="Normal 9 5 2" xfId="235" xr:uid="{00000000-0005-0000-0000-000065040000}"/>
+    <cellStyle name="Normal 9 5 2 2" xfId="417" xr:uid="{00000000-0005-0000-0000-000066040000}"/>
+    <cellStyle name="Normal 9 5 2_CS" xfId="502" xr:uid="{00000000-0005-0000-0000-000067040000}"/>
+    <cellStyle name="Normal 9 5 3" xfId="340" xr:uid="{00000000-0005-0000-0000-000068040000}"/>
+    <cellStyle name="Normal 9 5 4" xfId="789" xr:uid="{00000000-0005-0000-0000-000069040000}"/>
+    <cellStyle name="Normal 9 5 5" xfId="957" xr:uid="{00000000-0005-0000-0000-00006A040000}"/>
+    <cellStyle name="Normal 9 5 6" xfId="1012" xr:uid="{00000000-0005-0000-0000-00006B040000}"/>
+    <cellStyle name="Normal 9 5 7" xfId="1065" xr:uid="{00000000-0005-0000-0000-00006C040000}"/>
+    <cellStyle name="Normal 9 5 8" xfId="1109" xr:uid="{00000000-0005-0000-0000-00006D040000}"/>
+    <cellStyle name="Normal 9 5 9" xfId="1142" xr:uid="{00000000-0005-0000-0000-00006E040000}"/>
+    <cellStyle name="Normal 9 5_CS" xfId="280" xr:uid="{00000000-0005-0000-0000-00006F040000}"/>
+    <cellStyle name="Normal 9 6" xfId="785" xr:uid="{00000000-0005-0000-0000-000070040000}"/>
+    <cellStyle name="Normal 9 7" xfId="953" xr:uid="{00000000-0005-0000-0000-000071040000}"/>
+    <cellStyle name="Normal 9 8" xfId="1008" xr:uid="{00000000-0005-0000-0000-000072040000}"/>
+    <cellStyle name="Normal 9 9" xfId="1061" xr:uid="{00000000-0005-0000-0000-000073040000}"/>
+    <cellStyle name="Normal 90" xfId="1229" xr:uid="{00000000-0005-0000-0000-000074040000}"/>
+    <cellStyle name="Normal 91" xfId="1230" xr:uid="{00000000-0005-0000-0000-000075040000}"/>
+    <cellStyle name="Normal 92" xfId="1231" xr:uid="{00000000-0005-0000-0000-000076040000}"/>
+    <cellStyle name="Normal 93" xfId="1232" xr:uid="{00000000-0005-0000-0000-000077040000}"/>
+    <cellStyle name="Normal 94" xfId="1236" xr:uid="{00000000-0005-0000-0000-000078040000}"/>
+    <cellStyle name="Normal 95" xfId="1237" xr:uid="{00000000-0005-0000-0000-000079040000}"/>
+    <cellStyle name="Normal 96" xfId="1238" xr:uid="{00000000-0005-0000-0000-00007A040000}"/>
+    <cellStyle name="Note 2" xfId="614" xr:uid="{00000000-0005-0000-0000-00007B040000}"/>
+    <cellStyle name="Note 2 2" xfId="790" xr:uid="{00000000-0005-0000-0000-00007C040000}"/>
+    <cellStyle name="Output 2" xfId="615" xr:uid="{00000000-0005-0000-0000-00007D040000}"/>
+    <cellStyle name="Output 2 2" xfId="791" xr:uid="{00000000-0005-0000-0000-00007E040000}"/>
+    <cellStyle name="Percent 10" xfId="1207" xr:uid="{00000000-0005-0000-0000-00007F040000}"/>
+    <cellStyle name="Percent 11" xfId="1225" xr:uid="{00000000-0005-0000-0000-000080040000}"/>
+    <cellStyle name="Percent 12" xfId="1235" xr:uid="{00000000-0005-0000-0000-000081040000}"/>
+    <cellStyle name="Percent 13" xfId="1241" xr:uid="{00000000-0005-0000-0000-000082040000}"/>
+    <cellStyle name="Percent 2" xfId="122" xr:uid="{00000000-0005-0000-0000-000083040000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-000084040000}"/>
+    <cellStyle name="Percent 4" xfId="616" xr:uid="{00000000-0005-0000-0000-000085040000}"/>
+    <cellStyle name="Percent 4 2" xfId="635" xr:uid="{00000000-0005-0000-0000-000086040000}"/>
+    <cellStyle name="Percent 5" xfId="631" xr:uid="{00000000-0005-0000-0000-000087040000}"/>
+    <cellStyle name="Percent 6" xfId="792" xr:uid="{00000000-0005-0000-0000-000088040000}"/>
+    <cellStyle name="Percent 7" xfId="1165" xr:uid="{00000000-0005-0000-0000-000089040000}"/>
+    <cellStyle name="Percent 8" xfId="1186" xr:uid="{00000000-0005-0000-0000-00008A040000}"/>
+    <cellStyle name="Percent 9" xfId="1201" xr:uid="{00000000-0005-0000-0000-00008B040000}"/>
+    <cellStyle name="Title 2" xfId="617" xr:uid="{00000000-0005-0000-0000-00008C040000}"/>
+    <cellStyle name="Title 2 2" xfId="793" xr:uid="{00000000-0005-0000-0000-00008D040000}"/>
+    <cellStyle name="Total 2" xfId="618" xr:uid="{00000000-0005-0000-0000-00008E040000}"/>
+    <cellStyle name="Total 2 2" xfId="794" xr:uid="{00000000-0005-0000-0000-00008F040000}"/>
+    <cellStyle name="Warning Text 2" xfId="619" xr:uid="{00000000-0005-0000-0000-000090040000}"/>
+    <cellStyle name="Warning Text 2 2" xfId="795" xr:uid="{00000000-0005-0000-0000-000091040000}"/>
+    <cellStyle name="千位分隔 2 3" xfId="124" xr:uid="{00000000-0005-0000-0000-000092040000}"/>
+    <cellStyle name="好" xfId="125" xr:uid="{00000000-0005-0000-0000-000093040000}"/>
+    <cellStyle name="好 2" xfId="796" xr:uid="{00000000-0005-0000-0000-000094040000}"/>
+    <cellStyle name="差" xfId="126" xr:uid="{00000000-0005-0000-0000-000095040000}"/>
+    <cellStyle name="差 2" xfId="797" xr:uid="{00000000-0005-0000-0000-000096040000}"/>
+    <cellStyle name="常规 2" xfId="127" xr:uid="{00000000-0005-0000-0000-000097040000}"/>
+    <cellStyle name="常规 2 8" xfId="128" xr:uid="{00000000-0005-0000-0000-000098040000}"/>
+    <cellStyle name="常规 20" xfId="129" xr:uid="{00000000-0005-0000-0000-000099040000}"/>
+    <cellStyle name="常规 21" xfId="130" xr:uid="{00000000-0005-0000-0000-00009A040000}"/>
+    <cellStyle name="常规 22" xfId="131" xr:uid="{00000000-0005-0000-0000-00009B040000}"/>
+    <cellStyle name="常规 23" xfId="132" xr:uid="{00000000-0005-0000-0000-00009C040000}"/>
+    <cellStyle name="常规 26" xfId="133" xr:uid="{00000000-0005-0000-0000-00009D040000}"/>
+    <cellStyle name="常规 3" xfId="134" xr:uid="{00000000-0005-0000-0000-00009E040000}"/>
+    <cellStyle name="常规 4" xfId="135" xr:uid="{00000000-0005-0000-0000-00009F040000}"/>
+    <cellStyle name="常规 4 2" xfId="798" xr:uid="{00000000-0005-0000-0000-0000A0040000}"/>
+    <cellStyle name="强调文字颜色 1" xfId="136" xr:uid="{00000000-0005-0000-0000-0000A1040000}"/>
+    <cellStyle name="强调文字颜色 1 2" xfId="799" xr:uid="{00000000-0005-0000-0000-0000A2040000}"/>
+    <cellStyle name="强调文字颜色 2" xfId="137" xr:uid="{00000000-0005-0000-0000-0000A3040000}"/>
+    <cellStyle name="强调文字颜色 2 2" xfId="800" xr:uid="{00000000-0005-0000-0000-0000A4040000}"/>
+    <cellStyle name="强调文字颜色 3" xfId="138" xr:uid="{00000000-0005-0000-0000-0000A5040000}"/>
+    <cellStyle name="强调文字颜色 3 2" xfId="801" xr:uid="{00000000-0005-0000-0000-0000A6040000}"/>
+    <cellStyle name="强调文字颜色 4" xfId="139" xr:uid="{00000000-0005-0000-0000-0000A7040000}"/>
+    <cellStyle name="强调文字颜色 4 2" xfId="802" xr:uid="{00000000-0005-0000-0000-0000A8040000}"/>
+    <cellStyle name="强调文字颜色 5" xfId="140" xr:uid="{00000000-0005-0000-0000-0000A9040000}"/>
+    <cellStyle name="强调文字颜色 5 2" xfId="803" xr:uid="{00000000-0005-0000-0000-0000AA040000}"/>
+    <cellStyle name="强调文字颜色 6" xfId="141" xr:uid="{00000000-0005-0000-0000-0000AB040000}"/>
+    <cellStyle name="强调文字颜色 6 2" xfId="804" xr:uid="{00000000-0005-0000-0000-0000AC040000}"/>
+    <cellStyle name="标题" xfId="142" xr:uid="{00000000-0005-0000-0000-0000AD040000}"/>
+    <cellStyle name="标题 1" xfId="143" xr:uid="{00000000-0005-0000-0000-0000AE040000}"/>
+    <cellStyle name="标题 1 2" xfId="806" xr:uid="{00000000-0005-0000-0000-0000AF040000}"/>
+    <cellStyle name="标题 2" xfId="144" xr:uid="{00000000-0005-0000-0000-0000B0040000}"/>
+    <cellStyle name="标题 2 2" xfId="807" xr:uid="{00000000-0005-0000-0000-0000B1040000}"/>
+    <cellStyle name="标题 3" xfId="145" xr:uid="{00000000-0005-0000-0000-0000B2040000}"/>
+    <cellStyle name="标题 3 2" xfId="808" xr:uid="{00000000-0005-0000-0000-0000B3040000}"/>
+    <cellStyle name="标题 4" xfId="146" xr:uid="{00000000-0005-0000-0000-0000B4040000}"/>
+    <cellStyle name="标题 4 2" xfId="809" xr:uid="{00000000-0005-0000-0000-0000B5040000}"/>
+    <cellStyle name="标题 5" xfId="620" xr:uid="{00000000-0005-0000-0000-0000B6040000}"/>
+    <cellStyle name="标题 6" xfId="805" xr:uid="{00000000-0005-0000-0000-0000B7040000}"/>
+    <cellStyle name="检查单元格" xfId="147" xr:uid="{00000000-0005-0000-0000-0000B8040000}"/>
+    <cellStyle name="检查单元格 2" xfId="810" xr:uid="{00000000-0005-0000-0000-0000B9040000}"/>
+    <cellStyle name="汇总" xfId="148" xr:uid="{00000000-0005-0000-0000-0000BA040000}"/>
+    <cellStyle name="汇总 2" xfId="557" xr:uid="{00000000-0005-0000-0000-0000BB040000}"/>
+    <cellStyle name="汇总 2 2" xfId="626" xr:uid="{00000000-0005-0000-0000-0000BC040000}"/>
+    <cellStyle name="汇总 3" xfId="564" xr:uid="{00000000-0005-0000-0000-0000BD040000}"/>
+    <cellStyle name="汇总 4" xfId="811" xr:uid="{00000000-0005-0000-0000-0000BE040000}"/>
+    <cellStyle name="注释" xfId="149" xr:uid="{00000000-0005-0000-0000-0000BF040000}"/>
+    <cellStyle name="注释 2" xfId="558" xr:uid="{00000000-0005-0000-0000-0000C0040000}"/>
+    <cellStyle name="注释 2 2" xfId="627" xr:uid="{00000000-0005-0000-0000-0000C1040000}"/>
+    <cellStyle name="注释 3" xfId="563" xr:uid="{00000000-0005-0000-0000-0000C2040000}"/>
+    <cellStyle name="注释 4" xfId="812" xr:uid="{00000000-0005-0000-0000-0000C3040000}"/>
+    <cellStyle name="解释性文本" xfId="150" xr:uid="{00000000-0005-0000-0000-0000C4040000}"/>
+    <cellStyle name="解释性文本 2" xfId="813" xr:uid="{00000000-0005-0000-0000-0000C5040000}"/>
+    <cellStyle name="警告文本" xfId="151" xr:uid="{00000000-0005-0000-0000-0000C6040000}"/>
+    <cellStyle name="警告文本 2" xfId="814" xr:uid="{00000000-0005-0000-0000-0000C7040000}"/>
+    <cellStyle name="计算" xfId="152" xr:uid="{00000000-0005-0000-0000-0000C8040000}"/>
+    <cellStyle name="计算 2" xfId="559" xr:uid="{00000000-0005-0000-0000-0000C9040000}"/>
+    <cellStyle name="计算 2 2" xfId="628" xr:uid="{00000000-0005-0000-0000-0000CA040000}"/>
+    <cellStyle name="计算 3" xfId="562" xr:uid="{00000000-0005-0000-0000-0000CB040000}"/>
+    <cellStyle name="计算 4" xfId="815" xr:uid="{00000000-0005-0000-0000-0000CC040000}"/>
+    <cellStyle name="输入" xfId="153" xr:uid="{00000000-0005-0000-0000-0000CD040000}"/>
+    <cellStyle name="输入 2" xfId="560" xr:uid="{00000000-0005-0000-0000-0000CE040000}"/>
+    <cellStyle name="输入 2 2" xfId="629" xr:uid="{00000000-0005-0000-0000-0000CF040000}"/>
+    <cellStyle name="输入 3" xfId="556" xr:uid="{00000000-0005-0000-0000-0000D0040000}"/>
+    <cellStyle name="输入 4" xfId="816" xr:uid="{00000000-0005-0000-0000-0000D1040000}"/>
+    <cellStyle name="输出" xfId="154" xr:uid="{00000000-0005-0000-0000-0000D2040000}"/>
+    <cellStyle name="输出 2" xfId="561" xr:uid="{00000000-0005-0000-0000-0000D3040000}"/>
+    <cellStyle name="输出 2 2" xfId="630" xr:uid="{00000000-0005-0000-0000-0000D4040000}"/>
+    <cellStyle name="输出 3" xfId="555" xr:uid="{00000000-0005-0000-0000-0000D5040000}"/>
+    <cellStyle name="输出 4" xfId="817" xr:uid="{00000000-0005-0000-0000-0000D6040000}"/>
+    <cellStyle name="适中" xfId="155" xr:uid="{00000000-0005-0000-0000-0000D7040000}"/>
+    <cellStyle name="适中 2" xfId="818" xr:uid="{00000000-0005-0000-0000-0000D8040000}"/>
+    <cellStyle name="链接单元格" xfId="156" xr:uid="{00000000-0005-0000-0000-0000D9040000}"/>
+    <cellStyle name="链接单元格 2" xfId="819" xr:uid="{00000000-0005-0000-0000-0000DA040000}"/>
   </cellStyles>
   <dxfs count="443">
     <dxf>
@@ -21260,7 +21269,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21293,9 +21302,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -21328,6 +21354,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -21503,16 +21546,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView topLeftCell="A121" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A119" sqref="A119"/>
+    <sheetView topLeftCell="A52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="49.28515625" style="40" customWidth="1"/>
+    <col min="1" max="1" width="49.25" style="40" customWidth="1"/>
     <col min="2" max="2" width="47" style="40" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21870,11 +21913,11 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30">
-      <c r="A45" s="133" t="s">
+    <row r="45" spans="1:2" ht="28.5">
+      <c r="A45" s="111" t="s">
         <v>2737</v>
       </c>
-      <c r="B45" s="133" t="s">
+      <c r="B45" s="111" t="s">
         <v>2738</v>
       </c>
     </row>
@@ -21902,11 +21945,11 @@
         <v>2743</v>
       </c>
     </row>
-    <row r="49" spans="1:2" ht="15">
-      <c r="A49" s="133" t="s">
+    <row r="49" spans="1:2" ht="14.25">
+      <c r="A49" s="111" t="s">
         <v>2762</v>
       </c>
-      <c r="B49" s="133" t="s">
+      <c r="B49" s="111" t="s">
         <v>2745</v>
       </c>
     </row>
@@ -21958,7 +22001,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="31.5">
+    <row r="56" spans="1:2">
       <c r="A56" s="72" t="s">
         <v>2711</v>
       </c>
@@ -21974,7 +22017,7 @@
         <v>2802</v>
       </c>
     </row>
-    <row r="58" spans="1:2" ht="31.5">
+    <row r="58" spans="1:2">
       <c r="A58" s="72" t="s">
         <v>1018</v>
       </c>
@@ -22006,11 +22049,11 @@
         <v>2878</v>
       </c>
     </row>
-    <row r="62" spans="1:2" ht="15">
-      <c r="A62" s="133" t="s">
+    <row r="62" spans="1:2" ht="14.25">
+      <c r="A62" s="111" t="s">
         <v>2930</v>
       </c>
-      <c r="B62" s="133" t="s">
+      <c r="B62" s="111" t="s">
         <v>2879</v>
       </c>
     </row>
@@ -22071,11 +22114,11 @@
         <v>2885</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="15">
-      <c r="A70" s="133" t="s">
+    <row r="70" spans="1:3" ht="14.25">
+      <c r="A70" s="111" t="s">
         <v>2829</v>
       </c>
-      <c r="B70" s="133" t="s">
+      <c r="B70" s="111" t="s">
         <v>2886</v>
       </c>
     </row>
@@ -22159,11 +22202,11 @@
         <v>2894</v>
       </c>
     </row>
-    <row r="81" spans="1:2" ht="15">
-      <c r="A81" s="133" t="s">
+    <row r="81" spans="1:2" ht="14.25">
+      <c r="A81" s="111" t="s">
         <v>2816</v>
       </c>
-      <c r="B81" s="133" t="s">
+      <c r="B81" s="111" t="s">
         <v>2895</v>
       </c>
     </row>
@@ -22199,11 +22242,11 @@
         <v>2899</v>
       </c>
     </row>
-    <row r="86" spans="1:2" ht="15">
-      <c r="A86" s="133" t="s">
+    <row r="86" spans="1:2" ht="14.25">
+      <c r="A86" s="111" t="s">
         <v>2819</v>
       </c>
-      <c r="B86" s="133" t="s">
+      <c r="B86" s="111" t="s">
         <v>2900</v>
       </c>
     </row>
@@ -22399,11 +22442,11 @@
         <v>2841</v>
       </c>
     </row>
-    <row r="111" spans="1:2" ht="15">
-      <c r="A111" s="133" t="s">
+    <row r="111" spans="1:2" ht="14.25">
+      <c r="A111" s="111" t="s">
         <v>1939</v>
       </c>
-      <c r="B111" s="133" t="s">
+      <c r="B111" s="111" t="s">
         <v>2923</v>
       </c>
     </row>
@@ -22471,27 +22514,27 @@
         <v>2848</v>
       </c>
     </row>
-    <row r="120" spans="1:2" ht="15">
-      <c r="A120" s="133" t="s">
+    <row r="120" spans="1:2" ht="14.25">
+      <c r="A120" s="111" t="s">
         <v>2275</v>
       </c>
-      <c r="B120" s="133" t="s">
+      <c r="B120" s="111" t="s">
         <v>2849</v>
       </c>
     </row>
-    <row r="121" spans="1:2" ht="15">
-      <c r="A121" s="133" t="s">
+    <row r="121" spans="1:2" ht="14.25">
+      <c r="A121" s="111" t="s">
         <v>681</v>
       </c>
-      <c r="B121" s="133" t="s">
+      <c r="B121" s="111" t="s">
         <v>2850</v>
       </c>
     </row>
-    <row r="122" spans="1:2" ht="15">
-      <c r="A122" s="133" t="s">
+    <row r="122" spans="1:2" ht="14.25">
+      <c r="A122" s="111" t="s">
         <v>582</v>
       </c>
-      <c r="B122" s="133" t="s">
+      <c r="B122" s="111" t="s">
         <v>2851</v>
       </c>
     </row>
@@ -22567,11 +22610,11 @@
         <v>2860</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="15">
-      <c r="A132" s="133" t="s">
+    <row r="132" spans="1:2" ht="14.25">
+      <c r="A132" s="111" t="s">
         <v>1014</v>
       </c>
-      <c r="B132" s="133" t="s">
+      <c r="B132" s="111" t="s">
         <v>2861</v>
       </c>
     </row>
@@ -22607,11 +22650,11 @@
         <v>2927</v>
       </c>
     </row>
-    <row r="137" spans="1:2" ht="15">
-      <c r="A137" s="133" t="s">
+    <row r="137" spans="1:2" ht="14.25">
+      <c r="A137" s="111" t="s">
         <v>665</v>
       </c>
-      <c r="B137" s="133" t="s">
+      <c r="B137" s="111" t="s">
         <v>2863</v>
       </c>
     </row>
@@ -22740,7 +22783,7 @@
       <c r="B153" s="72"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B152"/>
+  <autoFilter ref="A1:B152" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <sortState ref="B179:C221">
     <sortCondition ref="B179"/>
   </sortState>
@@ -22773,34 +22816,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O930"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C560" sqref="C560:C561"/>
+      <pane ySplit="1" topLeftCell="A435" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H440" sqref="H440"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.42578125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.375" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" style="79"/>
-    <col min="2" max="2" width="10.42578125" style="79" customWidth="1"/>
+    <col min="1" max="1" width="10.375" style="79"/>
+    <col min="2" max="2" width="10.375" style="79" customWidth="1"/>
     <col min="3" max="3" width="21" style="79" customWidth="1"/>
     <col min="4" max="4" width="29" style="79" customWidth="1"/>
     <col min="5" max="5" width="32" style="79" customWidth="1"/>
-    <col min="6" max="6" width="25.85546875" style="79" customWidth="1"/>
-    <col min="7" max="7" width="30.140625" style="79" customWidth="1"/>
+    <col min="6" max="6" width="25.875" style="79" customWidth="1"/>
+    <col min="7" max="7" width="30.125" style="79" customWidth="1"/>
     <col min="8" max="8" width="23" style="79" customWidth="1"/>
-    <col min="9" max="9" width="23.7109375" style="79" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" style="79" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" style="79" customWidth="1"/>
-    <col min="12" max="12" width="17.28515625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="23.75" style="79" customWidth="1"/>
+    <col min="10" max="10" width="10.375" style="79" customWidth="1"/>
+    <col min="11" max="11" width="12.125" style="79" customWidth="1"/>
+    <col min="12" max="12" width="17.25" style="79" customWidth="1"/>
     <col min="13" max="14" width="21" style="79" customWidth="1"/>
-    <col min="15" max="15" width="25.85546875" style="79" customWidth="1"/>
-    <col min="16" max="16384" width="10.42578125" style="79"/>
+    <col min="15" max="15" width="25.875" style="79" customWidth="1"/>
+    <col min="16" max="16384" width="10.375" style="79"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="31.5">
+    <row r="1" spans="1:15">
       <c r="A1" s="74"/>
       <c r="B1" s="75"/>
       <c r="C1" s="76" t="s">
@@ -22839,7 +22882,7 @@
       <c r="N1" s="76"/>
       <c r="O1" s="78"/>
     </row>
-    <row r="2" spans="1:15" ht="31.5">
+    <row r="2" spans="1:15">
       <c r="A2" s="80">
         <v>1</v>
       </c>
@@ -22995,7 +23038,7 @@
       </c>
       <c r="O5" s="78"/>
     </row>
-    <row r="6" spans="1:15" ht="53.25">
+    <row r="6" spans="1:15" ht="34.5">
       <c r="A6" s="80">
         <v>5</v>
       </c>
@@ -23039,7 +23082,7 @@
       </c>
       <c r="O6" s="78"/>
     </row>
-    <row r="7" spans="1:15" ht="31.5">
+    <row r="7" spans="1:15">
       <c r="A7" s="80">
         <v>6</v>
       </c>
@@ -23073,7 +23116,7 @@
       </c>
       <c r="O7" s="78"/>
     </row>
-    <row r="8" spans="1:15" ht="47.25">
+    <row r="8" spans="1:15" ht="31.5">
       <c r="A8" s="80">
         <v>7</v>
       </c>
@@ -23155,7 +23198,7 @@
       </c>
       <c r="O9" s="78"/>
     </row>
-    <row r="10" spans="1:15" ht="31.5">
+    <row r="10" spans="1:15">
       <c r="A10" s="80">
         <v>9</v>
       </c>
@@ -23327,7 +23370,7 @@
       </c>
       <c r="O13" s="78"/>
     </row>
-    <row r="14" spans="1:15" ht="50.25">
+    <row r="14" spans="1:15" ht="34.5">
       <c r="A14" s="80">
         <v>13</v>
       </c>
@@ -23445,7 +23488,7 @@
       </c>
       <c r="O16" s="78"/>
     </row>
-    <row r="17" spans="1:15" ht="31.5">
+    <row r="17" spans="1:15">
       <c r="A17" s="80">
         <v>16</v>
       </c>
@@ -23565,7 +23608,7 @@
       </c>
       <c r="O19" s="78"/>
     </row>
-    <row r="20" spans="1:15" ht="31.5">
+    <row r="20" spans="1:15">
       <c r="A20" s="80">
         <v>19</v>
       </c>
@@ -23603,7 +23646,7 @@
       </c>
       <c r="O20" s="78"/>
     </row>
-    <row r="21" spans="1:15" ht="31.5">
+    <row r="21" spans="1:15">
       <c r="A21" s="80">
         <v>20</v>
       </c>
@@ -23643,7 +23686,7 @@
       </c>
       <c r="O21" s="78"/>
     </row>
-    <row r="22" spans="1:15" ht="31.5">
+    <row r="22" spans="1:15">
       <c r="A22" s="80">
         <v>21</v>
       </c>
@@ -23687,7 +23730,7 @@
       </c>
       <c r="O22" s="78"/>
     </row>
-    <row r="23" spans="1:15" ht="47.25">
+    <row r="23" spans="1:15" ht="34.5">
       <c r="A23" s="80">
         <v>22</v>
       </c>
@@ -23951,7 +23994,7 @@
       </c>
       <c r="O28" s="78"/>
     </row>
-    <row r="29" spans="1:15" ht="50.25">
+    <row r="29" spans="1:15" ht="34.5">
       <c r="A29" s="80">
         <v>28</v>
       </c>
@@ -24171,7 +24214,7 @@
       </c>
       <c r="O33" s="78"/>
     </row>
-    <row r="34" spans="1:15" ht="31.5">
+    <row r="34" spans="1:15">
       <c r="A34" s="80">
         <v>33</v>
       </c>
@@ -24403,7 +24446,7 @@
       </c>
       <c r="O39" s="78"/>
     </row>
-    <row r="40" spans="1:15" ht="31.5">
+    <row r="40" spans="1:15">
       <c r="A40" s="80">
         <v>39</v>
       </c>
@@ -24731,7 +24774,7 @@
       </c>
       <c r="O47" s="78"/>
     </row>
-    <row r="48" spans="1:15" ht="31.5">
+    <row r="48" spans="1:15">
       <c r="A48" s="80">
         <v>47</v>
       </c>
@@ -24775,7 +24818,7 @@
       </c>
       <c r="O48" s="78"/>
     </row>
-    <row r="49" spans="1:15" ht="31.5">
+    <row r="49" spans="1:15">
       <c r="A49" s="80">
         <v>48</v>
       </c>
@@ -24903,7 +24946,7 @@
       </c>
       <c r="O51" s="78"/>
     </row>
-    <row r="52" spans="1:15" ht="47.25">
+    <row r="52" spans="1:15" ht="31.5">
       <c r="A52" s="80">
         <v>51</v>
       </c>
@@ -25079,7 +25122,7 @@
       </c>
       <c r="O55" s="78"/>
     </row>
-    <row r="56" spans="1:15" ht="47.25">
+    <row r="56" spans="1:15" ht="31.5">
       <c r="A56" s="80">
         <v>55</v>
       </c>
@@ -25289,7 +25332,7 @@
       </c>
       <c r="O60" s="78"/>
     </row>
-    <row r="61" spans="1:15" ht="47.25">
+    <row r="61" spans="1:15" ht="31.5">
       <c r="A61" s="80">
         <v>60</v>
       </c>
@@ -25365,7 +25408,7 @@
       </c>
       <c r="O62" s="78"/>
     </row>
-    <row r="63" spans="1:15" ht="63">
+    <row r="63" spans="1:15" ht="47.25">
       <c r="A63" s="80">
         <v>62</v>
       </c>
@@ -25488,7 +25531,7 @@
       </c>
       <c r="O65" s="78"/>
     </row>
-    <row r="66" spans="1:15" ht="63">
+    <row r="66" spans="1:15" ht="47.25">
       <c r="A66" s="80">
         <v>65</v>
       </c>
@@ -25615,7 +25658,7 @@
       </c>
       <c r="O68" s="78"/>
     </row>
-    <row r="69" spans="1:15" ht="31.5">
+    <row r="69" spans="1:15">
       <c r="A69" s="80">
         <v>68</v>
       </c>
@@ -25739,7 +25782,7 @@
       </c>
       <c r="O71" s="78"/>
     </row>
-    <row r="72" spans="1:15" ht="31.5">
+    <row r="72" spans="1:15">
       <c r="A72" s="80">
         <v>71</v>
       </c>
@@ -25827,7 +25870,7 @@
       </c>
       <c r="O73" s="78"/>
     </row>
-    <row r="74" spans="1:15" ht="50.25">
+    <row r="74" spans="1:15" ht="34.5">
       <c r="A74" s="80">
         <v>73</v>
       </c>
@@ -25913,7 +25956,7 @@
       </c>
       <c r="O75" s="78"/>
     </row>
-    <row r="76" spans="1:15" ht="31.5">
+    <row r="76" spans="1:15">
       <c r="A76" s="80">
         <v>75</v>
       </c>
@@ -26381,7 +26424,7 @@
       </c>
       <c r="O88" s="78"/>
     </row>
-    <row r="89" spans="1:15" ht="31.5">
+    <row r="89" spans="1:15">
       <c r="A89" s="80">
         <v>88</v>
       </c>
@@ -27589,7 +27632,7 @@
       <c r="N125" s="82"/>
       <c r="O125" s="78"/>
     </row>
-    <row r="126" spans="1:15" ht="110.25">
+    <row r="126" spans="1:15" ht="78.75">
       <c r="A126" s="80">
         <v>125</v>
       </c>
@@ -27929,7 +27972,7 @@
       </c>
       <c r="O134" s="78"/>
     </row>
-    <row r="135" spans="1:15" ht="31.5">
+    <row r="135" spans="1:15">
       <c r="A135" s="80">
         <v>134</v>
       </c>
@@ -28183,7 +28226,7 @@
       </c>
       <c r="O141" s="78"/>
     </row>
-    <row r="142" spans="1:15" ht="31.5">
+    <row r="142" spans="1:15">
       <c r="A142" s="80">
         <v>141</v>
       </c>
@@ -28221,7 +28264,7 @@
       </c>
       <c r="O142" s="78"/>
     </row>
-    <row r="143" spans="1:15" ht="31.5">
+    <row r="143" spans="1:15">
       <c r="A143" s="80">
         <v>142</v>
       </c>
@@ -28293,7 +28336,7 @@
       </c>
       <c r="O144" s="78"/>
     </row>
-    <row r="145" spans="1:15" ht="31.5">
+    <row r="145" spans="1:15">
       <c r="A145" s="80">
         <v>144</v>
       </c>
@@ -28593,7 +28636,7 @@
       </c>
       <c r="O153" s="78"/>
     </row>
-    <row r="154" spans="1:15" ht="31.5">
+    <row r="154" spans="1:15">
       <c r="A154" s="80">
         <v>153</v>
       </c>
@@ -28631,7 +28674,7 @@
       </c>
       <c r="O154" s="78"/>
     </row>
-    <row r="155" spans="1:15" ht="31.5">
+    <row r="155" spans="1:15">
       <c r="A155" s="80">
         <v>154</v>
       </c>
@@ -28669,7 +28712,7 @@
       </c>
       <c r="O155" s="78"/>
     </row>
-    <row r="156" spans="1:15" ht="31.5">
+    <row r="156" spans="1:15">
       <c r="A156" s="80">
         <v>155</v>
       </c>
@@ -28707,7 +28750,7 @@
       </c>
       <c r="O156" s="78"/>
     </row>
-    <row r="157" spans="1:15" ht="31.5">
+    <row r="157" spans="1:15">
       <c r="A157" s="80">
         <v>156</v>
       </c>
@@ -28745,7 +28788,7 @@
       </c>
       <c r="O157" s="78"/>
     </row>
-    <row r="158" spans="1:15" ht="31.5">
+    <row r="158" spans="1:15">
       <c r="A158" s="80">
         <v>157</v>
       </c>
@@ -28783,7 +28826,7 @@
       </c>
       <c r="O158" s="78"/>
     </row>
-    <row r="159" spans="1:15" ht="31.5">
+    <row r="159" spans="1:15">
       <c r="A159" s="80">
         <v>158</v>
       </c>
@@ -28817,7 +28860,7 @@
       <c r="N159" s="82"/>
       <c r="O159" s="78"/>
     </row>
-    <row r="160" spans="1:15" ht="31.5">
+    <row r="160" spans="1:15">
       <c r="A160" s="80">
         <v>159</v>
       </c>
@@ -29145,7 +29188,7 @@
       </c>
       <c r="O169" s="78"/>
     </row>
-    <row r="170" spans="1:15" ht="31.5">
+    <row r="170" spans="1:15">
       <c r="A170" s="80">
         <v>169</v>
       </c>
@@ -29803,7 +29846,7 @@
       <c r="N190" s="82"/>
       <c r="O190" s="78"/>
     </row>
-    <row r="191" spans="1:15" ht="31.5">
+    <row r="191" spans="1:15">
       <c r="A191" s="80">
         <v>190</v>
       </c>
@@ -30131,7 +30174,7 @@
       <c r="N200" s="82"/>
       <c r="O200" s="78"/>
     </row>
-    <row r="201" spans="1:15" ht="47.25">
+    <row r="201" spans="1:15" ht="31.5">
       <c r="A201" s="80">
         <v>200</v>
       </c>
@@ -30219,7 +30262,7 @@
       </c>
       <c r="O202" s="78"/>
     </row>
-    <row r="203" spans="1:15" ht="31.5">
+    <row r="203" spans="1:15">
       <c r="A203" s="80">
         <v>202</v>
       </c>
@@ -30291,7 +30334,7 @@
       </c>
       <c r="O204" s="78"/>
     </row>
-    <row r="205" spans="1:15" ht="31.5">
+    <row r="205" spans="1:15">
       <c r="A205" s="80">
         <v>204</v>
       </c>
@@ -30331,7 +30374,7 @@
       </c>
       <c r="O205" s="78"/>
     </row>
-    <row r="206" spans="1:15" ht="31.5">
+    <row r="206" spans="1:15">
       <c r="A206" s="80">
         <v>205</v>
       </c>
@@ -30463,7 +30506,7 @@
       </c>
       <c r="O209" s="78"/>
     </row>
-    <row r="210" spans="1:15" ht="31.5">
+    <row r="210" spans="1:15">
       <c r="A210" s="80">
         <v>209</v>
       </c>
@@ -30579,7 +30622,7 @@
       </c>
       <c r="O212" s="78"/>
     </row>
-    <row r="213" spans="1:15" ht="31.5">
+    <row r="213" spans="1:15">
       <c r="A213" s="80">
         <v>212</v>
       </c>
@@ -30703,7 +30746,7 @@
       </c>
       <c r="O215" s="78"/>
     </row>
-    <row r="216" spans="1:15" ht="31.5">
+    <row r="216" spans="1:15">
       <c r="A216" s="80">
         <v>215</v>
       </c>
@@ -31027,7 +31070,7 @@
       </c>
       <c r="O224" s="78"/>
     </row>
-    <row r="225" spans="1:15" ht="31.5">
+    <row r="225" spans="1:15">
       <c r="A225" s="80">
         <v>224</v>
       </c>
@@ -31521,7 +31564,7 @@
       <c r="N238" s="82"/>
       <c r="O238" s="78"/>
     </row>
-    <row r="239" spans="1:15" ht="47.25">
+    <row r="239" spans="1:15" ht="31.5">
       <c r="A239" s="80">
         <v>238</v>
       </c>
@@ -31677,7 +31720,7 @@
       </c>
       <c r="O243" s="78"/>
     </row>
-    <row r="244" spans="1:15" ht="31.5">
+    <row r="244" spans="1:15">
       <c r="A244" s="80">
         <v>243</v>
       </c>
@@ -31717,7 +31760,7 @@
       </c>
       <c r="O244" s="78"/>
     </row>
-    <row r="245" spans="1:15" ht="31.5">
+    <row r="245" spans="1:15">
       <c r="A245" s="80">
         <v>244</v>
       </c>
@@ -31753,7 +31796,7 @@
       </c>
       <c r="O245" s="78"/>
     </row>
-    <row r="246" spans="1:15" ht="31.5">
+    <row r="246" spans="1:15">
       <c r="A246" s="80">
         <v>245</v>
       </c>
@@ -31791,7 +31834,7 @@
       </c>
       <c r="O246" s="78"/>
     </row>
-    <row r="247" spans="1:15" ht="31.5">
+    <row r="247" spans="1:15">
       <c r="A247" s="80">
         <v>246</v>
       </c>
@@ -31829,7 +31872,7 @@
       </c>
       <c r="O247" s="78"/>
     </row>
-    <row r="248" spans="1:15" ht="31.5">
+    <row r="248" spans="1:15">
       <c r="A248" s="80">
         <v>247</v>
       </c>
@@ -31867,7 +31910,7 @@
       </c>
       <c r="O248" s="78"/>
     </row>
-    <row r="249" spans="1:15" ht="31.5">
+    <row r="249" spans="1:15">
       <c r="A249" s="80">
         <v>248</v>
       </c>
@@ -31939,7 +31982,7 @@
       </c>
       <c r="O250" s="78"/>
     </row>
-    <row r="251" spans="1:15" ht="31.5">
+    <row r="251" spans="1:15">
       <c r="A251" s="80">
         <v>250</v>
       </c>
@@ -32129,7 +32172,7 @@
       </c>
       <c r="O255" s="78"/>
     </row>
-    <row r="256" spans="1:15" ht="31.5">
+    <row r="256" spans="1:15">
       <c r="A256" s="80">
         <v>255</v>
       </c>
@@ -32165,7 +32208,7 @@
       </c>
       <c r="O256" s="78"/>
     </row>
-    <row r="257" spans="1:15" ht="31.5">
+    <row r="257" spans="1:15">
       <c r="A257" s="80">
         <v>256</v>
       </c>
@@ -32329,7 +32372,7 @@
       <c r="N261" s="82"/>
       <c r="O261" s="78"/>
     </row>
-    <row r="262" spans="1:15" ht="31.5">
+    <row r="262" spans="1:15">
       <c r="A262" s="80">
         <v>261</v>
       </c>
@@ -32405,7 +32448,7 @@
       </c>
       <c r="O263" s="78"/>
     </row>
-    <row r="264" spans="1:15" ht="50.25">
+    <row r="264" spans="1:15" ht="34.5">
       <c r="A264" s="80">
         <v>263</v>
       </c>
@@ -32485,7 +32528,7 @@
       </c>
       <c r="O265" s="78"/>
     </row>
-    <row r="266" spans="1:15" ht="31.5">
+    <row r="266" spans="1:15">
       <c r="A266" s="80">
         <v>265</v>
       </c>
@@ -32561,7 +32604,7 @@
       </c>
       <c r="O267" s="78"/>
     </row>
-    <row r="268" spans="1:15" ht="47.25">
+    <row r="268" spans="1:15" ht="34.5">
       <c r="A268" s="80">
         <v>267</v>
       </c>
@@ -32641,7 +32684,7 @@
       </c>
       <c r="O269" s="78"/>
     </row>
-    <row r="270" spans="1:15" ht="31.5">
+    <row r="270" spans="1:15">
       <c r="A270" s="80">
         <v>269</v>
       </c>
@@ -32679,7 +32722,7 @@
       </c>
       <c r="O270" s="78"/>
     </row>
-    <row r="271" spans="1:15" ht="31.5">
+    <row r="271" spans="1:15">
       <c r="A271" s="80">
         <v>270</v>
       </c>
@@ -32831,7 +32874,7 @@
       </c>
       <c r="O274" s="78"/>
     </row>
-    <row r="275" spans="1:15" ht="31.5">
+    <row r="275" spans="1:15">
       <c r="A275" s="80">
         <v>274</v>
       </c>
@@ -32869,7 +32912,7 @@
       </c>
       <c r="O275" s="78"/>
     </row>
-    <row r="276" spans="1:15" ht="31.5">
+    <row r="276" spans="1:15">
       <c r="A276" s="80">
         <v>275</v>
       </c>
@@ -32905,7 +32948,7 @@
       </c>
       <c r="O276" s="78"/>
     </row>
-    <row r="277" spans="1:15" ht="31.5">
+    <row r="277" spans="1:15">
       <c r="A277" s="80">
         <v>276</v>
       </c>
@@ -33171,7 +33214,7 @@
       <c r="N284" s="82"/>
       <c r="O284" s="78"/>
     </row>
-    <row r="285" spans="1:15" ht="78.75">
+    <row r="285" spans="1:15" ht="47.25">
       <c r="A285" s="80">
         <v>284</v>
       </c>
@@ -33245,7 +33288,7 @@
       </c>
       <c r="O286" s="78"/>
     </row>
-    <row r="287" spans="1:15" ht="31.5">
+    <row r="287" spans="1:15">
       <c r="A287" s="80">
         <v>286</v>
       </c>
@@ -33539,7 +33582,7 @@
       </c>
       <c r="O294" s="78"/>
     </row>
-    <row r="295" spans="1:15" ht="31.5">
+    <row r="295" spans="1:15">
       <c r="A295" s="80">
         <v>294</v>
       </c>
@@ -33715,7 +33758,7 @@
       </c>
       <c r="O299" s="78"/>
     </row>
-    <row r="300" spans="1:15" ht="31.5">
+    <row r="300" spans="1:15">
       <c r="A300" s="80">
         <v>299</v>
       </c>
@@ -34137,7 +34180,7 @@
       </c>
       <c r="O311" s="78"/>
     </row>
-    <row r="312" spans="1:15" ht="31.5">
+    <row r="312" spans="1:15">
       <c r="A312" s="80">
         <v>311</v>
       </c>
@@ -34173,7 +34216,7 @@
       </c>
       <c r="O312" s="78"/>
     </row>
-    <row r="313" spans="1:15" ht="31.5">
+    <row r="313" spans="1:15">
       <c r="A313" s="80">
         <v>312</v>
       </c>
@@ -34211,7 +34254,7 @@
       </c>
       <c r="O313" s="78"/>
     </row>
-    <row r="314" spans="1:15" ht="47.25">
+    <row r="314" spans="1:15" ht="31.5">
       <c r="A314" s="80">
         <v>313</v>
       </c>
@@ -34255,7 +34298,7 @@
       </c>
       <c r="O314" s="78"/>
     </row>
-    <row r="315" spans="1:15" ht="31.5">
+    <row r="315" spans="1:15">
       <c r="A315" s="80">
         <v>314</v>
       </c>
@@ -34441,7 +34484,7 @@
       </c>
       <c r="O319" s="78"/>
     </row>
-    <row r="320" spans="1:15" ht="31.5">
+    <row r="320" spans="1:15">
       <c r="A320" s="80">
         <v>319</v>
       </c>
@@ -35341,7 +35384,7 @@
       </c>
       <c r="O344" s="78"/>
     </row>
-    <row r="345" spans="1:15" ht="31.5">
+    <row r="345" spans="1:15">
       <c r="A345" s="80">
         <v>344</v>
       </c>
@@ -35381,7 +35424,7 @@
       </c>
       <c r="O345" s="78"/>
     </row>
-    <row r="346" spans="1:15" ht="31.5">
+    <row r="346" spans="1:15">
       <c r="A346" s="80">
         <v>345</v>
       </c>
@@ -35421,7 +35464,7 @@
       </c>
       <c r="O346" s="78"/>
     </row>
-    <row r="347" spans="1:15" ht="31.5">
+    <row r="347" spans="1:15">
       <c r="A347" s="80">
         <v>346</v>
       </c>
@@ -35515,7 +35558,7 @@
       <c r="N349" s="82"/>
       <c r="O349" s="78"/>
     </row>
-    <row r="350" spans="1:15" ht="31.5">
+    <row r="350" spans="1:15">
       <c r="A350" s="80">
         <v>349</v>
       </c>
@@ -35631,7 +35674,7 @@
       </c>
       <c r="O352" s="78"/>
     </row>
-    <row r="353" spans="1:15" ht="47.25">
+    <row r="353" spans="1:15" ht="31.5">
       <c r="A353" s="80">
         <v>352</v>
       </c>
@@ -35675,7 +35718,7 @@
       </c>
       <c r="O353" s="78"/>
     </row>
-    <row r="354" spans="1:15" ht="31.5">
+    <row r="354" spans="1:15">
       <c r="A354" s="80">
         <v>353</v>
       </c>
@@ -35719,7 +35762,7 @@
       </c>
       <c r="O354" s="78"/>
     </row>
-    <row r="355" spans="1:15" ht="31.5">
+    <row r="355" spans="1:15">
       <c r="A355" s="80">
         <v>354</v>
       </c>
@@ -35795,7 +35838,7 @@
       </c>
       <c r="O356" s="78"/>
     </row>
-    <row r="357" spans="1:15" ht="31.5">
+    <row r="357" spans="1:15">
       <c r="A357" s="80">
         <v>356</v>
       </c>
@@ -35827,7 +35870,7 @@
       </c>
       <c r="O357" s="78"/>
     </row>
-    <row r="358" spans="1:15" ht="31.5">
+    <row r="358" spans="1:15">
       <c r="A358" s="80">
         <v>357</v>
       </c>
@@ -36061,7 +36104,7 @@
       </c>
       <c r="O363" s="78"/>
     </row>
-    <row r="364" spans="1:15" ht="31.5">
+    <row r="364" spans="1:15">
       <c r="A364" s="80">
         <v>363</v>
       </c>
@@ -36097,7 +36140,7 @@
       </c>
       <c r="O364" s="78"/>
     </row>
-    <row r="365" spans="1:15" ht="31.5">
+    <row r="365" spans="1:15">
       <c r="A365" s="80">
         <v>364</v>
       </c>
@@ -36141,7 +36184,7 @@
       </c>
       <c r="O365" s="78"/>
     </row>
-    <row r="366" spans="1:15" ht="31.5">
+    <row r="366" spans="1:15">
       <c r="A366" s="80">
         <v>365</v>
       </c>
@@ -36177,7 +36220,7 @@
       </c>
       <c r="O366" s="78"/>
     </row>
-    <row r="367" spans="1:15" ht="31.5">
+    <row r="367" spans="1:15">
       <c r="A367" s="80">
         <v>366</v>
       </c>
@@ -36555,7 +36598,7 @@
       </c>
       <c r="O376" s="78"/>
     </row>
-    <row r="377" spans="1:15" ht="31.5">
+    <row r="377" spans="1:15">
       <c r="A377" s="80">
         <v>376</v>
       </c>
@@ -36759,7 +36802,7 @@
       </c>
       <c r="O382" s="78"/>
     </row>
-    <row r="383" spans="1:15" ht="31.5">
+    <row r="383" spans="1:15">
       <c r="A383" s="80">
         <v>382</v>
       </c>
@@ -36795,7 +36838,7 @@
       </c>
       <c r="O383" s="78"/>
     </row>
-    <row r="384" spans="1:15" ht="31.5">
+    <row r="384" spans="1:15">
       <c r="A384" s="80">
         <v>383</v>
       </c>
@@ -36875,7 +36918,7 @@
       </c>
       <c r="O385" s="78"/>
     </row>
-    <row r="386" spans="1:15" ht="31.5">
+    <row r="386" spans="1:15">
       <c r="A386" s="80">
         <v>385</v>
       </c>
@@ -37185,7 +37228,7 @@
       </c>
       <c r="O393" s="78"/>
     </row>
-    <row r="394" spans="1:15" ht="31.5">
+    <row r="394" spans="1:15">
       <c r="A394" s="80">
         <v>393</v>
       </c>
@@ -37223,7 +37266,7 @@
       </c>
       <c r="O394" s="78"/>
     </row>
-    <row r="395" spans="1:15" ht="31.5">
+    <row r="395" spans="1:15">
       <c r="A395" s="80">
         <v>394</v>
       </c>
@@ -37293,7 +37336,7 @@
       <c r="N396" s="82"/>
       <c r="O396" s="78"/>
     </row>
-    <row r="397" spans="1:15" ht="78.75">
+    <row r="397" spans="1:15" ht="47.25">
       <c r="A397" s="80">
         <v>396</v>
       </c>
@@ -37597,7 +37640,7 @@
       <c r="N405" s="82"/>
       <c r="O405" s="78"/>
     </row>
-    <row r="406" spans="1:15" ht="31.5">
+    <row r="406" spans="1:15">
       <c r="A406" s="80">
         <v>405</v>
       </c>
@@ -37709,7 +37752,7 @@
       </c>
       <c r="O408" s="78"/>
     </row>
-    <row r="409" spans="1:15" ht="47.25">
+    <row r="409" spans="1:15" ht="31.5">
       <c r="A409" s="80">
         <v>408</v>
       </c>
@@ -37855,7 +37898,7 @@
       </c>
       <c r="O412" s="78"/>
     </row>
-    <row r="413" spans="1:15" ht="31.5">
+    <row r="413" spans="1:15">
       <c r="A413" s="80">
         <v>412</v>
       </c>
@@ -37887,7 +37930,7 @@
       <c r="N413" s="82"/>
       <c r="O413" s="78"/>
     </row>
-    <row r="414" spans="1:15" ht="31.5">
+    <row r="414" spans="1:15">
       <c r="A414" s="80">
         <v>413</v>
       </c>
@@ -37917,7 +37960,7 @@
       <c r="N414" s="82"/>
       <c r="O414" s="78"/>
     </row>
-    <row r="415" spans="1:15" ht="31.5">
+    <row r="415" spans="1:15">
       <c r="A415" s="80">
         <v>414</v>
       </c>
@@ -37947,7 +37990,7 @@
       <c r="N415" s="82"/>
       <c r="O415" s="78"/>
     </row>
-    <row r="416" spans="1:15" ht="31.5">
+    <row r="416" spans="1:15">
       <c r="A416" s="80">
         <v>415</v>
       </c>
@@ -37977,7 +38020,7 @@
       <c r="N416" s="82"/>
       <c r="O416" s="78"/>
     </row>
-    <row r="417" spans="1:15" ht="31.5">
+    <row r="417" spans="1:15">
       <c r="A417" s="80">
         <v>416</v>
       </c>
@@ -38007,7 +38050,7 @@
       <c r="N417" s="82"/>
       <c r="O417" s="78"/>
     </row>
-    <row r="418" spans="1:15" ht="31.5">
+    <row r="418" spans="1:15">
       <c r="A418" s="80">
         <v>417</v>
       </c>
@@ -38037,7 +38080,7 @@
       <c r="N418" s="82"/>
       <c r="O418" s="78"/>
     </row>
-    <row r="419" spans="1:15" ht="31.5">
+    <row r="419" spans="1:15">
       <c r="A419" s="80">
         <v>418</v>
       </c>
@@ -38333,7 +38376,7 @@
       <c r="N426" s="82"/>
       <c r="O426" s="78"/>
     </row>
-    <row r="427" spans="1:15" ht="31.5">
+    <row r="427" spans="1:15">
       <c r="A427" s="80">
         <v>426</v>
       </c>
@@ -38431,7 +38474,7 @@
       </c>
       <c r="O429" s="78"/>
     </row>
-    <row r="430" spans="1:15" ht="31.5">
+    <row r="430" spans="1:15">
       <c r="A430" s="80">
         <v>429</v>
       </c>
@@ -38461,7 +38504,7 @@
       <c r="N430" s="82"/>
       <c r="O430" s="78"/>
     </row>
-    <row r="431" spans="1:15" ht="31.5">
+    <row r="431" spans="1:15">
       <c r="A431" s="80">
         <v>430</v>
       </c>
@@ -38655,7 +38698,7 @@
       <c r="N436" s="82"/>
       <c r="O436" s="78"/>
     </row>
-    <row r="437" spans="1:15" ht="31.5">
+    <row r="437" spans="1:15">
       <c r="A437" s="80">
         <v>436</v>
       </c>
@@ -38774,7 +38817,9 @@
       <c r="F440" s="78" t="s">
         <v>2177</v>
       </c>
-      <c r="G440" s="78"/>
+      <c r="G440" s="78" t="s">
+        <v>2933</v>
+      </c>
       <c r="H440" s="78"/>
       <c r="I440" s="78" t="s">
         <v>893</v>
@@ -38955,7 +39000,7 @@
       <c r="N445" s="82"/>
       <c r="O445" s="78"/>
     </row>
-    <row r="446" spans="1:15" ht="31.5">
+    <row r="446" spans="1:15">
       <c r="A446" s="80">
         <v>445</v>
       </c>
@@ -39311,7 +39356,7 @@
       <c r="N455" s="82"/>
       <c r="O455" s="78"/>
     </row>
-    <row r="456" spans="1:15" ht="31.5">
+    <row r="456" spans="1:15">
       <c r="A456" s="80">
         <v>455</v>
       </c>
@@ -39497,7 +39542,7 @@
       <c r="N460" s="82"/>
       <c r="O460" s="78"/>
     </row>
-    <row r="461" spans="1:15" ht="31.5">
+    <row r="461" spans="1:15">
       <c r="A461" s="80">
         <v>460</v>
       </c>
@@ -39537,7 +39582,7 @@
       </c>
       <c r="O461" s="78"/>
     </row>
-    <row r="462" spans="1:15" ht="31.5">
+    <row r="462" spans="1:15">
       <c r="A462" s="80">
         <v>461</v>
       </c>
@@ -39649,7 +39694,7 @@
       </c>
       <c r="O464" s="78"/>
     </row>
-    <row r="465" spans="1:15" ht="31.5">
+    <row r="465" spans="1:15">
       <c r="A465" s="80">
         <v>464</v>
       </c>
@@ -39687,7 +39732,7 @@
       </c>
       <c r="O465" s="78"/>
     </row>
-    <row r="466" spans="1:15" s="104" customFormat="1" ht="31.5">
+    <row r="466" spans="1:15" s="104" customFormat="1">
       <c r="A466" s="80">
         <v>465</v>
       </c>
@@ -39771,7 +39816,7 @@
       </c>
       <c r="O467" s="81"/>
     </row>
-    <row r="468" spans="1:15" s="104" customFormat="1" ht="31.5">
+    <row r="468" spans="1:15" s="104" customFormat="1">
       <c r="A468" s="80">
         <v>467</v>
       </c>
@@ -40265,7 +40310,7 @@
       <c r="N481" s="82"/>
       <c r="O481" s="78"/>
     </row>
-    <row r="482" spans="1:15" ht="63">
+    <row r="482" spans="1:15" ht="47.25">
       <c r="A482" s="80">
         <v>481</v>
       </c>
@@ -40404,7 +40449,7 @@
       <c r="N485" s="82"/>
       <c r="O485" s="78"/>
     </row>
-    <row r="486" spans="1:15" ht="31.5">
+    <row r="486" spans="1:15">
       <c r="A486" s="80">
         <v>485</v>
       </c>
@@ -40450,7 +40495,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="487" spans="1:15" ht="31.5">
+    <row r="487" spans="1:15">
       <c r="A487" s="80">
         <v>486</v>
       </c>
@@ -40496,7 +40541,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="488" spans="1:15" ht="31.5">
+    <row r="488" spans="1:15">
       <c r="A488" s="80">
         <v>487</v>
       </c>
@@ -40542,7 +40587,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="489" spans="1:15" ht="31.5">
+    <row r="489" spans="1:15">
       <c r="A489" s="80">
         <v>488</v>
       </c>
@@ -40628,7 +40673,7 @@
       </c>
       <c r="O490" s="78"/>
     </row>
-    <row r="491" spans="1:15" ht="31.5">
+    <row r="491" spans="1:15">
       <c r="A491" s="80">
         <v>490</v>
       </c>
@@ -40702,7 +40747,7 @@
       </c>
       <c r="O492" s="78"/>
     </row>
-    <row r="493" spans="1:15" ht="31.5">
+    <row r="493" spans="1:15">
       <c r="A493" s="80">
         <v>492</v>
       </c>
@@ -40778,7 +40823,7 @@
       </c>
       <c r="O494" s="78"/>
     </row>
-    <row r="495" spans="1:15" s="104" customFormat="1" ht="31.5">
+    <row r="495" spans="1:15" s="104" customFormat="1">
       <c r="A495" s="80">
         <v>494</v>
       </c>
@@ -41668,7 +41713,7 @@
       <c r="N518" s="82"/>
       <c r="O518" s="78"/>
     </row>
-    <row r="519" spans="1:15" ht="31.5">
+    <row r="519" spans="1:15">
       <c r="A519" s="80">
         <v>518</v>
       </c>
@@ -41812,7 +41857,7 @@
       </c>
       <c r="O522" s="81"/>
     </row>
-    <row r="523" spans="1:15" ht="47.25">
+    <row r="523" spans="1:15" ht="31.5">
       <c r="A523" s="80">
         <v>522</v>
       </c>
@@ -42224,7 +42269,7 @@
       </c>
       <c r="O534" s="78"/>
     </row>
-    <row r="535" spans="1:15" ht="31.5">
+    <row r="535" spans="1:15">
       <c r="A535" s="80">
         <v>534</v>
       </c>
@@ -42326,7 +42371,7 @@
       <c r="N537" s="82"/>
       <c r="O537" s="78"/>
     </row>
-    <row r="538" spans="1:15" ht="31.5">
+    <row r="538" spans="1:15">
       <c r="A538" s="80">
         <v>537</v>
       </c>
@@ -42696,7 +42741,7 @@
       </c>
       <c r="O548" s="78"/>
     </row>
-    <row r="549" spans="1:15" ht="31.5">
+    <row r="549" spans="1:15">
       <c r="A549" s="80">
         <v>548</v>
       </c>
@@ -42870,7 +42915,7 @@
       </c>
       <c r="O553" s="78"/>
     </row>
-    <row r="554" spans="1:15" ht="47.25">
+    <row r="554" spans="1:15" ht="31.5">
       <c r="A554" s="80">
         <v>553</v>
       </c>
@@ -42934,7 +42979,7 @@
       <c r="N555" s="82"/>
       <c r="O555" s="78"/>
     </row>
-    <row r="556" spans="1:15" ht="47.25">
+    <row r="556" spans="1:15" ht="31.5">
       <c r="A556" s="80">
         <v>555</v>
       </c>
@@ -43268,7 +43313,7 @@
       </c>
       <c r="O565" s="78"/>
     </row>
-    <row r="566" spans="1:15" ht="47.25">
+    <row r="566" spans="1:15" ht="31.5">
       <c r="A566" s="80">
         <v>565</v>
       </c>
@@ -43404,7 +43449,7 @@
       </c>
       <c r="O569" s="78"/>
     </row>
-    <row r="570" spans="1:15" ht="31.5">
+    <row r="570" spans="1:15">
       <c r="A570" s="80">
         <v>569</v>
       </c>
@@ -43436,7 +43481,7 @@
       <c r="N570" s="82"/>
       <c r="O570" s="78"/>
     </row>
-    <row r="571" spans="1:15" ht="31.5">
+    <row r="571" spans="1:15">
       <c r="A571" s="80">
         <v>570</v>
       </c>
@@ -43468,7 +43513,7 @@
       <c r="N571" s="82"/>
       <c r="O571" s="78"/>
     </row>
-    <row r="572" spans="1:15" ht="31.5">
+    <row r="572" spans="1:15">
       <c r="A572" s="80">
         <v>571</v>
       </c>
@@ -43676,7 +43721,7 @@
       </c>
       <c r="O577" s="78"/>
     </row>
-    <row r="578" spans="1:15" ht="63">
+    <row r="578" spans="1:15" ht="47.25">
       <c r="A578" s="80">
         <v>577</v>
       </c>
@@ -43712,7 +43757,7 @@
       </c>
       <c r="O578" s="78"/>
     </row>
-    <row r="579" spans="1:15" ht="63">
+    <row r="579" spans="1:15" ht="47.25">
       <c r="A579" s="80">
         <v>578</v>
       </c>
@@ -44204,7 +44249,7 @@
       </c>
       <c r="O591" s="78"/>
     </row>
-    <row r="592" spans="1:15" ht="63">
+    <row r="592" spans="1:15" ht="47.25">
       <c r="A592" s="80">
         <v>590</v>
       </c>
@@ -44242,7 +44287,7 @@
       </c>
       <c r="O592" s="78"/>
     </row>
-    <row r="593" spans="1:15" ht="63">
+    <row r="593" spans="1:15" ht="47.25">
       <c r="A593" s="80">
         <v>591</v>
       </c>
@@ -44280,7 +44325,7 @@
       </c>
       <c r="O593" s="78"/>
     </row>
-    <row r="594" spans="1:15" ht="63">
+    <row r="594" spans="1:15" ht="47.25">
       <c r="A594" s="80">
         <v>592</v>
       </c>
@@ -44316,7 +44361,7 @@
       </c>
       <c r="O594" s="78"/>
     </row>
-    <row r="595" spans="1:15" ht="63">
+    <row r="595" spans="1:15" ht="47.25">
       <c r="A595" s="80">
         <v>593</v>
       </c>
@@ -44352,7 +44397,7 @@
       </c>
       <c r="O595" s="78"/>
     </row>
-    <row r="596" spans="1:15" ht="63">
+    <row r="596" spans="1:15" ht="47.25">
       <c r="A596" s="80">
         <v>594</v>
       </c>
@@ -44805,7 +44850,7 @@
       <c r="N608" s="82"/>
       <c r="O608" s="78"/>
     </row>
-    <row r="609" spans="1:15" ht="63">
+    <row r="609" spans="1:15" ht="47.25">
       <c r="A609" s="80">
         <v>607</v>
       </c>
@@ -44839,7 +44884,7 @@
       <c r="N609" s="82"/>
       <c r="O609" s="78"/>
     </row>
-    <row r="610" spans="1:15" ht="63">
+    <row r="610" spans="1:15" ht="47.25">
       <c r="A610" s="80">
         <v>608</v>
       </c>
@@ -44871,7 +44916,7 @@
       <c r="N610" s="82"/>
       <c r="O610" s="78"/>
     </row>
-    <row r="611" spans="1:15" ht="63">
+    <row r="611" spans="1:15" ht="47.25">
       <c r="A611" s="80">
         <v>609</v>
       </c>
@@ -45039,7 +45084,7 @@
       <c r="N615" s="82"/>
       <c r="O615" s="78"/>
     </row>
-    <row r="616" spans="1:15" ht="47.25">
+    <row r="616" spans="1:15" ht="31.5">
       <c r="A616" s="80">
         <v>614</v>
       </c>
@@ -45355,7 +45400,7 @@
       <c r="N625" s="82"/>
       <c r="O625" s="78"/>
     </row>
-    <row r="626" spans="1:15" ht="47.25">
+    <row r="626" spans="1:15" ht="31.5">
       <c r="A626" s="80">
         <v>624</v>
       </c>
@@ -45387,7 +45432,7 @@
       <c r="N626" s="82"/>
       <c r="O626" s="78"/>
     </row>
-    <row r="627" spans="1:15" ht="47.25">
+    <row r="627" spans="1:15" ht="31.5">
       <c r="A627" s="80">
         <v>625</v>
       </c>
@@ -45419,7 +45464,7 @@
       <c r="N627" s="82"/>
       <c r="O627" s="78"/>
     </row>
-    <row r="628" spans="1:15" ht="47.25">
+    <row r="628" spans="1:15" ht="31.5">
       <c r="A628" s="80">
         <v>626</v>
       </c>
@@ -46449,7 +46494,7 @@
       <c r="N666" s="82"/>
       <c r="O666" s="78"/>
     </row>
-    <row r="667" spans="1:15" ht="31.5">
+    <row r="667" spans="1:15">
       <c r="A667" s="80"/>
       <c r="B667" s="78"/>
       <c r="C667" s="78"/>
@@ -46656,7 +46701,7 @@
       <c r="N675" s="82"/>
       <c r="O675" s="78"/>
     </row>
-    <row r="676" spans="1:15" ht="31.5">
+    <row r="676" spans="1:15">
       <c r="A676" s="80"/>
       <c r="B676" s="78"/>
       <c r="C676" s="78"/>
@@ -46679,7 +46724,7 @@
       <c r="N676" s="82"/>
       <c r="O676" s="78"/>
     </row>
-    <row r="677" spans="1:15" ht="31.5">
+    <row r="677" spans="1:15">
       <c r="A677" s="80"/>
       <c r="B677" s="78"/>
       <c r="C677" s="78"/>
@@ -48164,7 +48209,7 @@
       <c r="N728" s="82"/>
       <c r="O728" s="78"/>
     </row>
-    <row r="729" spans="1:15" ht="31.5">
+    <row r="729" spans="1:15">
       <c r="A729" s="74"/>
       <c r="B729" s="78"/>
       <c r="C729" s="78" t="s">
@@ -48260,7 +48305,7 @@
       <c r="N731" s="82"/>
       <c r="O731" s="78"/>
     </row>
-    <row r="732" spans="1:15" ht="31.5">
+    <row r="732" spans="1:15">
       <c r="A732" s="74"/>
       <c r="B732" s="78"/>
       <c r="C732" s="78" t="s">
@@ -48784,7 +48829,7 @@
       <c r="N748" s="82"/>
       <c r="O748" s="78"/>
     </row>
-    <row r="749" spans="1:15" ht="31.5">
+    <row r="749" spans="1:15">
       <c r="A749" s="80"/>
       <c r="B749" s="81"/>
       <c r="C749" s="81" t="s">
@@ -48912,7 +48957,7 @@
       <c r="N752" s="82"/>
       <c r="O752" s="78"/>
     </row>
-    <row r="753" spans="1:15" ht="31.5">
+    <row r="753" spans="1:15">
       <c r="A753" s="74"/>
       <c r="B753" s="78"/>
       <c r="C753" s="78" t="s">
@@ -48976,7 +49021,7 @@
       <c r="N754" s="82"/>
       <c r="O754" s="78"/>
     </row>
-    <row r="755" spans="1:15" ht="31.5">
+    <row r="755" spans="1:15">
       <c r="A755" s="74"/>
       <c r="B755" s="78"/>
       <c r="C755" s="78" t="s">
@@ -49008,7 +49053,7 @@
       <c r="N755" s="82"/>
       <c r="O755" s="78"/>
     </row>
-    <row r="756" spans="1:15" ht="31.5">
+    <row r="756" spans="1:15">
       <c r="A756" s="74"/>
       <c r="B756" s="78"/>
       <c r="C756" s="78" t="s">
@@ -49136,7 +49181,7 @@
       <c r="N759" s="82"/>
       <c r="O759" s="78"/>
     </row>
-    <row r="760" spans="1:15" ht="31.5">
+    <row r="760" spans="1:15">
       <c r="A760" s="74"/>
       <c r="B760" s="78"/>
       <c r="C760" s="78" t="s">
@@ -49168,7 +49213,7 @@
       <c r="N760" s="82"/>
       <c r="O760" s="78"/>
     </row>
-    <row r="761" spans="1:15" ht="31.5">
+    <row r="761" spans="1:15">
       <c r="A761" s="74"/>
       <c r="B761" s="78"/>
       <c r="C761" s="78" t="s">
@@ -49296,7 +49341,7 @@
       <c r="N764" s="82"/>
       <c r="O764" s="78"/>
     </row>
-    <row r="765" spans="1:15" ht="31.5">
+    <row r="765" spans="1:15">
       <c r="A765" s="74"/>
       <c r="B765" s="78"/>
       <c r="C765" s="78" t="s">
@@ -49328,7 +49373,7 @@
       <c r="N765" s="82"/>
       <c r="O765" s="78"/>
     </row>
-    <row r="766" spans="1:15" ht="31.5">
+    <row r="766" spans="1:15">
       <c r="A766" s="74"/>
       <c r="B766" s="78"/>
       <c r="C766" s="78" t="s">
@@ -49584,7 +49629,7 @@
       <c r="N773" s="82"/>
       <c r="O773" s="78"/>
     </row>
-    <row r="774" spans="1:15" ht="31.5">
+    <row r="774" spans="1:15">
       <c r="A774" s="74"/>
       <c r="B774" s="78"/>
       <c r="C774" s="78" t="s">
@@ -49616,7 +49661,7 @@
       <c r="N774" s="82"/>
       <c r="O774" s="78"/>
     </row>
-    <row r="775" spans="1:15" ht="31.5">
+    <row r="775" spans="1:15">
       <c r="A775" s="74"/>
       <c r="B775" s="78"/>
       <c r="C775" s="78" t="s">
@@ -49776,7 +49821,7 @@
       <c r="N779" s="82"/>
       <c r="O779" s="78"/>
     </row>
-    <row r="780" spans="1:15" ht="31.5">
+    <row r="780" spans="1:15">
       <c r="A780" s="74"/>
       <c r="B780" s="78"/>
       <c r="C780" s="78" t="s">
@@ -52944,7 +52989,7 @@
       <c r="N879" s="82"/>
       <c r="O879" s="78"/>
     </row>
-    <row r="880" spans="1:15" ht="31.5">
+    <row r="880" spans="1:15">
       <c r="A880" s="74"/>
       <c r="B880" s="78"/>
       <c r="C880" s="78" t="s">
@@ -53008,7 +53053,7 @@
       <c r="N881" s="82"/>
       <c r="O881" s="78"/>
     </row>
-    <row r="882" spans="1:15" ht="31.5">
+    <row r="882" spans="1:15">
       <c r="A882" s="74"/>
       <c r="B882" s="78"/>
       <c r="C882" s="78" t="s">
@@ -53040,7 +53085,7 @@
       <c r="N882" s="82"/>
       <c r="O882" s="78"/>
     </row>
-    <row r="883" spans="1:15" ht="31.5">
+    <row r="883" spans="1:15">
       <c r="A883" s="74"/>
       <c r="B883" s="78"/>
       <c r="C883" s="78" t="s">
@@ -53072,7 +53117,7 @@
       <c r="N883" s="82"/>
       <c r="O883" s="78"/>
     </row>
-    <row r="884" spans="1:15" ht="31.5">
+    <row r="884" spans="1:15">
       <c r="A884" s="74"/>
       <c r="B884" s="78"/>
       <c r="C884" s="78" t="s">
@@ -53104,7 +53149,7 @@
       <c r="N884" s="82"/>
       <c r="O884" s="78"/>
     </row>
-    <row r="885" spans="1:15" ht="31.5">
+    <row r="885" spans="1:15">
       <c r="A885" s="74"/>
       <c r="B885" s="78"/>
       <c r="C885" s="78" t="s">
@@ -53136,7 +53181,7 @@
       <c r="N885" s="82"/>
       <c r="O885" s="78"/>
     </row>
-    <row r="886" spans="1:15" ht="31.5">
+    <row r="886" spans="1:15">
       <c r="A886" s="74"/>
       <c r="B886" s="78"/>
       <c r="C886" s="78" t="s">
@@ -53168,7 +53213,7 @@
       <c r="N886" s="82"/>
       <c r="O886" s="78"/>
     </row>
-    <row r="887" spans="1:15" ht="31.5">
+    <row r="887" spans="1:15">
       <c r="A887" s="74"/>
       <c r="B887" s="78"/>
       <c r="C887" s="78" t="s">
@@ -53200,7 +53245,7 @@
       <c r="N887" s="82"/>
       <c r="O887" s="78"/>
     </row>
-    <row r="888" spans="1:15" ht="31.5">
+    <row r="888" spans="1:15">
       <c r="A888" s="74"/>
       <c r="B888" s="78"/>
       <c r="C888" s="78" t="s">
@@ -53232,7 +53277,7 @@
       <c r="N888" s="82"/>
       <c r="O888" s="78"/>
     </row>
-    <row r="889" spans="1:15" ht="31.5">
+    <row r="889" spans="1:15">
       <c r="A889" s="74"/>
       <c r="B889" s="78"/>
       <c r="C889" s="78" t="s">
@@ -53264,7 +53309,7 @@
       <c r="N889" s="82"/>
       <c r="O889" s="78"/>
     </row>
-    <row r="890" spans="1:15" ht="31.5">
+    <row r="890" spans="1:15">
       <c r="A890" s="74"/>
       <c r="B890" s="78"/>
       <c r="C890" s="78" t="s">
@@ -53296,7 +53341,7 @@
       <c r="N890" s="82"/>
       <c r="O890" s="78"/>
     </row>
-    <row r="891" spans="1:15" ht="31.5">
+    <row r="891" spans="1:15">
       <c r="A891" s="74"/>
       <c r="B891" s="78"/>
       <c r="C891" s="78" t="s">
@@ -53328,7 +53373,7 @@
       <c r="N891" s="82"/>
       <c r="O891" s="78"/>
     </row>
-    <row r="892" spans="1:15" ht="31.5">
+    <row r="892" spans="1:15">
       <c r="A892" s="74"/>
       <c r="B892" s="78"/>
       <c r="C892" s="78" t="s">
@@ -53360,7 +53405,7 @@
       <c r="N892" s="82"/>
       <c r="O892" s="78"/>
     </row>
-    <row r="893" spans="1:15" ht="31.5">
+    <row r="893" spans="1:15">
       <c r="A893" s="74"/>
       <c r="B893" s="78"/>
       <c r="C893" s="78" t="s">
@@ -53392,7 +53437,7 @@
       <c r="N893" s="82"/>
       <c r="O893" s="78"/>
     </row>
-    <row r="894" spans="1:15" ht="31.5">
+    <row r="894" spans="1:15">
       <c r="A894" s="74"/>
       <c r="B894" s="78"/>
       <c r="C894" s="78" t="s">
@@ -53424,7 +53469,7 @@
       <c r="N894" s="82"/>
       <c r="O894" s="78"/>
     </row>
-    <row r="895" spans="1:15" ht="31.5">
+    <row r="895" spans="1:15">
       <c r="A895" s="74"/>
       <c r="B895" s="78"/>
       <c r="C895" s="78" t="s">
@@ -53456,7 +53501,7 @@
       <c r="N895" s="82"/>
       <c r="O895" s="78"/>
     </row>
-    <row r="896" spans="1:15" ht="31.5">
+    <row r="896" spans="1:15">
       <c r="A896" s="74"/>
       <c r="B896" s="78"/>
       <c r="C896" s="78" t="s">
@@ -53488,7 +53533,7 @@
       <c r="N896" s="82"/>
       <c r="O896" s="78"/>
     </row>
-    <row r="897" spans="1:15" ht="31.5">
+    <row r="897" spans="1:15">
       <c r="A897" s="74"/>
       <c r="B897" s="78"/>
       <c r="C897" s="78" t="s">
@@ -53520,7 +53565,7 @@
       <c r="N897" s="82"/>
       <c r="O897" s="78"/>
     </row>
-    <row r="898" spans="1:15" ht="31.5">
+    <row r="898" spans="1:15">
       <c r="A898" s="74"/>
       <c r="B898" s="78"/>
       <c r="C898" s="78" t="s">
@@ -53552,7 +53597,7 @@
       <c r="N898" s="82"/>
       <c r="O898" s="78"/>
     </row>
-    <row r="899" spans="1:15" ht="31.5">
+    <row r="899" spans="1:15">
       <c r="A899" s="74"/>
       <c r="B899" s="78"/>
       <c r="C899" s="78" t="s">
@@ -53584,7 +53629,7 @@
       <c r="N899" s="82"/>
       <c r="O899" s="78"/>
     </row>
-    <row r="900" spans="1:15" ht="31.5">
+    <row r="900" spans="1:15">
       <c r="A900" s="74"/>
       <c r="B900" s="78"/>
       <c r="C900" s="78" t="s">
@@ -53616,7 +53661,7 @@
       <c r="N900" s="82"/>
       <c r="O900" s="78"/>
     </row>
-    <row r="901" spans="1:15" ht="31.5">
+    <row r="901" spans="1:15">
       <c r="A901" s="74"/>
       <c r="B901" s="78"/>
       <c r="C901" s="78" t="s">
@@ -53648,7 +53693,7 @@
       <c r="N901" s="82"/>
       <c r="O901" s="78"/>
     </row>
-    <row r="902" spans="1:15" ht="31.5">
+    <row r="902" spans="1:15">
       <c r="A902" s="74"/>
       <c r="B902" s="78"/>
       <c r="C902" s="78" t="s">
@@ -53680,7 +53725,7 @@
       <c r="N902" s="82"/>
       <c r="O902" s="78"/>
     </row>
-    <row r="903" spans="1:15" ht="31.5">
+    <row r="903" spans="1:15">
       <c r="A903" s="74"/>
       <c r="B903" s="78"/>
       <c r="C903" s="78" t="s">
@@ -53712,7 +53757,7 @@
       <c r="N903" s="82"/>
       <c r="O903" s="78"/>
     </row>
-    <row r="904" spans="1:15" ht="31.5">
+    <row r="904" spans="1:15">
       <c r="A904" s="74"/>
       <c r="B904" s="78"/>
       <c r="C904" s="78" t="s">
@@ -53744,7 +53789,7 @@
       <c r="N904" s="82"/>
       <c r="O904" s="78"/>
     </row>
-    <row r="905" spans="1:15" ht="31.5">
+    <row r="905" spans="1:15">
       <c r="A905" s="74"/>
       <c r="B905" s="78"/>
       <c r="C905" s="78" t="s">
@@ -53808,7 +53853,7 @@
       <c r="N906" s="82"/>
       <c r="O906" s="78"/>
     </row>
-    <row r="907" spans="1:15" ht="31.5">
+    <row r="907" spans="1:15">
       <c r="A907" s="73"/>
       <c r="B907" s="78"/>
       <c r="C907" s="78" t="s">
@@ -53840,7 +53885,7 @@
       <c r="N907" s="82"/>
       <c r="O907" s="78"/>
     </row>
-    <row r="908" spans="1:15" ht="31.5">
+    <row r="908" spans="1:15">
       <c r="A908" s="73"/>
       <c r="B908" s="78"/>
       <c r="C908" s="78"/>
@@ -54356,7 +54401,7 @@
       <c r="A930" s="108"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N930"/>
+  <autoFilter ref="A1:N930" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <phoneticPr fontId="66" type="noConversion"/>
   <conditionalFormatting sqref="D714">
     <cfRule type="duplicateValues" dxfId="433" priority="432"/>
@@ -55599,7 +55644,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
@@ -55612,155 +55657,155 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.625" style="2" customWidth="1"/>
     <col min="3" max="3" width="22" style="10" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="62" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="63" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="62" customWidth="1"/>
-    <col min="7" max="7" width="12.7109375" style="63" customWidth="1"/>
-    <col min="8" max="11" width="12.7109375" style="62" customWidth="1"/>
-    <col min="12" max="12" width="12.7109375" style="63" customWidth="1"/>
+    <col min="4" max="4" width="14.875" style="62" customWidth="1"/>
+    <col min="5" max="5" width="12.75" style="63" customWidth="1"/>
+    <col min="6" max="6" width="12.75" style="62" customWidth="1"/>
+    <col min="7" max="7" width="12.75" style="63" customWidth="1"/>
+    <col min="8" max="11" width="12.75" style="62" customWidth="1"/>
+    <col min="12" max="12" width="12.75" style="63" customWidth="1"/>
     <col min="13" max="13" width="9" style="63" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" style="63" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="10.125" style="63" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="63" hidden="1" customWidth="1"/>
-    <col min="16" max="17" width="12.7109375" style="65" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" style="64" customWidth="1"/>
-    <col min="19" max="20" width="12.7109375" style="61" customWidth="1"/>
-    <col min="21" max="21" width="12.7109375" style="64" customWidth="1"/>
+    <col min="16" max="17" width="12.75" style="65" customWidth="1"/>
+    <col min="18" max="18" width="12.75" style="64" customWidth="1"/>
+    <col min="19" max="20" width="12.75" style="61" customWidth="1"/>
+    <col min="21" max="21" width="12.75" style="64" customWidth="1"/>
     <col min="22" max="23" width="9" style="10" customWidth="1"/>
-    <col min="24" max="24" width="12.7109375" style="30" customWidth="1"/>
-    <col min="25" max="25" width="12.7109375" style="29" customWidth="1"/>
-    <col min="26" max="26" width="12.7109375" style="31" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" style="29" customWidth="1"/>
-    <col min="28" max="28" width="12.7109375" style="32" customWidth="1"/>
-    <col min="29" max="29" width="15.5703125" style="29" customWidth="1"/>
-    <col min="30" max="30" width="15.5703125" style="33" customWidth="1"/>
-    <col min="31" max="31" width="15.140625" style="33" customWidth="1"/>
-    <col min="32" max="32" width="15.42578125" style="34" customWidth="1"/>
-    <col min="33" max="33" width="15.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.75" style="30" customWidth="1"/>
+    <col min="25" max="25" width="12.75" style="29" customWidth="1"/>
+    <col min="26" max="26" width="12.75" style="31" customWidth="1"/>
+    <col min="27" max="27" width="12.75" style="29" customWidth="1"/>
+    <col min="28" max="28" width="12.75" style="32" customWidth="1"/>
+    <col min="29" max="29" width="15.625" style="29" customWidth="1"/>
+    <col min="30" max="30" width="15.625" style="33" customWidth="1"/>
+    <col min="31" max="31" width="15.125" style="33" customWidth="1"/>
+    <col min="32" max="32" width="15.375" style="34" customWidth="1"/>
+    <col min="33" max="33" width="15.875" style="10" bestFit="1" customWidth="1"/>
     <col min="34" max="16384" width="9" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="122" t="s">
+      <c r="A1" s="112" t="s">
         <v>1558</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="122"/>
-      <c r="M1" s="122"/>
-      <c r="N1" s="122"/>
-      <c r="O1" s="122"/>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="122"/>
-      <c r="T1" s="122"/>
-      <c r="U1" s="122"/>
-      <c r="V1" s="122"/>
-      <c r="W1" s="122"/>
-      <c r="X1" s="122"/>
-      <c r="Y1" s="122"/>
-      <c r="Z1" s="122"/>
-      <c r="AA1" s="122"/>
-      <c r="AB1" s="122"/>
-      <c r="AC1" s="122"/>
-      <c r="AD1" s="122"/>
-      <c r="AE1" s="122"/>
-      <c r="AF1" s="122"/>
-      <c r="AG1" s="122"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
+      <c r="F1" s="112"/>
+      <c r="G1" s="112"/>
+      <c r="H1" s="112"/>
+      <c r="I1" s="112"/>
+      <c r="J1" s="112"/>
+      <c r="K1" s="112"/>
+      <c r="L1" s="112"/>
+      <c r="M1" s="112"/>
+      <c r="N1" s="112"/>
+      <c r="O1" s="112"/>
+      <c r="P1" s="112"/>
+      <c r="Q1" s="112"/>
+      <c r="R1" s="112"/>
+      <c r="S1" s="112"/>
+      <c r="T1" s="112"/>
+      <c r="U1" s="112"/>
+      <c r="V1" s="112"/>
+      <c r="W1" s="112"/>
+      <c r="X1" s="112"/>
+      <c r="Y1" s="112"/>
+      <c r="Z1" s="112"/>
+      <c r="AA1" s="112"/>
+      <c r="AB1" s="112"/>
+      <c r="AC1" s="112"/>
+      <c r="AD1" s="112"/>
+      <c r="AE1" s="112"/>
+      <c r="AF1" s="112"/>
+      <c r="AG1" s="112"/>
       <c r="AH1" s="42"/>
     </row>
     <row r="2" spans="1:34" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="123" t="s">
+      <c r="A2" s="113" t="s">
         <v>2354</v>
       </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="123"/>
-      <c r="H2" s="123"/>
-      <c r="I2" s="123"/>
-      <c r="J2" s="123"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
-      <c r="R2" s="123"/>
-      <c r="S2" s="123"/>
-      <c r="T2" s="123"/>
-      <c r="U2" s="123"/>
-      <c r="V2" s="123"/>
-      <c r="W2" s="123"/>
-      <c r="X2" s="123"/>
-      <c r="Y2" s="123"/>
-      <c r="Z2" s="123"/>
-      <c r="AA2" s="123"/>
-      <c r="AB2" s="123"/>
-      <c r="AC2" s="123"/>
-      <c r="AD2" s="123"/>
-      <c r="AE2" s="123"/>
-      <c r="AF2" s="123"/>
-      <c r="AG2" s="123"/>
+      <c r="B2" s="113"/>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="113"/>
+      <c r="H2" s="113"/>
+      <c r="I2" s="113"/>
+      <c r="J2" s="113"/>
+      <c r="K2" s="113"/>
+      <c r="L2" s="113"/>
+      <c r="M2" s="113"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="113"/>
+      <c r="T2" s="113"/>
+      <c r="U2" s="113"/>
+      <c r="V2" s="113"/>
+      <c r="W2" s="113"/>
+      <c r="X2" s="113"/>
+      <c r="Y2" s="113"/>
+      <c r="Z2" s="113"/>
+      <c r="AA2" s="113"/>
+      <c r="AB2" s="113"/>
+      <c r="AC2" s="113"/>
+      <c r="AD2" s="113"/>
+      <c r="AE2" s="113"/>
+      <c r="AF2" s="113"/>
+      <c r="AG2" s="113"/>
       <c r="AH2" s="43"/>
     </row>
     <row r="3" spans="1:34" s="8" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="123" t="s">
+      <c r="A3" s="113" t="s">
         <v>1312</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123"/>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
-      <c r="R3" s="123"/>
-      <c r="S3" s="123"/>
-      <c r="T3" s="123"/>
-      <c r="U3" s="123"/>
-      <c r="V3" s="123"/>
-      <c r="W3" s="123"/>
-      <c r="X3" s="123"/>
-      <c r="Y3" s="123"/>
-      <c r="Z3" s="123"/>
-      <c r="AA3" s="123"/>
-      <c r="AB3" s="123"/>
-      <c r="AC3" s="123"/>
-      <c r="AD3" s="123"/>
-      <c r="AE3" s="123"/>
-      <c r="AF3" s="123"/>
-      <c r="AG3" s="123"/>
+      <c r="B3" s="113"/>
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113"/>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="113"/>
+      <c r="N3" s="113"/>
+      <c r="O3" s="113"/>
+      <c r="P3" s="113"/>
+      <c r="Q3" s="113"/>
+      <c r="R3" s="113"/>
+      <c r="S3" s="113"/>
+      <c r="T3" s="113"/>
+      <c r="U3" s="113"/>
+      <c r="V3" s="113"/>
+      <c r="W3" s="113"/>
+      <c r="X3" s="113"/>
+      <c r="Y3" s="113"/>
+      <c r="Z3" s="113"/>
+      <c r="AA3" s="113"/>
+      <c r="AB3" s="113"/>
+      <c r="AC3" s="113"/>
+      <c r="AD3" s="113"/>
+      <c r="AE3" s="113"/>
+      <c r="AF3" s="113"/>
+      <c r="AG3" s="113"/>
       <c r="AH3" s="43"/>
     </row>
     <row r="4" spans="1:34" s="8" customFormat="1" ht="15.75">
-      <c r="B4" s="117" t="s">
+      <c r="B4" s="131" t="s">
         <v>1019</v>
       </c>
-      <c r="C4" s="117"/>
+      <c r="C4" s="131"/>
       <c r="D4" s="49"/>
       <c r="E4" s="50"/>
       <c r="F4" s="49"/>
@@ -55793,10 +55838,10 @@
       <c r="AG4" s="37"/>
     </row>
     <row r="5" spans="1:34" s="8" customFormat="1" ht="15.75">
-      <c r="B5" s="117" t="s">
+      <c r="B5" s="131" t="s">
         <v>1020</v>
       </c>
-      <c r="C5" s="117"/>
+      <c r="C5" s="131"/>
       <c r="D5" s="49"/>
       <c r="E5" s="50"/>
       <c r="F5" s="49"/>
@@ -55831,10 +55876,10 @@
       </c>
     </row>
     <row r="6" spans="1:34" s="8" customFormat="1" ht="15.75">
-      <c r="B6" s="116" t="s">
+      <c r="B6" s="130" t="s">
         <v>1021</v>
       </c>
-      <c r="C6" s="116"/>
+      <c r="C6" s="130"/>
       <c r="D6" s="54"/>
       <c r="E6" s="55"/>
       <c r="F6" s="54"/>
@@ -55898,108 +55943,108 @@
       <c r="AF7" s="21"/>
     </row>
     <row r="8" spans="1:34" s="8" customFormat="1" ht="46.15" customHeight="1">
-      <c r="A8" s="132" t="s">
+      <c r="A8" s="125" t="s">
         <v>1023</v>
       </c>
-      <c r="B8" s="127" t="s">
+      <c r="B8" s="119" t="s">
         <v>188</v>
       </c>
-      <c r="C8" s="127" t="s">
+      <c r="C8" s="119" t="s">
         <v>136</v>
       </c>
-      <c r="D8" s="119" t="s">
+      <c r="D8" s="126" t="s">
         <v>2355</v>
       </c>
-      <c r="E8" s="114" t="s">
+      <c r="E8" s="128" t="s">
         <v>2356</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="132" t="s">
         <v>2357</v>
       </c>
-      <c r="G8" s="121" t="s">
+      <c r="G8" s="133" t="s">
         <v>2358</v>
       </c>
-      <c r="H8" s="119" t="s">
+      <c r="H8" s="126" t="s">
         <v>1596</v>
       </c>
-      <c r="I8" s="119" t="s">
+      <c r="I8" s="126" t="s">
         <v>1609</v>
       </c>
-      <c r="J8" s="119" t="s">
+      <c r="J8" s="126" t="s">
         <v>1691</v>
       </c>
-      <c r="K8" s="119" t="s">
+      <c r="K8" s="126" t="s">
         <v>1692</v>
       </c>
-      <c r="L8" s="114" t="s">
+      <c r="L8" s="128" t="s">
         <v>1597</v>
       </c>
-      <c r="M8" s="114" t="s">
+      <c r="M8" s="128" t="s">
         <v>1610</v>
       </c>
-      <c r="N8" s="114" t="s">
+      <c r="N8" s="128" t="s">
         <v>1693</v>
       </c>
-      <c r="O8" s="114" t="s">
+      <c r="O8" s="128" t="s">
         <v>1694</v>
       </c>
-      <c r="P8" s="131" t="s">
+      <c r="P8" s="124" t="s">
         <v>2251</v>
       </c>
-      <c r="Q8" s="131"/>
-      <c r="R8" s="131"/>
-      <c r="S8" s="126" t="s">
+      <c r="Q8" s="124"/>
+      <c r="R8" s="124"/>
+      <c r="S8" s="118" t="s">
         <v>2252</v>
       </c>
-      <c r="T8" s="126"/>
-      <c r="U8" s="126"/>
-      <c r="V8" s="127" t="s">
+      <c r="T8" s="118"/>
+      <c r="U8" s="118"/>
+      <c r="V8" s="119" t="s">
         <v>1003</v>
       </c>
-      <c r="W8" s="127" t="s">
+      <c r="W8" s="119" t="s">
         <v>1024</v>
       </c>
-      <c r="X8" s="128" t="s">
+      <c r="X8" s="120" t="s">
         <v>1025</v>
       </c>
-      <c r="Y8" s="128"/>
-      <c r="Z8" s="128"/>
-      <c r="AA8" s="128"/>
-      <c r="AB8" s="129" t="s">
+      <c r="Y8" s="120"/>
+      <c r="Z8" s="120"/>
+      <c r="AA8" s="120"/>
+      <c r="AB8" s="121" t="s">
         <v>1026</v>
       </c>
-      <c r="AC8" s="111" t="s">
+      <c r="AC8" s="114" t="s">
         <v>1924</v>
       </c>
-      <c r="AD8" s="113" t="s">
+      <c r="AD8" s="123" t="s">
         <v>1922</v>
       </c>
-      <c r="AE8" s="113" t="s">
+      <c r="AE8" s="123" t="s">
         <v>1923</v>
       </c>
-      <c r="AF8" s="111" t="s">
+      <c r="AF8" s="114" t="s">
         <v>1925</v>
       </c>
-      <c r="AG8" s="124" t="s">
+      <c r="AG8" s="116" t="s">
         <v>1311</v>
       </c>
     </row>
     <row r="9" spans="1:34" s="8" customFormat="1" ht="61.5" customHeight="1">
-      <c r="A9" s="132"/>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="118"/>
-      <c r="G9" s="121"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
-      <c r="K9" s="120"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
-      <c r="O9" s="115"/>
+      <c r="A9" s="125"/>
+      <c r="B9" s="119"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="132"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="127"/>
+      <c r="I9" s="127"/>
+      <c r="J9" s="127"/>
+      <c r="K9" s="127"/>
+      <c r="L9" s="129"/>
+      <c r="M9" s="129"/>
+      <c r="N9" s="129"/>
+      <c r="O9" s="129"/>
       <c r="P9" s="68" t="s">
         <v>1027</v>
       </c>
@@ -56018,8 +56063,8 @@
       <c r="U9" s="44" t="s">
         <v>2240</v>
       </c>
-      <c r="V9" s="127"/>
-      <c r="W9" s="127"/>
+      <c r="V9" s="119"/>
+      <c r="W9" s="119"/>
       <c r="X9" s="23" t="s">
         <v>1310</v>
       </c>
@@ -56032,12 +56077,12 @@
       <c r="AA9" s="25" t="s">
         <v>1927</v>
       </c>
-      <c r="AB9" s="130"/>
-      <c r="AC9" s="112"/>
-      <c r="AD9" s="113"/>
-      <c r="AE9" s="113"/>
-      <c r="AF9" s="112"/>
-      <c r="AG9" s="125"/>
+      <c r="AB9" s="122"/>
+      <c r="AC9" s="115"/>
+      <c r="AD9" s="123"/>
+      <c r="AE9" s="123"/>
+      <c r="AF9" s="115"/>
+      <c r="AG9" s="117"/>
     </row>
     <row r="10" spans="1:34" ht="15.75">
       <c r="A10" s="9">
@@ -57308,7 +57353,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="45">
+    <row r="20" spans="1:33" ht="30">
       <c r="A20" s="9">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -57562,7 +57607,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="45">
+    <row r="22" spans="1:33" ht="30">
       <c r="A22" s="9">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -60102,7 +60147,7 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="42" spans="1:33" ht="30">
+    <row r="42" spans="1:33" ht="15.75">
       <c r="A42" s="9">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -61879,11 +61924,27 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A9:AH55"/>
+  <autoFilter ref="A9:AH55" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <sortState ref="B1:B175">
     <sortCondition ref="B157"/>
   </sortState>
   <mergeCells count="32">
+    <mergeCell ref="AC8:AC9"/>
+    <mergeCell ref="AD8:AD9"/>
+    <mergeCell ref="O8:O9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A2:AG2"/>
     <mergeCell ref="A3:AG3"/>
@@ -61900,22 +61961,6 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="AC8:AC9"/>
-    <mergeCell ref="AD8:AD9"/>
-    <mergeCell ref="O8:O9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="L8:L9"/>
   </mergeCells>
   <phoneticPr fontId="66" type="noConversion"/>
   <conditionalFormatting sqref="AB54:AB1010">
